--- a/GEQETF_N.xlsx
+++ b/GEQETF_N.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ashutosh_WFH_Data\Global Market Update\Excel Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\First Global\Work\Daily Report Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6370" uniqueCount="1831">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6369" uniqueCount="1830">
   <si>
     <t>USD</t>
   </si>
@@ -5509,9 +5509,6 @@
   </si>
   <si>
     <t>PROSHARES UL N B</t>
-  </si>
-  <si>
-    <t>The BLOOMBERG PROFESSIONAL service, BLOOMBERG Data and BLOOMBERG Order Management Systems (the "Services") are owned and distributed locally by Bloomberg Finance L.P. ("BFLP") and its subsidiaries in all jurisdictions other than Argentina, Bermuda, China, India, Japan and Korea (the "BLP Countries"). BFLP is a wholly-owned subsidiary of Bloomberg L.P. ("BLP"). BLP provides BFLP with all global marketing and operational support and service for the Services and distributes the Services either directly or through a non-BFLP subsidiary in the BLP Countries. The Services include electronic trading and order-routing services, which are available only to sophisticated institutional investors and only where necessary legal clearances have been obtained. BFLP, BLP and their affiliates do not provide investment advice or guarantee the accuracy of prices or information in the Services. Nothing on the Services shall constitute an offering of financial instruments by BFLP, BLP or their affiliates. BLOOMBERG, BLOOMBERG PROFESSIONAL, BLOOMBERG MARKET, BLOOMBERG NEWS, BLOOMBERG ANYWHERE, BLOOMBERG TRADEBOOK, BLOOMBERG BONDTRADER, BLOOMBERG TELEVISION, BLOOMBERG RADIO, BLOOMBERG PRESS and BLOOMBERG.COM are trademarks and service marks of BFLP, a Delaware limited partnership, or its subsidiaries.</t>
   </si>
 </sst>
 </file>
@@ -5660,7 +5657,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="27" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="27" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -5678,9 +5675,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="20" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="28">
@@ -5992,35 +5986,34 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:U910"/>
+  <dimension ref="A1:T908"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="17.140625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="20.140625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="22.5546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="17.109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="20.109375" style="3" customWidth="1"/>
     <col min="10" max="12" width="17" style="3" customWidth="1"/>
-    <col min="13" max="13" width="17.42578125" style="3" customWidth="1"/>
-    <col min="14" max="14" width="16.5703125" style="3" customWidth="1"/>
-    <col min="15" max="15" width="19.42578125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="17.44140625" style="3" customWidth="1"/>
+    <col min="14" max="14" width="16.5546875" style="3" customWidth="1"/>
+    <col min="15" max="15" width="19.44140625" style="3" customWidth="1"/>
     <col min="16" max="16" width="20" style="2" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="2" customWidth="1"/>
-    <col min="18" max="18" width="11.42578125" style="3" customWidth="1"/>
+    <col min="17" max="17" width="14.6640625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="11.44140625" style="3" customWidth="1"/>
     <col min="19" max="19" width="10" style="3" customWidth="1"/>
-    <col min="20" max="20" width="26.5703125" style="3" customWidth="1"/>
-    <col min="21" max="21" width="9.140625" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="20" max="20" width="26.5546875" style="3" customWidth="1"/>
+    <col min="21" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" ht="13.8">
       <c r="A1" s="7" t="s">
         <v>1</v>
       </c>
@@ -6082,7 +6075,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="2" spans="1:20" s="4" customFormat="1">
       <c r="A2" s="5" t="s">
         <v>21</v>
       </c>
@@ -6144,7 +6137,7 @@
         <v>32930334720</v>
       </c>
     </row>
-    <row r="3" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="3" spans="1:20" s="4" customFormat="1">
       <c r="A3" s="5" t="s">
         <v>27</v>
       </c>
@@ -6206,7 +6199,7 @@
         <v>1885743232</v>
       </c>
     </row>
-    <row r="4" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="4" spans="1:20" s="4" customFormat="1">
       <c r="A4" s="5" t="s">
         <v>29</v>
       </c>
@@ -6268,7 +6261,7 @@
         <v>893143040</v>
       </c>
     </row>
-    <row r="5" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="5" spans="1:20" s="4" customFormat="1">
       <c r="A5" s="5" t="s">
         <v>32</v>
       </c>
@@ -6330,7 +6323,7 @@
         <v>1455425280</v>
       </c>
     </row>
-    <row r="6" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="6" spans="1:20" s="4" customFormat="1">
       <c r="A6" s="5" t="s">
         <v>34</v>
       </c>
@@ -6392,7 +6385,7 @@
         <v>15425597440</v>
       </c>
     </row>
-    <row r="7" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="7" spans="1:20" s="4" customFormat="1">
       <c r="A7" s="5" t="s">
         <v>38</v>
       </c>
@@ -6454,7 +6447,7 @@
         <v>42714520</v>
       </c>
     </row>
-    <row r="8" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="8" spans="1:20" s="4" customFormat="1">
       <c r="A8" s="5" t="s">
         <v>45</v>
       </c>
@@ -6516,7 +6509,7 @@
         <v>406756544</v>
       </c>
     </row>
-    <row r="9" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="9" spans="1:20" s="4" customFormat="1">
       <c r="A9" s="5" t="s">
         <v>48</v>
       </c>
@@ -6578,7 +6571,7 @@
         <v>573001024</v>
       </c>
     </row>
-    <row r="10" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="10" spans="1:20" s="4" customFormat="1">
       <c r="A10" s="5" t="s">
         <v>51</v>
       </c>
@@ -6640,7 +6633,7 @@
         <v>768064448</v>
       </c>
     </row>
-    <row r="11" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="11" spans="1:20" s="4" customFormat="1">
       <c r="A11" s="5" t="s">
         <v>54</v>
       </c>
@@ -6702,7 +6695,7 @@
         <v>558711488</v>
       </c>
     </row>
-    <row r="12" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="12" spans="1:20" s="4" customFormat="1">
       <c r="A12" s="5" t="s">
         <v>56</v>
       </c>
@@ -6764,7 +6757,7 @@
         <v>81305872</v>
       </c>
     </row>
-    <row r="13" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="13" spans="1:20" s="4" customFormat="1">
       <c r="A13" s="5" t="s">
         <v>58</v>
       </c>
@@ -6826,7 +6819,7 @@
         <v>393856704</v>
       </c>
     </row>
-    <row r="14" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="14" spans="1:20" s="4" customFormat="1">
       <c r="A14" s="5" t="s">
         <v>61</v>
       </c>
@@ -6888,7 +6881,7 @@
         <v>224902544</v>
       </c>
     </row>
-    <row r="15" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="15" spans="1:20" s="4" customFormat="1">
       <c r="A15" s="5" t="s">
         <v>64</v>
       </c>
@@ -6950,7 +6943,7 @@
         <v>5236379.5</v>
       </c>
     </row>
-    <row r="16" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="16" spans="1:20" s="4" customFormat="1">
       <c r="A16" s="5" t="s">
         <v>66</v>
       </c>
@@ -7012,7 +7005,7 @@
         <v>489457056</v>
       </c>
     </row>
-    <row r="17" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="17" spans="1:20" s="4" customFormat="1">
       <c r="A17" s="5" t="s">
         <v>69</v>
       </c>
@@ -7074,7 +7067,7 @@
         <v>8049460</v>
       </c>
     </row>
-    <row r="18" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="18" spans="1:20" s="4" customFormat="1">
       <c r="A18" s="5" t="s">
         <v>71</v>
       </c>
@@ -7136,7 +7129,7 @@
         <v>6987579904</v>
       </c>
     </row>
-    <row r="19" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="19" spans="1:20" s="4" customFormat="1">
       <c r="A19" s="5" t="s">
         <v>73</v>
       </c>
@@ -7198,7 +7191,7 @@
         <v>309152544</v>
       </c>
     </row>
-    <row r="20" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="20" spans="1:20" s="4" customFormat="1">
       <c r="A20" s="5" t="s">
         <v>74</v>
       </c>
@@ -7260,7 +7253,7 @@
         <v>355137408</v>
       </c>
     </row>
-    <row r="21" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="21" spans="1:20" s="4" customFormat="1">
       <c r="A21" s="5" t="s">
         <v>77</v>
       </c>
@@ -7322,7 +7315,7 @@
         <v>218206272</v>
       </c>
     </row>
-    <row r="22" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="22" spans="1:20" s="4" customFormat="1">
       <c r="A22" s="5" t="s">
         <v>80</v>
       </c>
@@ -7384,7 +7377,7 @@
         <v>1574777600</v>
       </c>
     </row>
-    <row r="23" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="23" spans="1:20" s="4" customFormat="1">
       <c r="A23" s="5" t="s">
         <v>82</v>
       </c>
@@ -7446,7 +7439,7 @@
         <v>405943648</v>
       </c>
     </row>
-    <row r="24" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="24" spans="1:20" s="4" customFormat="1">
       <c r="A24" s="5" t="s">
         <v>83</v>
       </c>
@@ -7508,7 +7501,7 @@
         <v>146558000</v>
       </c>
     </row>
-    <row r="25" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="25" spans="1:20" s="4" customFormat="1">
       <c r="A25" s="5" t="s">
         <v>85</v>
       </c>
@@ -7568,7 +7561,7 @@
         <v>22462480</v>
       </c>
     </row>
-    <row r="26" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="26" spans="1:20" s="4" customFormat="1">
       <c r="A26" s="5" t="s">
         <v>91</v>
       </c>
@@ -7630,7 +7623,7 @@
         <v>210625760</v>
       </c>
     </row>
-    <row r="27" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="27" spans="1:20" s="4" customFormat="1">
       <c r="A27" s="5" t="s">
         <v>93</v>
       </c>
@@ -7692,7 +7685,7 @@
         <v>142059456</v>
       </c>
     </row>
-    <row r="28" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="28" spans="1:20" s="4" customFormat="1">
       <c r="A28" s="5" t="s">
         <v>95</v>
       </c>
@@ -7754,7 +7747,7 @@
         <v>149389760</v>
       </c>
     </row>
-    <row r="29" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="29" spans="1:20" s="4" customFormat="1">
       <c r="A29" s="5" t="s">
         <v>97</v>
       </c>
@@ -7816,7 +7809,7 @@
         <v>969675840</v>
       </c>
     </row>
-    <row r="30" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="30" spans="1:20" s="4" customFormat="1">
       <c r="A30" s="5" t="s">
         <v>99</v>
       </c>
@@ -7878,7 +7871,7 @@
         <v>1852686976</v>
       </c>
     </row>
-    <row r="31" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="31" spans="1:20" s="4" customFormat="1">
       <c r="A31" s="5" t="s">
         <v>102</v>
       </c>
@@ -7940,7 +7933,7 @@
         <v>133877104</v>
       </c>
     </row>
-    <row r="32" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="32" spans="1:20" s="4" customFormat="1">
       <c r="A32" s="5" t="s">
         <v>103</v>
       </c>
@@ -8002,7 +7995,7 @@
         <v>407507552</v>
       </c>
     </row>
-    <row r="33" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="33" spans="1:20" s="4" customFormat="1">
       <c r="A33" s="5" t="s">
         <v>106</v>
       </c>
@@ -8064,7 +8057,7 @@
         <v>8593484</v>
       </c>
     </row>
-    <row r="34" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="34" spans="1:20" s="4" customFormat="1">
       <c r="A34" s="5" t="s">
         <v>108</v>
       </c>
@@ -8126,7 +8119,7 @@
         <v>169188208</v>
       </c>
     </row>
-    <row r="35" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="35" spans="1:20" s="4" customFormat="1">
       <c r="A35" s="5" t="s">
         <v>110</v>
       </c>
@@ -8188,7 +8181,7 @@
         <v>16221749</v>
       </c>
     </row>
-    <row r="36" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="36" spans="1:20" s="4" customFormat="1">
       <c r="A36" s="5" t="s">
         <v>112</v>
       </c>
@@ -8248,7 +8241,7 @@
         <v>7815847.5</v>
       </c>
     </row>
-    <row r="37" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="37" spans="1:20" s="4" customFormat="1">
       <c r="A37" s="5" t="s">
         <v>115</v>
       </c>
@@ -8310,7 +8303,7 @@
         <v>174310272</v>
       </c>
     </row>
-    <row r="38" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="38" spans="1:20" s="4" customFormat="1">
       <c r="A38" s="5" t="s">
         <v>117</v>
       </c>
@@ -8372,7 +8365,7 @@
         <v>141769152</v>
       </c>
     </row>
-    <row r="39" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="39" spans="1:20" s="4" customFormat="1">
       <c r="A39" s="5" t="s">
         <v>119</v>
       </c>
@@ -8434,7 +8427,7 @@
         <v>2474430464</v>
       </c>
     </row>
-    <row r="40" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="40" spans="1:20" s="4" customFormat="1">
       <c r="A40" s="5" t="s">
         <v>121</v>
       </c>
@@ -8496,7 +8489,7 @@
         <v>1417748096</v>
       </c>
     </row>
-    <row r="41" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="41" spans="1:20" s="4" customFormat="1">
       <c r="A41" s="5" t="s">
         <v>123</v>
       </c>
@@ -8558,7 +8551,7 @@
         <v>78235840</v>
       </c>
     </row>
-    <row r="42" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="42" spans="1:20" s="4" customFormat="1">
       <c r="A42" s="5" t="s">
         <v>125</v>
       </c>
@@ -8620,7 +8613,7 @@
         <v>236476560</v>
       </c>
     </row>
-    <row r="43" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="43" spans="1:20" s="4" customFormat="1">
       <c r="A43" s="5" t="s">
         <v>127</v>
       </c>
@@ -8682,7 +8675,7 @@
         <v>31999900</v>
       </c>
     </row>
-    <row r="44" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="44" spans="1:20" s="4" customFormat="1">
       <c r="A44" s="5" t="s">
         <v>129</v>
       </c>
@@ -8744,7 +8737,7 @@
         <v>197259344</v>
       </c>
     </row>
-    <row r="45" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="45" spans="1:20" s="4" customFormat="1">
       <c r="A45" s="5" t="s">
         <v>130</v>
       </c>
@@ -8806,7 +8799,7 @@
         <v>105005416</v>
       </c>
     </row>
-    <row r="46" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="46" spans="1:20" s="4" customFormat="1">
       <c r="A46" s="5" t="s">
         <v>131</v>
       </c>
@@ -8868,7 +8861,7 @@
         <v>118778664</v>
       </c>
     </row>
-    <row r="47" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="47" spans="1:20" s="4" customFormat="1">
       <c r="A47" s="5" t="s">
         <v>133</v>
       </c>
@@ -8930,7 +8923,7 @@
         <v>89800200</v>
       </c>
     </row>
-    <row r="48" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="48" spans="1:20" s="4" customFormat="1">
       <c r="A48" s="5" t="s">
         <v>135</v>
       </c>
@@ -8992,7 +8985,7 @@
         <v>424295200</v>
       </c>
     </row>
-    <row r="49" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="49" spans="1:20" s="4" customFormat="1">
       <c r="A49" s="5" t="s">
         <v>138</v>
       </c>
@@ -9054,7 +9047,7 @@
         <v>914461824</v>
       </c>
     </row>
-    <row r="50" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="50" spans="1:20" s="4" customFormat="1">
       <c r="A50" s="5" t="s">
         <v>141</v>
       </c>
@@ -9114,7 +9107,7 @@
         <v>1335935488</v>
       </c>
     </row>
-    <row r="51" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="51" spans="1:20" s="4" customFormat="1">
       <c r="A51" s="5" t="s">
         <v>144</v>
       </c>
@@ -9176,7 +9169,7 @@
         <v>45207692</v>
       </c>
     </row>
-    <row r="52" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="52" spans="1:20" s="4" customFormat="1">
       <c r="A52" s="5" t="s">
         <v>146</v>
       </c>
@@ -9238,7 +9231,7 @@
         <v>123458832</v>
       </c>
     </row>
-    <row r="53" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="53" spans="1:20" s="4" customFormat="1">
       <c r="A53" s="5" t="s">
         <v>149</v>
       </c>
@@ -9300,7 +9293,7 @@
         <v>153575776</v>
       </c>
     </row>
-    <row r="54" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="54" spans="1:20" s="4" customFormat="1">
       <c r="A54" s="5" t="s">
         <v>151</v>
       </c>
@@ -9362,7 +9355,7 @@
         <v>1487294208</v>
       </c>
     </row>
-    <row r="55" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="55" spans="1:20" s="4" customFormat="1">
       <c r="A55" s="5" t="s">
         <v>154</v>
       </c>
@@ -9424,7 +9417,7 @@
         <v>127325136</v>
       </c>
     </row>
-    <row r="56" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="56" spans="1:20" s="4" customFormat="1">
       <c r="A56" s="5" t="s">
         <v>155</v>
       </c>
@@ -9486,7 +9479,7 @@
         <v>436883136</v>
       </c>
     </row>
-    <row r="57" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="57" spans="1:20" s="4" customFormat="1">
       <c r="A57" s="5" t="s">
         <v>157</v>
       </c>
@@ -9548,7 +9541,7 @@
         <v>131236368</v>
       </c>
     </row>
-    <row r="58" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="58" spans="1:20" s="4" customFormat="1">
       <c r="A58" s="5" t="s">
         <v>158</v>
       </c>
@@ -9610,7 +9603,7 @@
         <v>639596608</v>
       </c>
     </row>
-    <row r="59" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="59" spans="1:20" s="4" customFormat="1">
       <c r="A59" s="5" t="s">
         <v>161</v>
       </c>
@@ -9672,7 +9665,7 @@
         <v>1172685952</v>
       </c>
     </row>
-    <row r="60" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="60" spans="1:20" s="4" customFormat="1">
       <c r="A60" s="5" t="s">
         <v>164</v>
       </c>
@@ -9734,7 +9727,7 @@
         <v>55433664</v>
       </c>
     </row>
-    <row r="61" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="61" spans="1:20" s="4" customFormat="1">
       <c r="A61" s="5" t="s">
         <v>166</v>
       </c>
@@ -9796,7 +9789,7 @@
         <v>202294096</v>
       </c>
     </row>
-    <row r="62" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="62" spans="1:20" s="4" customFormat="1">
       <c r="A62" s="5" t="s">
         <v>168</v>
       </c>
@@ -9858,7 +9851,7 @@
         <v>53466468</v>
       </c>
     </row>
-    <row r="63" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="63" spans="1:20" s="4" customFormat="1">
       <c r="A63" s="5" t="s">
         <v>170</v>
       </c>
@@ -9918,7 +9911,7 @@
         <v>4917565</v>
       </c>
     </row>
-    <row r="64" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="64" spans="1:20" s="4" customFormat="1">
       <c r="A64" s="5" t="s">
         <v>172</v>
       </c>
@@ -9980,7 +9973,7 @@
         <v>106620696</v>
       </c>
     </row>
-    <row r="65" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="65" spans="1:20" s="4" customFormat="1">
       <c r="A65" s="5" t="s">
         <v>174</v>
       </c>
@@ -10042,7 +10035,7 @@
         <v>98574480</v>
       </c>
     </row>
-    <row r="66" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="66" spans="1:20" s="4" customFormat="1">
       <c r="A66" s="5" t="s">
         <v>176</v>
       </c>
@@ -10104,7 +10097,7 @@
         <v>5301901</v>
       </c>
     </row>
-    <row r="67" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="67" spans="1:20" s="4" customFormat="1">
       <c r="A67" s="5" t="s">
         <v>178</v>
       </c>
@@ -10166,7 +10159,7 @@
         <v>212247408</v>
       </c>
     </row>
-    <row r="68" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="68" spans="1:20" s="4" customFormat="1">
       <c r="A68" s="5" t="s">
         <v>181</v>
       </c>
@@ -10228,7 +10221,7 @@
         <v>331695616</v>
       </c>
     </row>
-    <row r="69" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="69" spans="1:20" s="4" customFormat="1">
       <c r="A69" s="5" t="s">
         <v>183</v>
       </c>
@@ -10290,7 +10283,7 @@
         <v>98103240</v>
       </c>
     </row>
-    <row r="70" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="70" spans="1:20" s="4" customFormat="1">
       <c r="A70" s="5" t="s">
         <v>185</v>
       </c>
@@ -10352,7 +10345,7 @@
         <v>297179264</v>
       </c>
     </row>
-    <row r="71" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="71" spans="1:20" s="4" customFormat="1">
       <c r="A71" s="5" t="s">
         <v>186</v>
       </c>
@@ -10414,7 +10407,7 @@
         <v>65925604</v>
       </c>
     </row>
-    <row r="72" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="72" spans="1:20" s="4" customFormat="1">
       <c r="A72" s="5" t="s">
         <v>188</v>
       </c>
@@ -10476,7 +10469,7 @@
         <v>60868548</v>
       </c>
     </row>
-    <row r="73" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="73" spans="1:20" s="4" customFormat="1">
       <c r="A73" s="5" t="s">
         <v>190</v>
       </c>
@@ -10538,7 +10531,7 @@
         <v>115773088</v>
       </c>
     </row>
-    <row r="74" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="74" spans="1:20" s="4" customFormat="1">
       <c r="A74" s="5" t="s">
         <v>192</v>
       </c>
@@ -10600,7 +10593,7 @@
         <v>63068552</v>
       </c>
     </row>
-    <row r="75" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="75" spans="1:20" s="4" customFormat="1">
       <c r="A75" s="5" t="s">
         <v>195</v>
       </c>
@@ -10662,7 +10655,7 @@
         <v>646033152</v>
       </c>
     </row>
-    <row r="76" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="76" spans="1:20" s="4" customFormat="1">
       <c r="A76" s="5" t="s">
         <v>198</v>
       </c>
@@ -10724,7 +10717,7 @@
         <v>180804240</v>
       </c>
     </row>
-    <row r="77" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="77" spans="1:20" s="4" customFormat="1">
       <c r="A77" s="5" t="s">
         <v>199</v>
       </c>
@@ -10786,7 +10779,7 @@
         <v>56161852</v>
       </c>
     </row>
-    <row r="78" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="78" spans="1:20" s="4" customFormat="1">
       <c r="A78" s="5" t="s">
         <v>201</v>
       </c>
@@ -10848,7 +10841,7 @@
         <v>126625392</v>
       </c>
     </row>
-    <row r="79" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="79" spans="1:20" s="4" customFormat="1">
       <c r="A79" s="5" t="s">
         <v>202</v>
       </c>
@@ -10910,7 +10903,7 @@
         <v>130537160</v>
       </c>
     </row>
-    <row r="80" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="80" spans="1:20" s="4" customFormat="1">
       <c r="A80" s="5" t="s">
         <v>203</v>
       </c>
@@ -10972,7 +10965,7 @@
         <v>48083160</v>
       </c>
     </row>
-    <row r="81" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="81" spans="1:20" s="4" customFormat="1">
       <c r="A81" s="5" t="s">
         <v>205</v>
       </c>
@@ -11034,7 +11027,7 @@
         <v>60342028</v>
       </c>
     </row>
-    <row r="82" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="82" spans="1:20" s="4" customFormat="1">
       <c r="A82" s="5" t="s">
         <v>208</v>
       </c>
@@ -11096,7 +11089,7 @@
         <v>76726800</v>
       </c>
     </row>
-    <row r="83" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="83" spans="1:20" s="4" customFormat="1">
       <c r="A83" s="5" t="s">
         <v>209</v>
       </c>
@@ -11156,7 +11149,7 @@
         <v>291122752</v>
       </c>
     </row>
-    <row r="84" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="84" spans="1:20" s="4" customFormat="1">
       <c r="A84" s="5" t="s">
         <v>211</v>
       </c>
@@ -11218,7 +11211,7 @@
         <v>76728808</v>
       </c>
     </row>
-    <row r="85" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="85" spans="1:20" s="4" customFormat="1">
       <c r="A85" s="5" t="s">
         <v>216</v>
       </c>
@@ -11280,7 +11273,7 @@
         <v>198750944</v>
       </c>
     </row>
-    <row r="86" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="86" spans="1:20" s="4" customFormat="1">
       <c r="A86" s="5" t="s">
         <v>217</v>
       </c>
@@ -11342,7 +11335,7 @@
         <v>23169712</v>
       </c>
     </row>
-    <row r="87" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="87" spans="1:20" s="4" customFormat="1">
       <c r="A87" s="5" t="s">
         <v>219</v>
       </c>
@@ -11404,7 +11397,7 @@
         <v>394471936</v>
       </c>
     </row>
-    <row r="88" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="88" spans="1:20" s="4" customFormat="1">
       <c r="A88" s="5" t="s">
         <v>221</v>
       </c>
@@ -11466,7 +11459,7 @@
         <v>722967680</v>
       </c>
     </row>
-    <row r="89" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="89" spans="1:20" s="4" customFormat="1">
       <c r="A89" s="5" t="s">
         <v>224</v>
       </c>
@@ -11528,7 +11521,7 @@
         <v>7985689</v>
       </c>
     </row>
-    <row r="90" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="90" spans="1:20" s="4" customFormat="1">
       <c r="A90" s="5" t="s">
         <v>226</v>
       </c>
@@ -11590,7 +11583,7 @@
         <v>318561440</v>
       </c>
     </row>
-    <row r="91" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="91" spans="1:20" s="4" customFormat="1">
       <c r="A91" s="5" t="s">
         <v>230</v>
       </c>
@@ -11652,7 +11645,7 @@
         <v>187764400</v>
       </c>
     </row>
-    <row r="92" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="92" spans="1:20" s="4" customFormat="1">
       <c r="A92" s="5" t="s">
         <v>231</v>
       </c>
@@ -11714,7 +11707,7 @@
         <v>3619241216</v>
       </c>
     </row>
-    <row r="93" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="93" spans="1:20" s="4" customFormat="1">
       <c r="A93" s="5" t="s">
         <v>233</v>
       </c>
@@ -11776,7 +11769,7 @@
         <v>33675268</v>
       </c>
     </row>
-    <row r="94" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="94" spans="1:20" s="4" customFormat="1">
       <c r="A94" s="5" t="s">
         <v>234</v>
       </c>
@@ -11838,7 +11831,7 @@
         <v>45780164</v>
       </c>
     </row>
-    <row r="95" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="95" spans="1:20" s="4" customFormat="1">
       <c r="A95" s="5" t="s">
         <v>236</v>
       </c>
@@ -11900,7 +11893,7 @@
         <v>43013896</v>
       </c>
     </row>
-    <row r="96" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="96" spans="1:20" s="4" customFormat="1">
       <c r="A96" s="5" t="s">
         <v>238</v>
       </c>
@@ -11962,7 +11955,7 @@
         <v>55954032</v>
       </c>
     </row>
-    <row r="97" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="97" spans="1:20" s="4" customFormat="1">
       <c r="A97" s="5" t="s">
         <v>240</v>
       </c>
@@ -12024,7 +12017,7 @@
         <v>127424000</v>
       </c>
     </row>
-    <row r="98" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="98" spans="1:20" s="4" customFormat="1">
       <c r="A98" s="5" t="s">
         <v>242</v>
       </c>
@@ -12086,7 +12079,7 @@
         <v>49436652</v>
       </c>
     </row>
-    <row r="99" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="99" spans="1:20" s="4" customFormat="1">
       <c r="A99" s="5" t="s">
         <v>244</v>
       </c>
@@ -12148,7 +12141,7 @@
         <v>33206020</v>
       </c>
     </row>
-    <row r="100" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="100" spans="1:20" s="4" customFormat="1">
       <c r="A100" s="5" t="s">
         <v>246</v>
       </c>
@@ -12210,7 +12203,7 @@
         <v>978000512</v>
       </c>
     </row>
-    <row r="101" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="101" spans="1:20" s="4" customFormat="1">
       <c r="A101" s="5" t="s">
         <v>248</v>
       </c>
@@ -12272,7 +12265,7 @@
         <v>93411880</v>
       </c>
     </row>
-    <row r="102" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="102" spans="1:20" s="4" customFormat="1">
       <c r="A102" s="5" t="s">
         <v>250</v>
       </c>
@@ -12332,7 +12325,7 @@
         <v>73313024</v>
       </c>
     </row>
-    <row r="103" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="103" spans="1:20" s="4" customFormat="1">
       <c r="A103" s="5" t="s">
         <v>254</v>
       </c>
@@ -12394,7 +12387,7 @@
         <v>107347232</v>
       </c>
     </row>
-    <row r="104" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="104" spans="1:20" s="4" customFormat="1">
       <c r="A104" s="5" t="s">
         <v>255</v>
       </c>
@@ -12456,7 +12449,7 @@
         <v>62747348</v>
       </c>
     </row>
-    <row r="105" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="105" spans="1:20" s="4" customFormat="1">
       <c r="A105" s="5" t="s">
         <v>257</v>
       </c>
@@ -12518,7 +12511,7 @@
         <v>577076224</v>
       </c>
     </row>
-    <row r="106" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="106" spans="1:20" s="4" customFormat="1">
       <c r="A106" s="5" t="s">
         <v>259</v>
       </c>
@@ -12580,7 +12573,7 @@
         <v>145358672</v>
       </c>
     </row>
-    <row r="107" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="107" spans="1:20" s="4" customFormat="1">
       <c r="A107" s="5" t="s">
         <v>261</v>
       </c>
@@ -12642,7 +12635,7 @@
         <v>42387612</v>
       </c>
     </row>
-    <row r="108" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="108" spans="1:20" s="4" customFormat="1">
       <c r="A108" s="5" t="s">
         <v>263</v>
       </c>
@@ -12702,7 +12695,7 @@
         <v>4991309</v>
       </c>
     </row>
-    <row r="109" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="109" spans="1:20" s="4" customFormat="1">
       <c r="A109" s="5" t="s">
         <v>264</v>
       </c>
@@ -12764,7 +12757,7 @@
         <v>39524684</v>
       </c>
     </row>
-    <row r="110" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="110" spans="1:20" s="4" customFormat="1">
       <c r="A110" s="5" t="s">
         <v>266</v>
       </c>
@@ -12824,7 +12817,7 @@
         <v>267647344</v>
       </c>
     </row>
-    <row r="111" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="111" spans="1:20" s="4" customFormat="1">
       <c r="A111" s="5" t="s">
         <v>268</v>
       </c>
@@ -12884,7 +12877,7 @@
         <v>61494412</v>
       </c>
     </row>
-    <row r="112" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="112" spans="1:20" s="4" customFormat="1">
       <c r="A112" s="5" t="s">
         <v>270</v>
       </c>
@@ -12946,7 +12939,7 @@
         <v>28214492</v>
       </c>
     </row>
-    <row r="113" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="113" spans="1:20" s="4" customFormat="1">
       <c r="A113" s="5" t="s">
         <v>272</v>
       </c>
@@ -13008,7 +13001,7 @@
         <v>60619260</v>
       </c>
     </row>
-    <row r="114" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="114" spans="1:20" s="4" customFormat="1">
       <c r="A114" s="5" t="s">
         <v>274</v>
       </c>
@@ -13068,7 +13061,7 @@
         <v>43578356</v>
       </c>
     </row>
-    <row r="115" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="115" spans="1:20" s="4" customFormat="1">
       <c r="A115" s="5" t="s">
         <v>276</v>
       </c>
@@ -13130,7 +13123,7 @@
         <v>63214480</v>
       </c>
     </row>
-    <row r="116" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="116" spans="1:20" s="4" customFormat="1">
       <c r="A116" s="5" t="s">
         <v>278</v>
       </c>
@@ -13192,7 +13185,7 @@
         <v>42134604</v>
       </c>
     </row>
-    <row r="117" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="117" spans="1:20" s="4" customFormat="1">
       <c r="A117" s="5" t="s">
         <v>280</v>
       </c>
@@ -13252,7 +13245,7 @@
         <v>3057176</v>
       </c>
     </row>
-    <row r="118" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="118" spans="1:20" s="4" customFormat="1">
       <c r="A118" s="5" t="s">
         <v>285</v>
       </c>
@@ -13314,7 +13307,7 @@
         <v>49556008</v>
       </c>
     </row>
-    <row r="119" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="119" spans="1:20" s="4" customFormat="1">
       <c r="A119" s="5" t="s">
         <v>287</v>
       </c>
@@ -13374,7 +13367,7 @@
         <v>23343904</v>
       </c>
     </row>
-    <row r="120" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="120" spans="1:20" s="4" customFormat="1">
       <c r="A120" s="5" t="s">
         <v>289</v>
       </c>
@@ -13436,7 +13429,7 @@
         <v>6103528</v>
       </c>
     </row>
-    <row r="121" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="121" spans="1:20" s="4" customFormat="1">
       <c r="A121" s="5" t="s">
         <v>291</v>
       </c>
@@ -13498,7 +13491,7 @@
         <v>20334744</v>
       </c>
     </row>
-    <row r="122" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="122" spans="1:20" s="4" customFormat="1">
       <c r="A122" s="5" t="s">
         <v>292</v>
       </c>
@@ -13560,7 +13553,7 @@
         <v>41254640</v>
       </c>
     </row>
-    <row r="123" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="123" spans="1:20" s="4" customFormat="1">
       <c r="A123" s="5" t="s">
         <v>294</v>
       </c>
@@ -13622,7 +13615,7 @@
         <v>195113376</v>
       </c>
     </row>
-    <row r="124" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="124" spans="1:20" s="4" customFormat="1">
       <c r="A124" s="5" t="s">
         <v>295</v>
       </c>
@@ -13684,7 +13677,7 @@
         <v>2260169.25</v>
       </c>
     </row>
-    <row r="125" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="125" spans="1:20" s="4" customFormat="1">
       <c r="A125" s="5" t="s">
         <v>297</v>
       </c>
@@ -13746,7 +13739,7 @@
         <v>536131200</v>
       </c>
     </row>
-    <row r="126" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="126" spans="1:20" s="4" customFormat="1">
       <c r="A126" s="5" t="s">
         <v>299</v>
       </c>
@@ -13808,7 +13801,7 @@
         <v>157999984</v>
       </c>
     </row>
-    <row r="127" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="127" spans="1:20" s="4" customFormat="1">
       <c r="A127" s="5" t="s">
         <v>304</v>
       </c>
@@ -13870,7 +13863,7 @@
         <v>216307520</v>
       </c>
     </row>
-    <row r="128" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="128" spans="1:20" s="4" customFormat="1">
       <c r="A128" s="5" t="s">
         <v>309</v>
       </c>
@@ -13932,7 +13925,7 @@
         <v>29324780</v>
       </c>
     </row>
-    <row r="129" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="129" spans="1:20" s="4" customFormat="1">
       <c r="A129" s="5" t="s">
         <v>311</v>
       </c>
@@ -13994,7 +13987,7 @@
         <v>355897248</v>
       </c>
     </row>
-    <row r="130" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="130" spans="1:20" s="4" customFormat="1">
       <c r="A130" s="5" t="s">
         <v>314</v>
       </c>
@@ -14056,7 +14049,7 @@
         <v>81975712</v>
       </c>
     </row>
-    <row r="131" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="131" spans="1:20" s="4" customFormat="1">
       <c r="A131" s="5" t="s">
         <v>316</v>
       </c>
@@ -14118,7 +14111,7 @@
         <v>45270332</v>
       </c>
     </row>
-    <row r="132" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="132" spans="1:20" s="4" customFormat="1">
       <c r="A132" s="5" t="s">
         <v>318</v>
       </c>
@@ -14180,7 +14173,7 @@
         <v>83951800</v>
       </c>
     </row>
-    <row r="133" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="133" spans="1:20" s="4" customFormat="1">
       <c r="A133" s="5" t="s">
         <v>320</v>
       </c>
@@ -14240,7 +14233,7 @@
         <v>3095954.75</v>
       </c>
     </row>
-    <row r="134" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="134" spans="1:20" s="4" customFormat="1">
       <c r="A134" s="5" t="s">
         <v>323</v>
       </c>
@@ -14302,7 +14295,7 @@
         <v>221211872</v>
       </c>
     </row>
-    <row r="135" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="135" spans="1:20" s="4" customFormat="1">
       <c r="A135" s="5" t="s">
         <v>326</v>
       </c>
@@ -14364,7 +14357,7 @@
         <v>316752320</v>
       </c>
     </row>
-    <row r="136" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="136" spans="1:20" s="4" customFormat="1">
       <c r="A136" s="5" t="s">
         <v>328</v>
       </c>
@@ -14426,7 +14419,7 @@
         <v>711176192</v>
       </c>
     </row>
-    <row r="137" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="137" spans="1:20" s="4" customFormat="1">
       <c r="A137" s="5" t="s">
         <v>330</v>
       </c>
@@ -14488,7 +14481,7 @@
         <v>294434880</v>
       </c>
     </row>
-    <row r="138" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="138" spans="1:20" s="4" customFormat="1">
       <c r="A138" s="5" t="s">
         <v>333</v>
       </c>
@@ -14550,7 +14543,7 @@
         <v>1056736064</v>
       </c>
     </row>
-    <row r="139" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="139" spans="1:20" s="4" customFormat="1">
       <c r="A139" s="5" t="s">
         <v>335</v>
       </c>
@@ -14610,7 +14603,7 @@
         <v>179046368</v>
       </c>
     </row>
-    <row r="140" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="140" spans="1:20" s="4" customFormat="1">
       <c r="A140" s="5" t="s">
         <v>337</v>
       </c>
@@ -14672,7 +14665,7 @@
         <v>53690116</v>
       </c>
     </row>
-    <row r="141" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="141" spans="1:20" s="4" customFormat="1">
       <c r="A141" s="5" t="s">
         <v>339</v>
       </c>
@@ -14734,7 +14727,7 @@
         <v>86204272</v>
       </c>
     </row>
-    <row r="142" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="142" spans="1:20" s="4" customFormat="1">
       <c r="A142" s="5" t="s">
         <v>342</v>
       </c>
@@ -14796,7 +14789,7 @@
         <v>16675820</v>
       </c>
     </row>
-    <row r="143" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="143" spans="1:20" s="4" customFormat="1">
       <c r="A143" s="5" t="s">
         <v>344</v>
       </c>
@@ -14858,7 +14851,7 @@
         <v>33971628</v>
       </c>
     </row>
-    <row r="144" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="144" spans="1:20" s="4" customFormat="1">
       <c r="A144" s="5" t="s">
         <v>346</v>
       </c>
@@ -14918,7 +14911,7 @@
         <v>4014540.25</v>
       </c>
     </row>
-    <row r="145" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="145" spans="1:20" s="4" customFormat="1">
       <c r="A145" s="5" t="s">
         <v>348</v>
       </c>
@@ -14980,7 +14973,7 @@
         <v>20161918</v>
       </c>
     </row>
-    <row r="146" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="146" spans="1:20" s="4" customFormat="1">
       <c r="A146" s="5" t="s">
         <v>350</v>
       </c>
@@ -15042,7 +15035,7 @@
         <v>756078720</v>
       </c>
     </row>
-    <row r="147" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="147" spans="1:20" s="4" customFormat="1">
       <c r="A147" s="5" t="s">
         <v>352</v>
       </c>
@@ -15104,7 +15097,7 @@
         <v>36079280</v>
       </c>
     </row>
-    <row r="148" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="148" spans="1:20" s="4" customFormat="1">
       <c r="A148" s="5" t="s">
         <v>353</v>
       </c>
@@ -15166,7 +15159,7 @@
         <v>29626558</v>
       </c>
     </row>
-    <row r="149" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="149" spans="1:20" s="4" customFormat="1">
       <c r="A149" s="5" t="s">
         <v>354</v>
       </c>
@@ -15228,7 +15221,7 @@
         <v>30402406</v>
       </c>
     </row>
-    <row r="150" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="150" spans="1:20" s="4" customFormat="1">
       <c r="A150" s="5" t="s">
         <v>356</v>
       </c>
@@ -15290,7 +15283,7 @@
         <v>18847142</v>
       </c>
     </row>
-    <row r="151" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="151" spans="1:20" s="4" customFormat="1">
       <c r="A151" s="5" t="s">
         <v>361</v>
       </c>
@@ -15352,7 +15345,7 @@
         <v>66973372</v>
       </c>
     </row>
-    <row r="152" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="152" spans="1:20" s="4" customFormat="1">
       <c r="A152" s="5" t="s">
         <v>363</v>
       </c>
@@ -15412,7 +15405,7 @@
         <v>190745536</v>
       </c>
     </row>
-    <row r="153" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="153" spans="1:20" s="4" customFormat="1">
       <c r="A153" s="5" t="s">
         <v>365</v>
       </c>
@@ -15474,7 +15467,7 @@
         <v>34187312</v>
       </c>
     </row>
-    <row r="154" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="154" spans="1:20" s="4" customFormat="1">
       <c r="A154" s="5" t="s">
         <v>367</v>
       </c>
@@ -15536,7 +15529,7 @@
         <v>1038857472</v>
       </c>
     </row>
-    <row r="155" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="155" spans="1:20" s="4" customFormat="1">
       <c r="A155" s="5" t="s">
         <v>370</v>
       </c>
@@ -15598,7 +15591,7 @@
         <v>29021184</v>
       </c>
     </row>
-    <row r="156" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="156" spans="1:20" s="4" customFormat="1">
       <c r="A156" s="5" t="s">
         <v>372</v>
       </c>
@@ -15660,7 +15653,7 @@
         <v>42584460</v>
       </c>
     </row>
-    <row r="157" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="157" spans="1:20" s="4" customFormat="1">
       <c r="A157" s="5" t="s">
         <v>373</v>
       </c>
@@ -15722,7 +15715,7 @@
         <v>3473233.5</v>
       </c>
     </row>
-    <row r="158" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="158" spans="1:20" s="4" customFormat="1">
       <c r="A158" s="5" t="s">
         <v>375</v>
       </c>
@@ -15784,7 +15777,7 @@
         <v>2883780</v>
       </c>
     </row>
-    <row r="159" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="159" spans="1:20" s="4" customFormat="1">
       <c r="A159" s="5" t="s">
         <v>377</v>
       </c>
@@ -15846,7 +15839,7 @@
         <v>21485948</v>
       </c>
     </row>
-    <row r="160" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="160" spans="1:20" s="4" customFormat="1">
       <c r="A160" s="5" t="s">
         <v>379</v>
       </c>
@@ -15908,7 +15901,7 @@
         <v>30949886</v>
       </c>
     </row>
-    <row r="161" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="161" spans="1:20" s="4" customFormat="1">
       <c r="A161" s="5" t="s">
         <v>381</v>
       </c>
@@ -15970,7 +15963,7 @@
         <v>170846256</v>
       </c>
     </row>
-    <row r="162" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="162" spans="1:20" s="4" customFormat="1">
       <c r="A162" s="5" t="s">
         <v>384</v>
       </c>
@@ -16032,7 +16025,7 @@
         <v>27506162</v>
       </c>
     </row>
-    <row r="163" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="163" spans="1:20" s="4" customFormat="1">
       <c r="A163" s="5" t="s">
         <v>386</v>
       </c>
@@ -16094,7 +16087,7 @@
         <v>20213534</v>
       </c>
     </row>
-    <row r="164" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="164" spans="1:20" s="4" customFormat="1">
       <c r="A164" s="5" t="s">
         <v>388</v>
       </c>
@@ -16156,7 +16149,7 @@
         <v>21268166</v>
       </c>
     </row>
-    <row r="165" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="165" spans="1:20" s="4" customFormat="1">
       <c r="A165" s="5" t="s">
         <v>390</v>
       </c>
@@ -16218,7 +16211,7 @@
         <v>169284512</v>
       </c>
     </row>
-    <row r="166" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="166" spans="1:20" s="4" customFormat="1">
       <c r="A166" s="5" t="s">
         <v>393</v>
       </c>
@@ -16280,7 +16273,7 @@
         <v>304650176</v>
       </c>
     </row>
-    <row r="167" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="167" spans="1:20" s="4" customFormat="1">
       <c r="A167" s="5" t="s">
         <v>395</v>
       </c>
@@ -16340,7 +16333,7 @@
         <v>3309702.75</v>
       </c>
     </row>
-    <row r="168" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="168" spans="1:20" s="4" customFormat="1">
       <c r="A168" s="5" t="s">
         <v>397</v>
       </c>
@@ -16402,7 +16395,7 @@
         <v>33269404</v>
       </c>
     </row>
-    <row r="169" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="169" spans="1:20" s="4" customFormat="1">
       <c r="A169" s="5" t="s">
         <v>399</v>
       </c>
@@ -16464,7 +16457,7 @@
         <v>54800284</v>
       </c>
     </row>
-    <row r="170" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="170" spans="1:20" s="4" customFormat="1">
       <c r="A170" s="5" t="s">
         <v>402</v>
       </c>
@@ -16526,7 +16519,7 @@
         <v>11771972</v>
       </c>
     </row>
-    <row r="171" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="171" spans="1:20" s="4" customFormat="1">
       <c r="A171" s="5" t="s">
         <v>404</v>
       </c>
@@ -16586,7 +16579,7 @@
         <v>6767032.5</v>
       </c>
     </row>
-    <row r="172" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="172" spans="1:20" s="4" customFormat="1">
       <c r="A172" s="5" t="s">
         <v>406</v>
       </c>
@@ -16648,7 +16641,7 @@
         <v>25023978</v>
       </c>
     </row>
-    <row r="173" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="173" spans="1:20" s="4" customFormat="1">
       <c r="A173" s="5" t="s">
         <v>408</v>
       </c>
@@ -16710,7 +16703,7 @@
         <v>3277537.75</v>
       </c>
     </row>
-    <row r="174" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="174" spans="1:20" s="4" customFormat="1">
       <c r="A174" s="5" t="s">
         <v>410</v>
       </c>
@@ -16772,7 +16765,7 @@
         <v>20500196</v>
       </c>
     </row>
-    <row r="175" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="175" spans="1:20" s="4" customFormat="1">
       <c r="A175" s="5" t="s">
         <v>412</v>
       </c>
@@ -16834,7 +16827,7 @@
         <v>1157908352</v>
       </c>
     </row>
-    <row r="176" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="176" spans="1:20" s="4" customFormat="1">
       <c r="A176" s="5" t="s">
         <v>414</v>
       </c>
@@ -16896,7 +16889,7 @@
         <v>29342254</v>
       </c>
     </row>
-    <row r="177" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="177" spans="1:20" s="4" customFormat="1">
       <c r="A177" s="5" t="s">
         <v>416</v>
       </c>
@@ -16956,7 +16949,7 @@
         <v>376634144</v>
       </c>
     </row>
-    <row r="178" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="178" spans="1:20" s="4" customFormat="1">
       <c r="A178" s="5" t="s">
         <v>418</v>
       </c>
@@ -17016,7 +17009,7 @@
         <v>196712976</v>
       </c>
     </row>
-    <row r="179" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="179" spans="1:20" s="4" customFormat="1">
       <c r="A179" s="5" t="s">
         <v>420</v>
       </c>
@@ -17078,7 +17071,7 @@
         <v>171096048</v>
       </c>
     </row>
-    <row r="180" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="180" spans="1:20" s="4" customFormat="1">
       <c r="A180" s="5" t="s">
         <v>423</v>
       </c>
@@ -17138,7 +17131,7 @@
         <v>4456153.5</v>
       </c>
     </row>
-    <row r="181" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="181" spans="1:20" s="4" customFormat="1">
       <c r="A181" s="5" t="s">
         <v>425</v>
       </c>
@@ -17200,7 +17193,7 @@
         <v>17829442</v>
       </c>
     </row>
-    <row r="182" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="182" spans="1:20" s="4" customFormat="1">
       <c r="A182" s="5" t="s">
         <v>427</v>
       </c>
@@ -17262,7 +17255,7 @@
         <v>35951256</v>
       </c>
     </row>
-    <row r="183" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="183" spans="1:20" s="4" customFormat="1">
       <c r="A183" s="5" t="s">
         <v>429</v>
       </c>
@@ -17324,7 +17317,7 @@
         <v>21262440</v>
       </c>
     </row>
-    <row r="184" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="184" spans="1:20" s="4" customFormat="1">
       <c r="A184" s="5" t="s">
         <v>431</v>
       </c>
@@ -17386,7 +17379,7 @@
         <v>48479540</v>
       </c>
     </row>
-    <row r="185" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="185" spans="1:20" s="4" customFormat="1">
       <c r="A185" s="5" t="s">
         <v>433</v>
       </c>
@@ -17448,7 +17441,7 @@
         <v>74844984</v>
       </c>
     </row>
-    <row r="186" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="186" spans="1:20" s="4" customFormat="1">
       <c r="A186" s="5" t="s">
         <v>435</v>
       </c>
@@ -17508,7 +17501,7 @@
         <v>31178656</v>
       </c>
     </row>
-    <row r="187" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="187" spans="1:20" s="4" customFormat="1">
       <c r="A187" s="5" t="s">
         <v>437</v>
       </c>
@@ -17570,7 +17563,7 @@
         <v>32113960</v>
       </c>
     </row>
-    <row r="188" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="188" spans="1:20" s="4" customFormat="1">
       <c r="A188" s="5" t="s">
         <v>439</v>
       </c>
@@ -17632,7 +17625,7 @@
         <v>8837140</v>
       </c>
     </row>
-    <row r="189" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="189" spans="1:20" s="4" customFormat="1">
       <c r="A189" s="5" t="s">
         <v>441</v>
       </c>
@@ -17694,7 +17687,7 @@
         <v>3601156.25</v>
       </c>
     </row>
-    <row r="190" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="190" spans="1:20" s="4" customFormat="1">
       <c r="A190" s="5" t="s">
         <v>446</v>
       </c>
@@ -17756,7 +17749,7 @@
         <v>20320132</v>
       </c>
     </row>
-    <row r="191" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="191" spans="1:20" s="4" customFormat="1">
       <c r="A191" s="5" t="s">
         <v>448</v>
       </c>
@@ -17818,7 +17811,7 @@
         <v>34918668</v>
       </c>
     </row>
-    <row r="192" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="192" spans="1:20" s="4" customFormat="1">
       <c r="A192" s="5" t="s">
         <v>450</v>
       </c>
@@ -17880,7 +17873,7 @@
         <v>32937432</v>
       </c>
     </row>
-    <row r="193" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="193" spans="1:20" s="4" customFormat="1">
       <c r="A193" s="5" t="s">
         <v>453</v>
       </c>
@@ -17942,7 +17935,7 @@
         <v>47936976</v>
       </c>
     </row>
-    <row r="194" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="194" spans="1:20" s="4" customFormat="1">
       <c r="A194" s="5" t="s">
         <v>455</v>
       </c>
@@ -18004,7 +17997,7 @@
         <v>35904048</v>
       </c>
     </row>
-    <row r="195" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="195" spans="1:20" s="4" customFormat="1">
       <c r="A195" s="5" t="s">
         <v>457</v>
       </c>
@@ -18066,7 +18059,7 @@
         <v>35289744</v>
       </c>
     </row>
-    <row r="196" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="196" spans="1:20" s="4" customFormat="1">
       <c r="A196" s="5" t="s">
         <v>461</v>
       </c>
@@ -18126,7 +18119,7 @@
         <v>25302480</v>
       </c>
     </row>
-    <row r="197" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="197" spans="1:20" s="4" customFormat="1">
       <c r="A197" s="5" t="s">
         <v>463</v>
       </c>
@@ -18188,7 +18181,7 @@
         <v>69454904</v>
       </c>
     </row>
-    <row r="198" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="198" spans="1:20" s="4" customFormat="1">
       <c r="A198" s="5" t="s">
         <v>465</v>
       </c>
@@ -18250,7 +18243,7 @@
         <v>46735636</v>
       </c>
     </row>
-    <row r="199" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="199" spans="1:20" s="4" customFormat="1">
       <c r="A199" s="5" t="s">
         <v>467</v>
       </c>
@@ -18312,7 +18305,7 @@
         <v>2863630</v>
       </c>
     </row>
-    <row r="200" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="200" spans="1:20" s="4" customFormat="1">
       <c r="A200" s="5" t="s">
         <v>470</v>
       </c>
@@ -18372,7 +18365,7 @@
         <v>202834432</v>
       </c>
     </row>
-    <row r="201" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="201" spans="1:20" s="4" customFormat="1">
       <c r="A201" s="5" t="s">
         <v>472</v>
       </c>
@@ -18434,7 +18427,7 @@
         <v>47907032</v>
       </c>
     </row>
-    <row r="202" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="202" spans="1:20" s="4" customFormat="1">
       <c r="A202" s="5" t="s">
         <v>474</v>
       </c>
@@ -18496,7 +18489,7 @@
         <v>789823808</v>
       </c>
     </row>
-    <row r="203" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="203" spans="1:20" s="4" customFormat="1">
       <c r="A203" s="5" t="s">
         <v>476</v>
       </c>
@@ -18558,7 +18551,7 @@
         <v>535441312</v>
       </c>
     </row>
-    <row r="204" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="204" spans="1:20" s="4" customFormat="1">
       <c r="A204" s="5" t="s">
         <v>478</v>
       </c>
@@ -18620,7 +18613,7 @@
         <v>951311808</v>
       </c>
     </row>
-    <row r="205" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="205" spans="1:20" s="4" customFormat="1">
       <c r="A205" s="5" t="s">
         <v>480</v>
       </c>
@@ -18682,7 +18675,7 @@
         <v>10402999</v>
       </c>
     </row>
-    <row r="206" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="206" spans="1:20" s="4" customFormat="1">
       <c r="A206" s="5" t="s">
         <v>482</v>
       </c>
@@ -18744,7 +18737,7 @@
         <v>25730184</v>
       </c>
     </row>
-    <row r="207" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="207" spans="1:20" s="4" customFormat="1">
       <c r="A207" s="5" t="s">
         <v>484</v>
       </c>
@@ -18806,7 +18799,7 @@
         <v>31264828</v>
       </c>
     </row>
-    <row r="208" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="208" spans="1:20" s="4" customFormat="1">
       <c r="A208" s="5" t="s">
         <v>486</v>
       </c>
@@ -18868,7 +18861,7 @@
         <v>19496304</v>
       </c>
     </row>
-    <row r="209" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="209" spans="1:20" s="4" customFormat="1">
       <c r="A209" s="5" t="s">
         <v>487</v>
       </c>
@@ -18926,7 +18919,7 @@
         <v>92951528</v>
       </c>
     </row>
-    <row r="210" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="210" spans="1:20" s="4" customFormat="1">
       <c r="A210" s="5" t="s">
         <v>489</v>
       </c>
@@ -18988,7 +18981,7 @@
         <v>84847816</v>
       </c>
     </row>
-    <row r="211" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="211" spans="1:20" s="4" customFormat="1">
       <c r="A211" s="5" t="s">
         <v>490</v>
       </c>
@@ -19050,7 +19043,7 @@
         <v>13770508</v>
       </c>
     </row>
-    <row r="212" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="212" spans="1:20" s="4" customFormat="1">
       <c r="A212" s="5" t="s">
         <v>492</v>
       </c>
@@ -19112,7 +19105,7 @@
         <v>2918394.25</v>
       </c>
     </row>
-    <row r="213" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="213" spans="1:20" s="4" customFormat="1">
       <c r="A213" s="5" t="s">
         <v>494</v>
       </c>
@@ -19174,7 +19167,7 @@
         <v>231410512</v>
       </c>
     </row>
-    <row r="214" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="214" spans="1:20" s="4" customFormat="1">
       <c r="A214" s="5" t="s">
         <v>499</v>
       </c>
@@ -19236,7 +19229,7 @@
         <v>60266392</v>
       </c>
     </row>
-    <row r="215" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="215" spans="1:20" s="4" customFormat="1">
       <c r="A215" s="5" t="s">
         <v>501</v>
       </c>
@@ -19296,7 +19289,7 @@
         <v>20069432</v>
       </c>
     </row>
-    <row r="216" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="216" spans="1:20" s="4" customFormat="1">
       <c r="A216" s="5" t="s">
         <v>503</v>
       </c>
@@ -19358,7 +19351,7 @@
         <v>13426401</v>
       </c>
     </row>
-    <row r="217" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="217" spans="1:20" s="4" customFormat="1">
       <c r="A217" s="5" t="s">
         <v>505</v>
       </c>
@@ -19420,7 +19413,7 @@
         <v>321716224</v>
       </c>
     </row>
-    <row r="218" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="218" spans="1:20" s="4" customFormat="1">
       <c r="A218" s="5" t="s">
         <v>507</v>
       </c>
@@ -19482,7 +19475,7 @@
         <v>16827654</v>
       </c>
     </row>
-    <row r="219" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="219" spans="1:20" s="4" customFormat="1">
       <c r="A219" s="5" t="s">
         <v>509</v>
       </c>
@@ -19544,7 +19537,7 @@
         <v>18359388</v>
       </c>
     </row>
-    <row r="220" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="220" spans="1:20" s="4" customFormat="1">
       <c r="A220" s="5" t="s">
         <v>511</v>
       </c>
@@ -19606,7 +19599,7 @@
         <v>24904938</v>
       </c>
     </row>
-    <row r="221" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="221" spans="1:20" s="4" customFormat="1">
       <c r="A221" s="5" t="s">
         <v>513</v>
       </c>
@@ -19668,7 +19661,7 @@
         <v>28226256</v>
       </c>
     </row>
-    <row r="222" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="222" spans="1:20" s="4" customFormat="1">
       <c r="A222" s="5" t="s">
         <v>515</v>
       </c>
@@ -19730,7 +19723,7 @@
         <v>173744960</v>
       </c>
     </row>
-    <row r="223" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="223" spans="1:20" s="4" customFormat="1">
       <c r="A223" s="5" t="s">
         <v>517</v>
       </c>
@@ -19792,7 +19785,7 @@
         <v>125007312</v>
       </c>
     </row>
-    <row r="224" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="224" spans="1:20" s="4" customFormat="1">
       <c r="A224" s="5" t="s">
         <v>520</v>
       </c>
@@ -19852,7 +19845,7 @@
         <v>5033132</v>
       </c>
     </row>
-    <row r="225" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="225" spans="1:20" s="4" customFormat="1">
       <c r="A225" s="5" t="s">
         <v>523</v>
       </c>
@@ -19912,7 +19905,7 @@
         <v>7335760.5</v>
       </c>
     </row>
-    <row r="226" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="226" spans="1:20" s="4" customFormat="1">
       <c r="A226" s="5" t="s">
         <v>525</v>
       </c>
@@ -19972,7 +19965,7 @@
         <v>2500331.75</v>
       </c>
     </row>
-    <row r="227" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="227" spans="1:20" s="4" customFormat="1">
       <c r="A227" s="5" t="s">
         <v>527</v>
       </c>
@@ -20034,7 +20027,7 @@
         <v>17571840</v>
       </c>
     </row>
-    <row r="228" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="228" spans="1:20" s="4" customFormat="1">
       <c r="A228" s="5" t="s">
         <v>529</v>
       </c>
@@ -20096,7 +20089,7 @@
         <v>155057968</v>
       </c>
     </row>
-    <row r="229" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="229" spans="1:20" s="4" customFormat="1">
       <c r="A229" s="5" t="s">
         <v>531</v>
       </c>
@@ -20158,7 +20151,7 @@
         <v>14258712</v>
       </c>
     </row>
-    <row r="230" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="230" spans="1:20" s="4" customFormat="1">
       <c r="A230" s="5" t="s">
         <v>532</v>
       </c>
@@ -20220,7 +20213,7 @@
         <v>41536036</v>
       </c>
     </row>
-    <row r="231" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="231" spans="1:20" s="4" customFormat="1">
       <c r="A231" s="5" t="s">
         <v>534</v>
       </c>
@@ -20282,7 +20275,7 @@
         <v>120915648</v>
       </c>
     </row>
-    <row r="232" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="232" spans="1:20" s="4" customFormat="1">
       <c r="A232" s="5" t="s">
         <v>536</v>
       </c>
@@ -20344,7 +20337,7 @@
         <v>188115328</v>
       </c>
     </row>
-    <row r="233" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="233" spans="1:20" s="4" customFormat="1">
       <c r="A233" s="5" t="s">
         <v>538</v>
       </c>
@@ -20404,7 +20397,7 @@
         <v>105222208</v>
       </c>
     </row>
-    <row r="234" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="234" spans="1:20" s="4" customFormat="1">
       <c r="A234" s="5" t="s">
         <v>540</v>
       </c>
@@ -20466,7 +20459,7 @@
         <v>19538264</v>
       </c>
     </row>
-    <row r="235" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="235" spans="1:20" s="4" customFormat="1">
       <c r="A235" s="5" t="s">
         <v>542</v>
       </c>
@@ -20528,7 +20521,7 @@
         <v>7466884.5</v>
       </c>
     </row>
-    <row r="236" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="236" spans="1:20" s="4" customFormat="1">
       <c r="A236" s="5" t="s">
         <v>544</v>
       </c>
@@ -20590,7 +20583,7 @@
         <v>19935938</v>
       </c>
     </row>
-    <row r="237" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="237" spans="1:20" s="4" customFormat="1">
       <c r="A237" s="5" t="s">
         <v>545</v>
       </c>
@@ -20652,7 +20645,7 @@
         <v>594144640</v>
       </c>
     </row>
-    <row r="238" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="238" spans="1:20" s="4" customFormat="1">
       <c r="A238" s="5" t="s">
         <v>547</v>
       </c>
@@ -20712,7 +20705,7 @@
         <v>22041920</v>
       </c>
     </row>
-    <row r="239" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="239" spans="1:20" s="4" customFormat="1">
       <c r="A239" s="5" t="s">
         <v>549</v>
       </c>
@@ -20774,7 +20767,7 @@
         <v>6194002</v>
       </c>
     </row>
-    <row r="240" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="240" spans="1:20" s="4" customFormat="1">
       <c r="A240" s="5" t="s">
         <v>551</v>
       </c>
@@ -20834,7 +20827,7 @@
         <v>3108763</v>
       </c>
     </row>
-    <row r="241" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="241" spans="1:20" s="4" customFormat="1">
       <c r="A241" s="5" t="s">
         <v>553</v>
       </c>
@@ -20896,7 +20889,7 @@
         <v>46198564</v>
       </c>
     </row>
-    <row r="242" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="242" spans="1:20" s="4" customFormat="1">
       <c r="A242" s="5" t="s">
         <v>555</v>
       </c>
@@ -20958,7 +20951,7 @@
         <v>23020570</v>
       </c>
     </row>
-    <row r="243" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="243" spans="1:20" s="4" customFormat="1">
       <c r="A243" s="5" t="s">
         <v>556</v>
       </c>
@@ -21020,7 +21013,7 @@
         <v>9179501</v>
       </c>
     </row>
-    <row r="244" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="244" spans="1:20" s="4" customFormat="1">
       <c r="A244" s="5" t="s">
         <v>558</v>
       </c>
@@ -21082,7 +21075,7 @@
         <v>9972198</v>
       </c>
     </row>
-    <row r="245" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="245" spans="1:20" s="4" customFormat="1">
       <c r="A245" s="5" t="s">
         <v>560</v>
       </c>
@@ -21144,7 +21137,7 @@
         <v>14162639</v>
       </c>
     </row>
-    <row r="246" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="246" spans="1:20" s="4" customFormat="1">
       <c r="A246" s="5" t="s">
         <v>562</v>
       </c>
@@ -21206,7 +21199,7 @@
         <v>15199944</v>
       </c>
     </row>
-    <row r="247" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="247" spans="1:20" s="4" customFormat="1">
       <c r="A247" s="5" t="s">
         <v>564</v>
       </c>
@@ -21268,7 +21261,7 @@
         <v>15958665</v>
       </c>
     </row>
-    <row r="248" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="248" spans="1:20" s="4" customFormat="1">
       <c r="A248" s="5" t="s">
         <v>566</v>
       </c>
@@ -21328,7 +21321,7 @@
         <v>4916420.5</v>
       </c>
     </row>
-    <row r="249" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="249" spans="1:20" s="4" customFormat="1">
       <c r="A249" s="5" t="s">
         <v>568</v>
       </c>
@@ -21388,7 +21381,7 @@
         <v>5722933.5</v>
       </c>
     </row>
-    <row r="250" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="250" spans="1:20" s="4" customFormat="1">
       <c r="A250" s="5" t="s">
         <v>570</v>
       </c>
@@ -21450,7 +21443,7 @@
         <v>40782996</v>
       </c>
     </row>
-    <row r="251" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="251" spans="1:20" s="4" customFormat="1">
       <c r="A251" s="5" t="s">
         <v>572</v>
       </c>
@@ -21510,7 +21503,7 @@
         <v>7517257.5</v>
       </c>
     </row>
-    <row r="252" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="252" spans="1:20" s="4" customFormat="1">
       <c r="A252" s="5" t="s">
         <v>574</v>
       </c>
@@ -21572,7 +21565,7 @@
         <v>12319662</v>
       </c>
     </row>
-    <row r="253" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="253" spans="1:20" s="4" customFormat="1">
       <c r="A253" s="5" t="s">
         <v>575</v>
       </c>
@@ -21634,7 +21627,7 @@
         <v>11717211</v>
       </c>
     </row>
-    <row r="254" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="254" spans="1:20" s="4" customFormat="1">
       <c r="A254" s="5" t="s">
         <v>576</v>
       </c>
@@ -21692,7 +21685,7 @@
         <v>7643294</v>
       </c>
     </row>
-    <row r="255" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="255" spans="1:20" s="4" customFormat="1">
       <c r="A255" s="5" t="s">
         <v>578</v>
       </c>
@@ -21752,7 +21745,7 @@
         <v>5198859</v>
       </c>
     </row>
-    <row r="256" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="256" spans="1:20" s="4" customFormat="1">
       <c r="A256" s="5" t="s">
         <v>580</v>
       </c>
@@ -21814,7 +21807,7 @@
         <v>59496288</v>
       </c>
     </row>
-    <row r="257" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="257" spans="1:20" s="4" customFormat="1">
       <c r="A257" s="5" t="s">
         <v>583</v>
       </c>
@@ -21874,7 +21867,7 @@
         <v>52013764</v>
       </c>
     </row>
-    <row r="258" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="258" spans="1:20" s="4" customFormat="1">
       <c r="A258" s="5" t="s">
         <v>586</v>
       </c>
@@ -21936,7 +21929,7 @@
         <v>28584570</v>
       </c>
     </row>
-    <row r="259" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="259" spans="1:20" s="4" customFormat="1">
       <c r="A259" s="5" t="s">
         <v>588</v>
       </c>
@@ -21998,7 +21991,7 @@
         <v>30241462</v>
       </c>
     </row>
-    <row r="260" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="260" spans="1:20" s="4" customFormat="1">
       <c r="A260" s="5" t="s">
         <v>590</v>
       </c>
@@ -22058,7 +22051,7 @@
         <v>8760383</v>
       </c>
     </row>
-    <row r="261" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="261" spans="1:20" s="4" customFormat="1">
       <c r="A261" s="5" t="s">
         <v>592</v>
       </c>
@@ -22120,7 +22113,7 @@
         <v>55787184</v>
       </c>
     </row>
-    <row r="262" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="262" spans="1:20" s="4" customFormat="1">
       <c r="A262" s="5" t="s">
         <v>593</v>
       </c>
@@ -22182,7 +22175,7 @@
         <v>21005768</v>
       </c>
     </row>
-    <row r="263" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="263" spans="1:20" s="4" customFormat="1">
       <c r="A263" s="5" t="s">
         <v>595</v>
       </c>
@@ -22244,7 +22237,7 @@
         <v>5927865</v>
       </c>
     </row>
-    <row r="264" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="264" spans="1:20" s="4" customFormat="1">
       <c r="A264" s="5" t="s">
         <v>597</v>
       </c>
@@ -22306,7 +22299,7 @@
         <v>5814935</v>
       </c>
     </row>
-    <row r="265" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="265" spans="1:20" s="4" customFormat="1">
       <c r="A265" s="5" t="s">
         <v>599</v>
       </c>
@@ -22368,7 +22361,7 @@
         <v>11328389</v>
       </c>
     </row>
-    <row r="266" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="266" spans="1:20" s="4" customFormat="1">
       <c r="A266" s="5" t="s">
         <v>601</v>
       </c>
@@ -22426,7 +22419,7 @@
         <v>100382824</v>
       </c>
     </row>
-    <row r="267" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="267" spans="1:20" s="4" customFormat="1">
       <c r="A267" s="5" t="s">
         <v>603</v>
       </c>
@@ -22484,7 +22477,7 @@
         <v>2021751.375</v>
       </c>
     </row>
-    <row r="268" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="268" spans="1:20" s="4" customFormat="1">
       <c r="A268" s="5" t="s">
         <v>605</v>
       </c>
@@ -22546,7 +22539,7 @@
         <v>162162816</v>
       </c>
     </row>
-    <row r="269" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="269" spans="1:20" s="4" customFormat="1">
       <c r="A269" s="5" t="s">
         <v>607</v>
       </c>
@@ -22608,7 +22601,7 @@
         <v>30548916</v>
       </c>
     </row>
-    <row r="270" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="270" spans="1:20" s="4" customFormat="1">
       <c r="A270" s="5" t="s">
         <v>608</v>
       </c>
@@ -22668,7 +22661,7 @@
         <v>10889655</v>
       </c>
     </row>
-    <row r="271" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="271" spans="1:20" s="4" customFormat="1">
       <c r="A271" s="5" t="s">
         <v>610</v>
       </c>
@@ -22730,7 +22723,7 @@
         <v>10950080</v>
       </c>
     </row>
-    <row r="272" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="272" spans="1:20" s="4" customFormat="1">
       <c r="A272" s="5" t="s">
         <v>612</v>
       </c>
@@ -22790,7 +22783,7 @@
         <v>2600008.5</v>
       </c>
     </row>
-    <row r="273" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="273" spans="1:20" s="4" customFormat="1">
       <c r="A273" s="5" t="s">
         <v>614</v>
       </c>
@@ -22852,7 +22845,7 @@
         <v>14210883</v>
       </c>
     </row>
-    <row r="274" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="274" spans="1:20" s="4" customFormat="1">
       <c r="A274" s="5" t="s">
         <v>616</v>
       </c>
@@ -22914,7 +22907,7 @@
         <v>42309464</v>
       </c>
     </row>
-    <row r="275" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="275" spans="1:20" s="4" customFormat="1">
       <c r="A275" s="5" t="s">
         <v>618</v>
       </c>
@@ -22974,7 +22967,7 @@
         <v>7301616</v>
       </c>
     </row>
-    <row r="276" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="276" spans="1:20" s="4" customFormat="1">
       <c r="A276" s="5" t="s">
         <v>620</v>
       </c>
@@ -23036,7 +23029,7 @@
         <v>171510752</v>
       </c>
     </row>
-    <row r="277" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="277" spans="1:20" s="4" customFormat="1">
       <c r="A277" s="5" t="s">
         <v>622</v>
       </c>
@@ -23096,7 +23089,7 @@
         <v>2346700.25</v>
       </c>
     </row>
-    <row r="278" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="278" spans="1:20" s="4" customFormat="1">
       <c r="A278" s="5" t="s">
         <v>624</v>
       </c>
@@ -23158,7 +23151,7 @@
         <v>18765148</v>
       </c>
     </row>
-    <row r="279" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="279" spans="1:20" s="4" customFormat="1">
       <c r="A279" s="5" t="s">
         <v>626</v>
       </c>
@@ -23220,7 +23213,7 @@
         <v>8530687</v>
       </c>
     </row>
-    <row r="280" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="280" spans="1:20" s="4" customFormat="1">
       <c r="A280" s="5" t="s">
         <v>628</v>
       </c>
@@ -23282,7 +23275,7 @@
         <v>16180317</v>
       </c>
     </row>
-    <row r="281" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="281" spans="1:20" s="4" customFormat="1">
       <c r="A281" s="5" t="s">
         <v>630</v>
       </c>
@@ -23344,7 +23337,7 @@
         <v>35982520</v>
       </c>
     </row>
-    <row r="282" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="282" spans="1:20" s="4" customFormat="1">
       <c r="A282" s="5" t="s">
         <v>631</v>
       </c>
@@ -23406,7 +23399,7 @@
         <v>99816312</v>
       </c>
     </row>
-    <row r="283" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="283" spans="1:20" s="4" customFormat="1">
       <c r="A283" s="5" t="s">
         <v>634</v>
       </c>
@@ -23468,7 +23461,7 @@
         <v>3478427.5</v>
       </c>
     </row>
-    <row r="284" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="284" spans="1:20" s="4" customFormat="1">
       <c r="A284" s="5" t="s">
         <v>636</v>
       </c>
@@ -23530,7 +23523,7 @@
         <v>3272311.25</v>
       </c>
     </row>
-    <row r="285" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="285" spans="1:20" s="4" customFormat="1">
       <c r="A285" s="5" t="s">
         <v>638</v>
       </c>
@@ -23592,7 +23585,7 @@
         <v>8742406</v>
       </c>
     </row>
-    <row r="286" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="286" spans="1:20" s="4" customFormat="1">
       <c r="A286" s="5" t="s">
         <v>640</v>
       </c>
@@ -23654,7 +23647,7 @@
         <v>2653258</v>
       </c>
     </row>
-    <row r="287" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="287" spans="1:20" s="4" customFormat="1">
       <c r="A287" s="5" t="s">
         <v>642</v>
       </c>
@@ -23716,7 +23709,7 @@
         <v>67700408</v>
       </c>
     </row>
-    <row r="288" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="288" spans="1:20" s="4" customFormat="1">
       <c r="A288" s="5" t="s">
         <v>644</v>
       </c>
@@ -23778,7 +23771,7 @@
         <v>9217510</v>
       </c>
     </row>
-    <row r="289" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="289" spans="1:20" s="4" customFormat="1">
       <c r="A289" s="5" t="s">
         <v>646</v>
       </c>
@@ -23840,7 +23833,7 @@
         <v>68497464</v>
       </c>
     </row>
-    <row r="290" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="290" spans="1:20" s="4" customFormat="1">
       <c r="A290" s="5" t="s">
         <v>648</v>
       </c>
@@ -23902,7 +23895,7 @@
         <v>6004915</v>
       </c>
     </row>
-    <row r="291" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="291" spans="1:20" s="4" customFormat="1">
       <c r="A291" s="5" t="s">
         <v>650</v>
       </c>
@@ -23964,7 +23957,7 @@
         <v>14489315</v>
       </c>
     </row>
-    <row r="292" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="292" spans="1:20" s="4" customFormat="1">
       <c r="A292" s="5" t="s">
         <v>651</v>
       </c>
@@ -24026,7 +24019,7 @@
         <v>168111120</v>
       </c>
     </row>
-    <row r="293" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="293" spans="1:20" s="4" customFormat="1">
       <c r="A293" s="5" t="s">
         <v>653</v>
       </c>
@@ -24088,7 +24081,7 @@
         <v>189263712</v>
       </c>
     </row>
-    <row r="294" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="294" spans="1:20" s="4" customFormat="1">
       <c r="A294" s="5" t="s">
         <v>655</v>
       </c>
@@ -24150,7 +24143,7 @@
         <v>17975990</v>
       </c>
     </row>
-    <row r="295" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="295" spans="1:20" s="4" customFormat="1">
       <c r="A295" s="5" t="s">
         <v>660</v>
       </c>
@@ -24212,7 +24205,7 @@
         <v>21036508</v>
       </c>
     </row>
-    <row r="296" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="296" spans="1:20" s="4" customFormat="1">
       <c r="A296" s="5" t="s">
         <v>661</v>
       </c>
@@ -24272,7 +24265,7 @@
         <v>14825898</v>
       </c>
     </row>
-    <row r="297" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="297" spans="1:20" s="4" customFormat="1">
       <c r="A297" s="5" t="s">
         <v>662</v>
       </c>
@@ -24332,7 +24325,7 @@
         <v>5795041</v>
       </c>
     </row>
-    <row r="298" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="298" spans="1:20" s="4" customFormat="1">
       <c r="A298" s="5" t="s">
         <v>664</v>
       </c>
@@ -24392,7 +24385,7 @@
         <v>114684904</v>
       </c>
     </row>
-    <row r="299" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="299" spans="1:20" s="4" customFormat="1">
       <c r="A299" s="5" t="s">
         <v>666</v>
       </c>
@@ -24452,7 +24445,7 @@
         <v>908275584</v>
       </c>
     </row>
-    <row r="300" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="300" spans="1:20" s="4" customFormat="1">
       <c r="A300" s="5" t="s">
         <v>669</v>
       </c>
@@ -24510,7 +24503,7 @@
         <v>4050973.25</v>
       </c>
     </row>
-    <row r="301" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="301" spans="1:20" s="4" customFormat="1">
       <c r="A301" s="5" t="s">
         <v>671</v>
       </c>
@@ -24572,7 +24565,7 @@
         <v>11033991</v>
       </c>
     </row>
-    <row r="302" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="302" spans="1:20" s="4" customFormat="1">
       <c r="A302" s="5" t="s">
         <v>673</v>
       </c>
@@ -24632,7 +24625,7 @@
         <v>36958192</v>
       </c>
     </row>
-    <row r="303" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="303" spans="1:20" s="4" customFormat="1">
       <c r="A303" s="5" t="s">
         <v>674</v>
       </c>
@@ -24692,7 +24685,7 @@
         <v>22409880</v>
       </c>
     </row>
-    <row r="304" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="304" spans="1:20" s="4" customFormat="1">
       <c r="A304" s="5" t="s">
         <v>676</v>
       </c>
@@ -24754,7 +24747,7 @@
         <v>8379988</v>
       </c>
     </row>
-    <row r="305" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="305" spans="1:20" s="4" customFormat="1">
       <c r="A305" s="5" t="s">
         <v>678</v>
       </c>
@@ -24816,7 +24809,7 @@
         <v>8366724.5</v>
       </c>
     </row>
-    <row r="306" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="306" spans="1:20" s="4" customFormat="1">
       <c r="A306" s="5" t="s">
         <v>680</v>
       </c>
@@ -24878,7 +24871,7 @@
         <v>8147262</v>
       </c>
     </row>
-    <row r="307" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="307" spans="1:20" s="4" customFormat="1">
       <c r="A307" s="5" t="s">
         <v>682</v>
       </c>
@@ -24940,7 +24933,7 @@
         <v>9479021</v>
       </c>
     </row>
-    <row r="308" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="308" spans="1:20" s="4" customFormat="1">
       <c r="A308" s="5" t="s">
         <v>683</v>
       </c>
@@ -25000,7 +24993,7 @@
         <v>146600752</v>
       </c>
     </row>
-    <row r="309" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="309" spans="1:20" s="4" customFormat="1">
       <c r="A309" s="5" t="s">
         <v>687</v>
       </c>
@@ -25062,7 +25055,7 @@
         <v>7037834.5</v>
       </c>
     </row>
-    <row r="310" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="310" spans="1:20" s="4" customFormat="1">
       <c r="A310" s="5" t="s">
         <v>688</v>
       </c>
@@ -25122,7 +25115,7 @@
         <v>2577502.75</v>
       </c>
     </row>
-    <row r="311" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="311" spans="1:20" s="4" customFormat="1">
       <c r="A311" s="5" t="s">
         <v>690</v>
       </c>
@@ -25182,7 +25175,7 @@
         <v>11577103</v>
       </c>
     </row>
-    <row r="312" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="312" spans="1:20" s="4" customFormat="1">
       <c r="A312" s="5" t="s">
         <v>692</v>
       </c>
@@ -25242,7 +25235,7 @@
         <v>3427258.25</v>
       </c>
     </row>
-    <row r="313" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="313" spans="1:20" s="4" customFormat="1">
       <c r="A313" s="5" t="s">
         <v>694</v>
       </c>
@@ -25304,7 +25297,7 @@
         <v>13264615</v>
       </c>
     </row>
-    <row r="314" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="314" spans="1:20" s="4" customFormat="1">
       <c r="A314" s="5" t="s">
         <v>696</v>
       </c>
@@ -25366,7 +25359,7 @@
         <v>12492801</v>
       </c>
     </row>
-    <row r="315" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="315" spans="1:20" s="4" customFormat="1">
       <c r="A315" s="5" t="s">
         <v>698</v>
       </c>
@@ -25426,7 +25419,7 @@
         <v>7586741</v>
       </c>
     </row>
-    <row r="316" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="316" spans="1:20" s="4" customFormat="1">
       <c r="A316" s="5" t="s">
         <v>700</v>
       </c>
@@ -25488,7 +25481,7 @@
         <v>72586624</v>
       </c>
     </row>
-    <row r="317" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="317" spans="1:20" s="4" customFormat="1">
       <c r="A317" s="5" t="s">
         <v>702</v>
       </c>
@@ -25550,7 +25543,7 @@
         <v>12602210</v>
       </c>
     </row>
-    <row r="318" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="318" spans="1:20" s="4" customFormat="1">
       <c r="A318" s="5" t="s">
         <v>704</v>
       </c>
@@ -25612,7 +25605,7 @@
         <v>34518784</v>
       </c>
     </row>
-    <row r="319" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="319" spans="1:20" s="4" customFormat="1">
       <c r="A319" s="5" t="s">
         <v>707</v>
       </c>
@@ -25674,7 +25667,7 @@
         <v>11280169</v>
       </c>
     </row>
-    <row r="320" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="320" spans="1:20" s="4" customFormat="1">
       <c r="A320" s="5" t="s">
         <v>709</v>
       </c>
@@ -25736,7 +25729,7 @@
         <v>50120960</v>
       </c>
     </row>
-    <row r="321" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="321" spans="1:20" s="4" customFormat="1">
       <c r="A321" s="5" t="s">
         <v>711</v>
       </c>
@@ -25798,7 +25791,7 @@
         <v>3010686.5</v>
       </c>
     </row>
-    <row r="322" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="322" spans="1:20" s="4" customFormat="1">
       <c r="A322" s="5" t="s">
         <v>713</v>
       </c>
@@ -25860,7 +25853,7 @@
         <v>109665952</v>
       </c>
     </row>
-    <row r="323" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="323" spans="1:20" s="4" customFormat="1">
       <c r="A323" s="5" t="s">
         <v>715</v>
       </c>
@@ -25920,7 +25913,7 @@
         <v>17602670</v>
       </c>
     </row>
-    <row r="324" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="324" spans="1:20" s="4" customFormat="1">
       <c r="A324" s="5" t="s">
         <v>716</v>
       </c>
@@ -25982,7 +25975,7 @@
         <v>13213211</v>
       </c>
     </row>
-    <row r="325" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="325" spans="1:20" s="4" customFormat="1">
       <c r="A325" s="5" t="s">
         <v>718</v>
       </c>
@@ -26044,7 +26037,7 @@
         <v>18812226</v>
       </c>
     </row>
-    <row r="326" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="326" spans="1:20" s="4" customFormat="1">
       <c r="A326" s="5" t="s">
         <v>720</v>
       </c>
@@ -26106,7 +26099,7 @@
         <v>4263949.5</v>
       </c>
     </row>
-    <row r="327" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="327" spans="1:20" s="4" customFormat="1">
       <c r="A327" s="5" t="s">
         <v>722</v>
       </c>
@@ -26168,7 +26161,7 @@
         <v>4919297.5</v>
       </c>
     </row>
-    <row r="328" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="328" spans="1:20" s="4" customFormat="1">
       <c r="A328" s="5" t="s">
         <v>726</v>
       </c>
@@ -26228,7 +26221,7 @@
         <v>4405202.5</v>
       </c>
     </row>
-    <row r="329" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="329" spans="1:20" s="4" customFormat="1">
       <c r="A329" s="5" t="s">
         <v>728</v>
       </c>
@@ -26290,7 +26283,7 @@
         <v>53250764</v>
       </c>
     </row>
-    <row r="330" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="330" spans="1:20" s="4" customFormat="1">
       <c r="A330" s="5" t="s">
         <v>730</v>
       </c>
@@ -26352,7 +26345,7 @@
         <v>34070568</v>
       </c>
     </row>
-    <row r="331" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="331" spans="1:20" s="4" customFormat="1">
       <c r="A331" s="5" t="s">
         <v>733</v>
       </c>
@@ -26414,7 +26407,7 @@
         <v>10421800</v>
       </c>
     </row>
-    <row r="332" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="332" spans="1:20" s="4" customFormat="1">
       <c r="A332" s="5" t="s">
         <v>734</v>
       </c>
@@ -26476,7 +26469,7 @@
         <v>2635672.5</v>
       </c>
     </row>
-    <row r="333" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="333" spans="1:20" s="4" customFormat="1">
       <c r="A333" s="5" t="s">
         <v>736</v>
       </c>
@@ -26538,7 +26531,7 @@
         <v>406651072</v>
       </c>
     </row>
-    <row r="334" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="334" spans="1:20" s="4" customFormat="1">
       <c r="A334" s="5" t="s">
         <v>738</v>
       </c>
@@ -26600,7 +26593,7 @@
         <v>61565956</v>
       </c>
     </row>
-    <row r="335" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="335" spans="1:20" s="4" customFormat="1">
       <c r="A335" s="5" t="s">
         <v>739</v>
       </c>
@@ -26660,7 +26653,7 @@
         <v>517550112</v>
       </c>
     </row>
-    <row r="336" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="336" spans="1:20" s="4" customFormat="1">
       <c r="A336" s="5" t="s">
         <v>741</v>
       </c>
@@ -26722,7 +26715,7 @@
         <v>7057701</v>
       </c>
     </row>
-    <row r="337" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="337" spans="1:20" s="4" customFormat="1">
       <c r="A337" s="5" t="s">
         <v>743</v>
       </c>
@@ -26784,7 +26777,7 @@
         <v>3492818</v>
       </c>
     </row>
-    <row r="338" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="338" spans="1:20" s="4" customFormat="1">
       <c r="A338" s="5" t="s">
         <v>746</v>
       </c>
@@ -26846,7 +26839,7 @@
         <v>26869880</v>
       </c>
     </row>
-    <row r="339" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="339" spans="1:20" s="4" customFormat="1">
       <c r="A339" s="5" t="s">
         <v>748</v>
       </c>
@@ -26906,7 +26899,7 @@
         <v>72950432</v>
       </c>
     </row>
-    <row r="340" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="340" spans="1:20" s="4" customFormat="1">
       <c r="A340" s="5" t="s">
         <v>750</v>
       </c>
@@ -26968,7 +26961,7 @@
         <v>40431456</v>
       </c>
     </row>
-    <row r="341" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="341" spans="1:20" s="4" customFormat="1">
       <c r="A341" s="5" t="s">
         <v>752</v>
       </c>
@@ -27026,7 +27019,7 @@
         <v>4151943</v>
       </c>
     </row>
-    <row r="342" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="342" spans="1:20" s="4" customFormat="1">
       <c r="A342" s="5" t="s">
         <v>754</v>
       </c>
@@ -27086,7 +27079,7 @@
         <v>27290736</v>
       </c>
     </row>
-    <row r="343" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="343" spans="1:20" s="4" customFormat="1">
       <c r="A343" s="5" t="s">
         <v>756</v>
       </c>
@@ -27148,7 +27141,7 @@
         <v>8101950.5</v>
       </c>
     </row>
-    <row r="344" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="344" spans="1:20" s="4" customFormat="1">
       <c r="A344" s="5" t="s">
         <v>758</v>
       </c>
@@ -27210,7 +27203,7 @@
         <v>8487804</v>
       </c>
     </row>
-    <row r="345" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="345" spans="1:20" s="4" customFormat="1">
       <c r="A345" s="5" t="s">
         <v>760</v>
       </c>
@@ -27272,7 +27265,7 @@
         <v>60924984</v>
       </c>
     </row>
-    <row r="346" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="346" spans="1:20" s="4" customFormat="1">
       <c r="A346" s="5" t="s">
         <v>762</v>
       </c>
@@ -27334,7 +27327,7 @@
         <v>45480880</v>
       </c>
     </row>
-    <row r="347" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="347" spans="1:20" s="4" customFormat="1">
       <c r="A347" s="5" t="s">
         <v>764</v>
       </c>
@@ -27394,7 +27387,7 @@
         <v>16962812</v>
       </c>
     </row>
-    <row r="348" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="348" spans="1:20" s="4" customFormat="1">
       <c r="A348" s="5" t="s">
         <v>766</v>
       </c>
@@ -27454,7 +27447,7 @@
         <v>9000221</v>
       </c>
     </row>
-    <row r="349" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="349" spans="1:20" s="4" customFormat="1">
       <c r="A349" s="5" t="s">
         <v>768</v>
       </c>
@@ -27516,7 +27509,7 @@
         <v>14500382</v>
       </c>
     </row>
-    <row r="350" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="350" spans="1:20" s="4" customFormat="1">
       <c r="A350" s="5" t="s">
         <v>770</v>
       </c>
@@ -27578,7 +27571,7 @@
         <v>65451860</v>
       </c>
     </row>
-    <row r="351" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="351" spans="1:20" s="4" customFormat="1">
       <c r="A351" s="5" t="s">
         <v>772</v>
       </c>
@@ -27640,7 +27633,7 @@
         <v>2339698</v>
       </c>
     </row>
-    <row r="352" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="352" spans="1:20" s="4" customFormat="1">
       <c r="A352" s="5" t="s">
         <v>774</v>
       </c>
@@ -27698,7 +27691,7 @@
         <v>3227421.5</v>
       </c>
     </row>
-    <row r="353" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="353" spans="1:20" s="4" customFormat="1">
       <c r="A353" s="5" t="s">
         <v>776</v>
       </c>
@@ -27758,7 +27751,7 @@
         <v>3239378.25</v>
       </c>
     </row>
-    <row r="354" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="354" spans="1:20" s="4" customFormat="1">
       <c r="A354" s="5" t="s">
         <v>778</v>
       </c>
@@ -27820,7 +27813,7 @@
         <v>8666897</v>
       </c>
     </row>
-    <row r="355" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="355" spans="1:20" s="4" customFormat="1">
       <c r="A355" s="5" t="s">
         <v>780</v>
       </c>
@@ -27880,7 +27873,7 @@
         <v>2462508</v>
       </c>
     </row>
-    <row r="356" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="356" spans="1:20" s="4" customFormat="1">
       <c r="A356" s="5" t="s">
         <v>782</v>
       </c>
@@ -27940,7 +27933,7 @@
         <v>4008621.75</v>
       </c>
     </row>
-    <row r="357" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="357" spans="1:20" s="4" customFormat="1">
       <c r="A357" s="5" t="s">
         <v>783</v>
       </c>
@@ -28000,7 +27993,7 @@
         <v>10642146</v>
       </c>
     </row>
-    <row r="358" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="358" spans="1:20" s="4" customFormat="1">
       <c r="A358" s="5" t="s">
         <v>785</v>
       </c>
@@ -28062,7 +28055,7 @@
         <v>11104676</v>
       </c>
     </row>
-    <row r="359" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="359" spans="1:20" s="4" customFormat="1">
       <c r="A359" s="5" t="s">
         <v>787</v>
       </c>
@@ -28122,7 +28115,7 @@
         <v>3951408.75</v>
       </c>
     </row>
-    <row r="360" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="360" spans="1:20" s="4" customFormat="1">
       <c r="A360" s="5" t="s">
         <v>789</v>
       </c>
@@ -28182,7 +28175,7 @@
         <v>187595280</v>
       </c>
     </row>
-    <row r="361" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="361" spans="1:20" s="4" customFormat="1">
       <c r="A361" s="5" t="s">
         <v>791</v>
       </c>
@@ -28244,7 +28237,7 @@
         <v>10633037</v>
       </c>
     </row>
-    <row r="362" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="362" spans="1:20" s="4" customFormat="1">
       <c r="A362" s="5" t="s">
         <v>793</v>
       </c>
@@ -28304,7 +28297,7 @@
         <v>406900928</v>
       </c>
     </row>
-    <row r="363" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="363" spans="1:20" s="4" customFormat="1">
       <c r="A363" s="5" t="s">
         <v>795</v>
       </c>
@@ -28366,7 +28359,7 @@
         <v>10213420</v>
       </c>
     </row>
-    <row r="364" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="364" spans="1:20" s="4" customFormat="1">
       <c r="A364" s="5" t="s">
         <v>797</v>
       </c>
@@ -28428,7 +28421,7 @@
         <v>9882456</v>
       </c>
     </row>
-    <row r="365" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="365" spans="1:20" s="4" customFormat="1">
       <c r="A365" s="5" t="s">
         <v>800</v>
       </c>
@@ -28490,7 +28483,7 @@
         <v>138257264</v>
       </c>
     </row>
-    <row r="366" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="366" spans="1:20" s="4" customFormat="1">
       <c r="A366" s="5" t="s">
         <v>802</v>
       </c>
@@ -28552,7 +28545,7 @@
         <v>129900672</v>
       </c>
     </row>
-    <row r="367" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="367" spans="1:20" s="4" customFormat="1">
       <c r="A367" s="5" t="s">
         <v>804</v>
       </c>
@@ -28614,7 +28607,7 @@
         <v>9310640</v>
       </c>
     </row>
-    <row r="368" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="368" spans="1:20" s="4" customFormat="1">
       <c r="A368" s="5" t="s">
         <v>805</v>
       </c>
@@ -28676,7 +28669,7 @@
         <v>8186098</v>
       </c>
     </row>
-    <row r="369" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="369" spans="1:20" s="4" customFormat="1">
       <c r="A369" s="5" t="s">
         <v>807</v>
       </c>
@@ -28738,7 +28731,7 @@
         <v>4446558</v>
       </c>
     </row>
-    <row r="370" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="370" spans="1:20" s="4" customFormat="1">
       <c r="A370" s="5" t="s">
         <v>808</v>
       </c>
@@ -28800,7 +28793,7 @@
         <v>8962225</v>
       </c>
     </row>
-    <row r="371" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="371" spans="1:20" s="4" customFormat="1">
       <c r="A371" s="5" t="s">
         <v>810</v>
       </c>
@@ -28860,7 +28853,7 @@
         <v>21491026</v>
       </c>
     </row>
-    <row r="372" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="372" spans="1:20" s="4" customFormat="1">
       <c r="A372" s="5" t="s">
         <v>812</v>
       </c>
@@ -28920,7 +28913,7 @@
         <v>64801120</v>
       </c>
     </row>
-    <row r="373" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="373" spans="1:20" s="4" customFormat="1">
       <c r="A373" s="5" t="s">
         <v>814</v>
       </c>
@@ -28982,7 +28975,7 @@
         <v>6673881</v>
       </c>
     </row>
-    <row r="374" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="374" spans="1:20" s="4" customFormat="1">
       <c r="A374" s="5" t="s">
         <v>816</v>
       </c>
@@ -29044,7 +29037,7 @@
         <v>48156668</v>
       </c>
     </row>
-    <row r="375" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="375" spans="1:20" s="4" customFormat="1">
       <c r="A375" s="5" t="s">
         <v>818</v>
       </c>
@@ -29106,7 +29099,7 @@
         <v>8722560</v>
       </c>
     </row>
-    <row r="376" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="376" spans="1:20" s="4" customFormat="1">
       <c r="A376" s="5" t="s">
         <v>820</v>
       </c>
@@ -29168,7 +29161,7 @@
         <v>11138133</v>
       </c>
     </row>
-    <row r="377" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="377" spans="1:20" s="4" customFormat="1">
       <c r="A377" s="5" t="s">
         <v>822</v>
       </c>
@@ -29228,7 +29221,7 @@
         <v>175060720</v>
       </c>
     </row>
-    <row r="378" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="378" spans="1:20" s="4" customFormat="1">
       <c r="A378" s="5" t="s">
         <v>824</v>
       </c>
@@ -29288,7 +29281,7 @@
         <v>15808092</v>
       </c>
     </row>
-    <row r="379" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="379" spans="1:20" s="4" customFormat="1">
       <c r="A379" s="5" t="s">
         <v>826</v>
       </c>
@@ -29350,7 +29343,7 @@
         <v>11678777</v>
       </c>
     </row>
-    <row r="380" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="380" spans="1:20" s="4" customFormat="1">
       <c r="A380" s="5" t="s">
         <v>828</v>
       </c>
@@ -29412,7 +29405,7 @@
         <v>9696018</v>
       </c>
     </row>
-    <row r="381" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="381" spans="1:20" s="4" customFormat="1">
       <c r="A381" s="5" t="s">
         <v>830</v>
       </c>
@@ -29474,7 +29467,7 @@
         <v>30732724</v>
       </c>
     </row>
-    <row r="382" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="382" spans="1:20" s="4" customFormat="1">
       <c r="A382" s="5" t="s">
         <v>833</v>
       </c>
@@ -29534,7 +29527,7 @@
         <v>8188090</v>
       </c>
     </row>
-    <row r="383" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="383" spans="1:20" s="4" customFormat="1">
       <c r="A383" s="5" t="s">
         <v>835</v>
       </c>
@@ -29594,7 +29587,7 @@
         <v>18640870</v>
       </c>
     </row>
-    <row r="384" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="384" spans="1:20" s="4" customFormat="1">
       <c r="A384" s="5" t="s">
         <v>837</v>
       </c>
@@ -29654,7 +29647,7 @@
         <v>3936299</v>
       </c>
     </row>
-    <row r="385" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="385" spans="1:20" s="4" customFormat="1">
       <c r="A385" s="5" t="s">
         <v>839</v>
       </c>
@@ -29716,7 +29709,7 @@
         <v>12051788</v>
       </c>
     </row>
-    <row r="386" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="386" spans="1:20" s="4" customFormat="1">
       <c r="A386" s="5" t="s">
         <v>840</v>
       </c>
@@ -29778,7 +29771,7 @@
         <v>17531494</v>
       </c>
     </row>
-    <row r="387" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="387" spans="1:20" s="4" customFormat="1">
       <c r="A387" s="5" t="s">
         <v>842</v>
       </c>
@@ -29840,7 +29833,7 @@
         <v>12941082</v>
       </c>
     </row>
-    <row r="388" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="388" spans="1:20" s="4" customFormat="1">
       <c r="A388" s="5" t="s">
         <v>844</v>
       </c>
@@ -29900,7 +29893,7 @@
         <v>162698512</v>
       </c>
     </row>
-    <row r="389" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="389" spans="1:20" s="4" customFormat="1">
       <c r="A389" s="5" t="s">
         <v>846</v>
       </c>
@@ -29962,7 +29955,7 @@
         <v>5637152.5</v>
       </c>
     </row>
-    <row r="390" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="390" spans="1:20" s="4" customFormat="1">
       <c r="A390" s="5" t="s">
         <v>848</v>
       </c>
@@ -30022,7 +30015,7 @@
         <v>9063988</v>
       </c>
     </row>
-    <row r="391" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="391" spans="1:20" s="4" customFormat="1">
       <c r="A391" s="5" t="s">
         <v>850</v>
       </c>
@@ -30082,7 +30075,7 @@
         <v>764564608</v>
       </c>
     </row>
-    <row r="392" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="392" spans="1:20" s="4" customFormat="1">
       <c r="A392" s="5" t="s">
         <v>852</v>
       </c>
@@ -30144,7 +30137,7 @@
         <v>17676932</v>
       </c>
     </row>
-    <row r="393" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="393" spans="1:20" s="4" customFormat="1">
       <c r="A393" s="5" t="s">
         <v>854</v>
       </c>
@@ -30206,7 +30199,7 @@
         <v>94138616</v>
       </c>
     </row>
-    <row r="394" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="394" spans="1:20" s="4" customFormat="1">
       <c r="A394" s="5" t="s">
         <v>855</v>
       </c>
@@ -30268,7 +30261,7 @@
         <v>4008512.5</v>
       </c>
     </row>
-    <row r="395" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="395" spans="1:20" s="4" customFormat="1">
       <c r="A395" s="5" t="s">
         <v>857</v>
       </c>
@@ -30330,7 +30323,7 @@
         <v>9020255</v>
       </c>
     </row>
-    <row r="396" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="396" spans="1:20" s="4" customFormat="1">
       <c r="A396" s="5" t="s">
         <v>859</v>
       </c>
@@ -30392,7 +30385,7 @@
         <v>10651782</v>
       </c>
     </row>
-    <row r="397" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="397" spans="1:20" s="4" customFormat="1">
       <c r="A397" s="5" t="s">
         <v>861</v>
       </c>
@@ -30452,7 +30445,7 @@
         <v>3357145.75</v>
       </c>
     </row>
-    <row r="398" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="398" spans="1:20" s="4" customFormat="1">
       <c r="A398" s="5" t="s">
         <v>863</v>
       </c>
@@ -30514,7 +30507,7 @@
         <v>15091521</v>
       </c>
     </row>
-    <row r="399" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="399" spans="1:20" s="4" customFormat="1">
       <c r="A399" s="5" t="s">
         <v>864</v>
       </c>
@@ -30576,7 +30569,7 @@
         <v>5416793</v>
       </c>
     </row>
-    <row r="400" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="400" spans="1:20" s="4" customFormat="1">
       <c r="A400" s="5" t="s">
         <v>866</v>
       </c>
@@ -30638,7 +30631,7 @@
         <v>129911600</v>
       </c>
     </row>
-    <row r="401" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="401" spans="1:20" s="4" customFormat="1">
       <c r="A401" s="5" t="s">
         <v>869</v>
       </c>
@@ -30698,7 +30691,7 @@
         <v>177705568</v>
       </c>
     </row>
-    <row r="402" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="402" spans="1:20" s="4" customFormat="1">
       <c r="A402" s="5" t="s">
         <v>871</v>
       </c>
@@ -30760,7 +30753,7 @@
         <v>180330624</v>
       </c>
     </row>
-    <row r="403" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="403" spans="1:20" s="4" customFormat="1">
       <c r="A403" s="5" t="s">
         <v>873</v>
       </c>
@@ -30822,7 +30815,7 @@
         <v>6425348</v>
       </c>
     </row>
-    <row r="404" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="404" spans="1:20" s="4" customFormat="1">
       <c r="A404" s="5" t="s">
         <v>875</v>
       </c>
@@ -30884,7 +30877,7 @@
         <v>2582094.5</v>
       </c>
     </row>
-    <row r="405" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="405" spans="1:20" s="4" customFormat="1">
       <c r="A405" s="5" t="s">
         <v>877</v>
       </c>
@@ -30946,7 +30939,7 @@
         <v>25859592</v>
       </c>
     </row>
-    <row r="406" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="406" spans="1:20" s="4" customFormat="1">
       <c r="A406" s="5" t="s">
         <v>879</v>
       </c>
@@ -31006,7 +30999,7 @@
         <v>3682044.75</v>
       </c>
     </row>
-    <row r="407" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="407" spans="1:20" s="4" customFormat="1">
       <c r="A407" s="5" t="s">
         <v>884</v>
       </c>
@@ -31068,7 +31061,7 @@
         <v>9669887</v>
       </c>
     </row>
-    <row r="408" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="408" spans="1:20" s="4" customFormat="1">
       <c r="A408" s="5" t="s">
         <v>886</v>
       </c>
@@ -31128,7 +31121,7 @@
         <v>3309306.75</v>
       </c>
     </row>
-    <row r="409" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="409" spans="1:20" s="4" customFormat="1">
       <c r="A409" s="5" t="s">
         <v>887</v>
       </c>
@@ -31190,7 +31183,7 @@
         <v>12419044</v>
       </c>
     </row>
-    <row r="410" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="410" spans="1:20" s="4" customFormat="1">
       <c r="A410" s="5" t="s">
         <v>889</v>
       </c>
@@ -31252,7 +31245,7 @@
         <v>6488250</v>
       </c>
     </row>
-    <row r="411" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="411" spans="1:20" s="4" customFormat="1">
       <c r="A411" s="5" t="s">
         <v>891</v>
       </c>
@@ -31312,7 +31305,7 @@
         <v>17455768</v>
       </c>
     </row>
-    <row r="412" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="412" spans="1:20" s="4" customFormat="1">
       <c r="A412" s="5" t="s">
         <v>893</v>
       </c>
@@ -31374,7 +31367,7 @@
         <v>12236692</v>
       </c>
     </row>
-    <row r="413" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="413" spans="1:20" s="4" customFormat="1">
       <c r="A413" s="5" t="s">
         <v>895</v>
       </c>
@@ -31434,7 +31427,7 @@
         <v>4426607</v>
       </c>
     </row>
-    <row r="414" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="414" spans="1:20" s="4" customFormat="1">
       <c r="A414" s="5" t="s">
         <v>897</v>
       </c>
@@ -31496,7 +31489,7 @@
         <v>21187508</v>
       </c>
     </row>
-    <row r="415" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="415" spans="1:20" s="4" customFormat="1">
       <c r="A415" s="5" t="s">
         <v>899</v>
       </c>
@@ -31558,7 +31551,7 @@
         <v>7096214</v>
       </c>
     </row>
-    <row r="416" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="416" spans="1:20" s="4" customFormat="1">
       <c r="A416" s="5" t="s">
         <v>901</v>
       </c>
@@ -31620,7 +31613,7 @@
         <v>12231967</v>
       </c>
     </row>
-    <row r="417" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="417" spans="1:20" s="4" customFormat="1">
       <c r="A417" s="5" t="s">
         <v>903</v>
       </c>
@@ -31680,7 +31673,7 @@
         <v>2936578.5</v>
       </c>
     </row>
-    <row r="418" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="418" spans="1:20" s="4" customFormat="1">
       <c r="A418" s="5" t="s">
         <v>905</v>
       </c>
@@ -31742,7 +31735,7 @@
         <v>6624917</v>
       </c>
     </row>
-    <row r="419" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="419" spans="1:20" s="4" customFormat="1">
       <c r="A419" s="5" t="s">
         <v>907</v>
       </c>
@@ -31804,7 +31797,7 @@
         <v>11536692</v>
       </c>
     </row>
-    <row r="420" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="420" spans="1:20" s="4" customFormat="1">
       <c r="A420" s="5" t="s">
         <v>909</v>
       </c>
@@ -31866,7 +31859,7 @@
         <v>49535168</v>
       </c>
     </row>
-    <row r="421" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="421" spans="1:20" s="4" customFormat="1">
       <c r="A421" s="5" t="s">
         <v>911</v>
       </c>
@@ -31928,7 +31921,7 @@
         <v>12566846</v>
       </c>
     </row>
-    <row r="422" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="422" spans="1:20" s="4" customFormat="1">
       <c r="A422" s="5" t="s">
         <v>913</v>
       </c>
@@ -31990,7 +31983,7 @@
         <v>9656628</v>
       </c>
     </row>
-    <row r="423" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="423" spans="1:20" s="4" customFormat="1">
       <c r="A423" s="5" t="s">
         <v>915</v>
       </c>
@@ -32052,7 +32045,7 @@
         <v>72804232</v>
       </c>
     </row>
-    <row r="424" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="424" spans="1:20" s="4" customFormat="1">
       <c r="A424" s="5" t="s">
         <v>918</v>
       </c>
@@ -32114,7 +32107,7 @@
         <v>11656816</v>
       </c>
     </row>
-    <row r="425" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="425" spans="1:20" s="4" customFormat="1">
       <c r="A425" s="5" t="s">
         <v>920</v>
       </c>
@@ -32176,7 +32169,7 @@
         <v>11029332</v>
       </c>
     </row>
-    <row r="426" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="426" spans="1:20" s="4" customFormat="1">
       <c r="A426" s="5" t="s">
         <v>922</v>
       </c>
@@ -32238,7 +32231,7 @@
         <v>5008413</v>
       </c>
     </row>
-    <row r="427" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="427" spans="1:20" s="4" customFormat="1">
       <c r="A427" s="5" t="s">
         <v>924</v>
       </c>
@@ -32300,7 +32293,7 @@
         <v>23697288</v>
       </c>
     </row>
-    <row r="428" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="428" spans="1:20" s="4" customFormat="1">
       <c r="A428" s="5" t="s">
         <v>926</v>
       </c>
@@ -32362,7 +32355,7 @@
         <v>7363583.5</v>
       </c>
     </row>
-    <row r="429" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="429" spans="1:20" s="4" customFormat="1">
       <c r="A429" s="5" t="s">
         <v>928</v>
       </c>
@@ -32424,7 +32417,7 @@
         <v>25096818</v>
       </c>
     </row>
-    <row r="430" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="430" spans="1:20" s="4" customFormat="1">
       <c r="A430" s="5" t="s">
         <v>930</v>
       </c>
@@ -32486,7 +32479,7 @@
         <v>3572064.25</v>
       </c>
     </row>
-    <row r="431" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="431" spans="1:20" s="4" customFormat="1">
       <c r="A431" s="5" t="s">
         <v>932</v>
       </c>
@@ -32548,7 +32541,7 @@
         <v>22112322</v>
       </c>
     </row>
-    <row r="432" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="432" spans="1:20" s="4" customFormat="1">
       <c r="A432" s="5" t="s">
         <v>934</v>
       </c>
@@ -32608,7 +32601,7 @@
         <v>122657192</v>
       </c>
     </row>
-    <row r="433" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="433" spans="1:20" s="4" customFormat="1">
       <c r="A433" s="5" t="s">
         <v>936</v>
       </c>
@@ -32668,7 +32661,7 @@
         <v>2586699.75</v>
       </c>
     </row>
-    <row r="434" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="434" spans="1:20" s="4" customFormat="1">
       <c r="A434" s="5" t="s">
         <v>937</v>
       </c>
@@ -32730,7 +32723,7 @@
         <v>54632144</v>
       </c>
     </row>
-    <row r="435" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="435" spans="1:20" s="4" customFormat="1">
       <c r="A435" s="5" t="s">
         <v>938</v>
       </c>
@@ -32792,7 +32785,7 @@
         <v>7064035.5</v>
       </c>
     </row>
-    <row r="436" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="436" spans="1:20" s="4" customFormat="1">
       <c r="A436" s="5" t="s">
         <v>939</v>
       </c>
@@ -32854,7 +32847,7 @@
         <v>2396724.5</v>
       </c>
     </row>
-    <row r="437" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="437" spans="1:20" s="4" customFormat="1">
       <c r="A437" s="5" t="s">
         <v>941</v>
       </c>
@@ -32916,7 +32909,7 @@
         <v>4226863.5</v>
       </c>
     </row>
-    <row r="438" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="438" spans="1:20" s="4" customFormat="1">
       <c r="A438" s="5" t="s">
         <v>943</v>
       </c>
@@ -32976,7 +32969,7 @@
         <v>994105600</v>
       </c>
     </row>
-    <row r="439" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="439" spans="1:20" s="4" customFormat="1">
       <c r="A439" s="5" t="s">
         <v>945</v>
       </c>
@@ -33038,7 +33031,7 @@
         <v>3733029.25</v>
       </c>
     </row>
-    <row r="440" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="440" spans="1:20" s="4" customFormat="1">
       <c r="A440" s="5" t="s">
         <v>948</v>
       </c>
@@ -33100,7 +33093,7 @@
         <v>3203837</v>
       </c>
     </row>
-    <row r="441" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="441" spans="1:20" s="4" customFormat="1">
       <c r="A441" s="5" t="s">
         <v>950</v>
       </c>
@@ -33162,7 +33155,7 @@
         <v>10914398</v>
       </c>
     </row>
-    <row r="442" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="442" spans="1:20" s="4" customFormat="1">
       <c r="A442" s="5" t="s">
         <v>952</v>
       </c>
@@ -33222,7 +33215,7 @@
         <v>5074217</v>
       </c>
     </row>
-    <row r="443" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="443" spans="1:20" s="4" customFormat="1">
       <c r="A443" s="5" t="s">
         <v>954</v>
       </c>
@@ -33284,7 +33277,7 @@
         <v>8354821.5</v>
       </c>
     </row>
-    <row r="444" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="444" spans="1:20" s="4" customFormat="1">
       <c r="A444" s="5" t="s">
         <v>956</v>
       </c>
@@ -33344,7 +33337,7 @@
         <v>19777244</v>
       </c>
     </row>
-    <row r="445" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="445" spans="1:20" s="4" customFormat="1">
       <c r="A445" s="5" t="s">
         <v>958</v>
       </c>
@@ -33402,7 +33395,7 @@
         <v>4526206.5</v>
       </c>
     </row>
-    <row r="446" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="446" spans="1:20" s="4" customFormat="1">
       <c r="A446" s="5" t="s">
         <v>960</v>
       </c>
@@ -33462,7 +33455,7 @@
         <v>3874282.75</v>
       </c>
     </row>
-    <row r="447" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="447" spans="1:20" s="4" customFormat="1">
       <c r="A447" s="5" t="s">
         <v>962</v>
       </c>
@@ -33524,7 +33517,7 @@
         <v>11956961</v>
       </c>
     </row>
-    <row r="448" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="448" spans="1:20" s="4" customFormat="1">
       <c r="A448" s="5" t="s">
         <v>963</v>
       </c>
@@ -33586,7 +33579,7 @@
         <v>2685997.25</v>
       </c>
     </row>
-    <row r="449" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="449" spans="1:20" s="4" customFormat="1">
       <c r="A449" s="5" t="s">
         <v>965</v>
       </c>
@@ -33648,7 +33641,7 @@
         <v>5233617.5</v>
       </c>
     </row>
-    <row r="450" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="450" spans="1:20" s="4" customFormat="1">
       <c r="A450" s="5" t="s">
         <v>967</v>
       </c>
@@ -33706,7 +33699,7 @@
         <v>23824718</v>
       </c>
     </row>
-    <row r="451" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="451" spans="1:20" s="4" customFormat="1">
       <c r="A451" s="5" t="s">
         <v>969</v>
       </c>
@@ -33768,7 +33761,7 @@
         <v>5573106.5</v>
       </c>
     </row>
-    <row r="452" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="452" spans="1:20" s="4" customFormat="1">
       <c r="A452" s="5" t="s">
         <v>971</v>
       </c>
@@ -33830,7 +33823,7 @@
         <v>2166281.25</v>
       </c>
     </row>
-    <row r="453" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="453" spans="1:20" s="4" customFormat="1">
       <c r="A453" s="5" t="s">
         <v>974</v>
       </c>
@@ -33890,7 +33883,7 @@
         <v>21873342</v>
       </c>
     </row>
-    <row r="454" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="454" spans="1:20" s="4" customFormat="1">
       <c r="A454" s="5" t="s">
         <v>976</v>
       </c>
@@ -33950,7 +33943,7 @@
         <v>617863424</v>
       </c>
     </row>
-    <row r="455" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="455" spans="1:20" s="4" customFormat="1">
       <c r="A455" s="5" t="s">
         <v>978</v>
       </c>
@@ -34010,7 +34003,7 @@
         <v>76747432</v>
       </c>
     </row>
-    <row r="456" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="456" spans="1:20" s="4" customFormat="1">
       <c r="A456" s="5" t="s">
         <v>980</v>
       </c>
@@ -34070,7 +34063,7 @@
         <v>169010992</v>
       </c>
     </row>
-    <row r="457" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="457" spans="1:20" s="4" customFormat="1">
       <c r="A457" s="5" t="s">
         <v>982</v>
       </c>
@@ -34132,7 +34125,7 @@
         <v>4792941</v>
       </c>
     </row>
-    <row r="458" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="458" spans="1:20" s="4" customFormat="1">
       <c r="A458" s="5" t="s">
         <v>984</v>
       </c>
@@ -34192,7 +34185,7 @@
         <v>7164738</v>
       </c>
     </row>
-    <row r="459" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="459" spans="1:20" s="4" customFormat="1">
       <c r="A459" s="5" t="s">
         <v>986</v>
       </c>
@@ -34254,7 +34247,7 @@
         <v>17635462</v>
       </c>
     </row>
-    <row r="460" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="460" spans="1:20" s="4" customFormat="1">
       <c r="A460" s="5" t="s">
         <v>988</v>
       </c>
@@ -34314,7 +34307,7 @@
         <v>5278063.5</v>
       </c>
     </row>
-    <row r="461" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="461" spans="1:20" s="4" customFormat="1">
       <c r="A461" s="5" t="s">
         <v>990</v>
       </c>
@@ -34376,7 +34369,7 @@
         <v>18257910</v>
       </c>
     </row>
-    <row r="462" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="462" spans="1:20" s="4" customFormat="1">
       <c r="A462" s="5" t="s">
         <v>992</v>
       </c>
@@ -34438,7 +34431,7 @@
         <v>3048258</v>
       </c>
     </row>
-    <row r="463" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="463" spans="1:20" s="4" customFormat="1">
       <c r="A463" s="5" t="s">
         <v>994</v>
       </c>
@@ -34498,7 +34491,7 @@
         <v>38990152</v>
       </c>
     </row>
-    <row r="464" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="464" spans="1:20" s="4" customFormat="1">
       <c r="A464" s="5" t="s">
         <v>996</v>
       </c>
@@ -34560,7 +34553,7 @@
         <v>30837876</v>
       </c>
     </row>
-    <row r="465" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="465" spans="1:20" s="4" customFormat="1">
       <c r="A465" s="5" t="s">
         <v>998</v>
       </c>
@@ -34620,7 +34613,7 @@
         <v>4272533.5</v>
       </c>
     </row>
-    <row r="466" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="466" spans="1:20" s="4" customFormat="1">
       <c r="A466" s="5" t="s">
         <v>1000</v>
       </c>
@@ -34682,7 +34675,7 @@
         <v>10362753</v>
       </c>
     </row>
-    <row r="467" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="467" spans="1:20" s="4" customFormat="1">
       <c r="A467" s="5" t="s">
         <v>1002</v>
       </c>
@@ -34744,7 +34737,7 @@
         <v>17857794</v>
       </c>
     </row>
-    <row r="468" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="468" spans="1:20" s="4" customFormat="1">
       <c r="A468" s="5" t="s">
         <v>1003</v>
       </c>
@@ -34806,7 +34799,7 @@
         <v>2809493</v>
       </c>
     </row>
-    <row r="469" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="469" spans="1:20" s="4" customFormat="1">
       <c r="A469" s="5" t="s">
         <v>1004</v>
       </c>
@@ -34868,7 +34861,7 @@
         <v>2849130</v>
       </c>
     </row>
-    <row r="470" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="470" spans="1:20" s="4" customFormat="1">
       <c r="A470" s="5" t="s">
         <v>1008</v>
       </c>
@@ -34930,7 +34923,7 @@
         <v>53117864</v>
       </c>
     </row>
-    <row r="471" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="471" spans="1:20" s="4" customFormat="1">
       <c r="A471" s="5" t="s">
         <v>1010</v>
       </c>
@@ -34992,7 +34985,7 @@
         <v>8187408.5</v>
       </c>
     </row>
-    <row r="472" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="472" spans="1:20" s="4" customFormat="1">
       <c r="A472" s="5" t="s">
         <v>1011</v>
       </c>
@@ -35052,7 +35045,7 @@
         <v>11096792</v>
       </c>
     </row>
-    <row r="473" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="473" spans="1:20" s="4" customFormat="1">
       <c r="A473" s="5" t="s">
         <v>1013</v>
       </c>
@@ -35112,7 +35105,7 @@
         <v>7025187.5</v>
       </c>
     </row>
-    <row r="474" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="474" spans="1:20" s="4" customFormat="1">
       <c r="A474" s="5" t="s">
         <v>1015</v>
       </c>
@@ -35174,7 +35167,7 @@
         <v>22858266</v>
       </c>
     </row>
-    <row r="475" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="475" spans="1:20" s="4" customFormat="1">
       <c r="A475" s="5" t="s">
         <v>1017</v>
       </c>
@@ -35236,7 +35229,7 @@
         <v>4387077</v>
       </c>
     </row>
-    <row r="476" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="476" spans="1:20" s="4" customFormat="1">
       <c r="A476" s="5" t="s">
         <v>1018</v>
       </c>
@@ -35298,7 +35291,7 @@
         <v>7531382.5</v>
       </c>
     </row>
-    <row r="477" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="477" spans="1:20" s="4" customFormat="1">
       <c r="A477" s="5" t="s">
         <v>1020</v>
       </c>
@@ -35360,7 +35353,7 @@
         <v>56504968</v>
       </c>
     </row>
-    <row r="478" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="478" spans="1:20" s="4" customFormat="1">
       <c r="A478" s="5" t="s">
         <v>1022</v>
       </c>
@@ -35420,7 +35413,7 @@
         <v>2239960.5</v>
       </c>
     </row>
-    <row r="479" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="479" spans="1:20" s="4" customFormat="1">
       <c r="A479" s="5" t="s">
         <v>1024</v>
       </c>
@@ -35482,7 +35475,7 @@
         <v>2806684.5</v>
       </c>
     </row>
-    <row r="480" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="480" spans="1:20" s="4" customFormat="1">
       <c r="A480" s="5" t="s">
         <v>1026</v>
       </c>
@@ -35544,7 +35537,7 @@
         <v>14741549</v>
       </c>
     </row>
-    <row r="481" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="481" spans="1:20" s="4" customFormat="1">
       <c r="A481" s="5" t="s">
         <v>1028</v>
       </c>
@@ -35604,7 +35597,7 @@
         <v>8610521</v>
       </c>
     </row>
-    <row r="482" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="482" spans="1:20" s="4" customFormat="1">
       <c r="A482" s="5" t="s">
         <v>1030</v>
       </c>
@@ -35664,7 +35657,7 @@
         <v>2266916</v>
       </c>
     </row>
-    <row r="483" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="483" spans="1:20" s="4" customFormat="1">
       <c r="A483" s="5" t="s">
         <v>1032</v>
       </c>
@@ -35726,7 +35719,7 @@
         <v>2308440</v>
       </c>
     </row>
-    <row r="484" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="484" spans="1:20" s="4" customFormat="1">
       <c r="A484" s="5" t="s">
         <v>1034</v>
       </c>
@@ -35788,7 +35781,7 @@
         <v>2723070.75</v>
       </c>
     </row>
-    <row r="485" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="485" spans="1:20" s="4" customFormat="1">
       <c r="A485" s="5" t="s">
         <v>1036</v>
       </c>
@@ -35850,7 +35843,7 @@
         <v>23941466</v>
       </c>
     </row>
-    <row r="486" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="486" spans="1:20" s="4" customFormat="1">
       <c r="A486" s="5" t="s">
         <v>1038</v>
       </c>
@@ -35910,7 +35903,7 @@
         <v>27892222</v>
       </c>
     </row>
-    <row r="487" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="487" spans="1:20" s="4" customFormat="1">
       <c r="A487" s="5" t="s">
         <v>1041</v>
       </c>
@@ -35972,7 +35965,7 @@
         <v>174364960</v>
       </c>
     </row>
-    <row r="488" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="488" spans="1:20" s="4" customFormat="1">
       <c r="A488" s="5" t="s">
         <v>1043</v>
       </c>
@@ -36034,7 +36027,7 @@
         <v>2561341</v>
       </c>
     </row>
-    <row r="489" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="489" spans="1:20" s="4" customFormat="1">
       <c r="A489" s="5" t="s">
         <v>1045</v>
       </c>
@@ -36092,7 +36085,7 @@
         <v>43335884</v>
       </c>
     </row>
-    <row r="490" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="490" spans="1:20" s="4" customFormat="1">
       <c r="A490" s="5" t="s">
         <v>1047</v>
       </c>
@@ -36150,7 +36143,7 @@
         <v>18247834</v>
       </c>
     </row>
-    <row r="491" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="491" spans="1:20" s="4" customFormat="1">
       <c r="A491" s="5" t="s">
         <v>1049</v>
       </c>
@@ -36212,7 +36205,7 @@
         <v>2268950</v>
       </c>
     </row>
-    <row r="492" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="492" spans="1:20" s="4" customFormat="1">
       <c r="A492" s="5" t="s">
         <v>1051</v>
       </c>
@@ -36274,7 +36267,7 @@
         <v>14478425</v>
       </c>
     </row>
-    <row r="493" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="493" spans="1:20" s="4" customFormat="1">
       <c r="A493" s="5" t="s">
         <v>1053</v>
       </c>
@@ -36336,7 +36329,7 @@
         <v>19033848</v>
       </c>
     </row>
-    <row r="494" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="494" spans="1:20" s="4" customFormat="1">
       <c r="A494" s="5" t="s">
         <v>1055</v>
       </c>
@@ -36396,7 +36389,7 @@
         <v>7991401.5</v>
       </c>
     </row>
-    <row r="495" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="495" spans="1:20" s="4" customFormat="1">
       <c r="A495" s="5" t="s">
         <v>1057</v>
       </c>
@@ -36456,7 +36449,7 @@
         <v>11759683</v>
       </c>
     </row>
-    <row r="496" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="496" spans="1:20" s="4" customFormat="1">
       <c r="A496" s="5" t="s">
         <v>1059</v>
       </c>
@@ -36518,7 +36511,7 @@
         <v>2936110.75</v>
       </c>
     </row>
-    <row r="497" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="497" spans="1:20" s="4" customFormat="1">
       <c r="A497" s="5" t="s">
         <v>1061</v>
       </c>
@@ -36580,7 +36573,7 @@
         <v>91235640</v>
       </c>
     </row>
-    <row r="498" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="498" spans="1:20" s="4" customFormat="1">
       <c r="A498" s="5" t="s">
         <v>1064</v>
       </c>
@@ -36638,7 +36631,7 @@
         <v>5692525.5</v>
       </c>
     </row>
-    <row r="499" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="499" spans="1:20" s="4" customFormat="1">
       <c r="A499" s="5" t="s">
         <v>1066</v>
       </c>
@@ -36700,7 +36693,7 @@
         <v>2420771</v>
       </c>
     </row>
-    <row r="500" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="500" spans="1:20" s="4" customFormat="1">
       <c r="A500" s="5" t="s">
         <v>1068</v>
       </c>
@@ -36760,7 +36753,7 @@
         <v>18932538</v>
       </c>
     </row>
-    <row r="501" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="501" spans="1:20" s="4" customFormat="1">
       <c r="A501" s="5" t="s">
         <v>1070</v>
       </c>
@@ -36822,7 +36815,7 @@
         <v>4645702.5</v>
       </c>
     </row>
-    <row r="502" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="502" spans="1:20" s="4" customFormat="1">
       <c r="A502" s="5" t="s">
         <v>1071</v>
       </c>
@@ -36880,7 +36873,7 @@
         <v>2343932.25</v>
       </c>
     </row>
-    <row r="503" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="503" spans="1:20" s="4" customFormat="1">
       <c r="A503" s="5" t="s">
         <v>1073</v>
       </c>
@@ -36942,7 +36935,7 @@
         <v>9979749</v>
       </c>
     </row>
-    <row r="504" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="504" spans="1:20" s="4" customFormat="1">
       <c r="A504" s="5" t="s">
         <v>1074</v>
       </c>
@@ -37004,7 +36997,7 @@
         <v>12514536</v>
       </c>
     </row>
-    <row r="505" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="505" spans="1:20" s="4" customFormat="1">
       <c r="A505" s="5" t="s">
         <v>1076</v>
       </c>
@@ -37066,7 +37059,7 @@
         <v>2590923.25</v>
       </c>
     </row>
-    <row r="506" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="506" spans="1:20" s="4" customFormat="1">
       <c r="A506" s="5" t="s">
         <v>1079</v>
       </c>
@@ -37128,7 +37121,7 @@
         <v>6032029</v>
       </c>
     </row>
-    <row r="507" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="507" spans="1:20" s="4" customFormat="1">
       <c r="A507" s="5" t="s">
         <v>1081</v>
       </c>
@@ -37190,7 +37183,7 @@
         <v>7186164</v>
       </c>
     </row>
-    <row r="508" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="508" spans="1:20" s="4" customFormat="1">
       <c r="A508" s="5" t="s">
         <v>1082</v>
       </c>
@@ -37252,7 +37245,7 @@
         <v>4100369.5</v>
       </c>
     </row>
-    <row r="509" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="509" spans="1:20" s="4" customFormat="1">
       <c r="A509" s="5" t="s">
         <v>1084</v>
       </c>
@@ -37314,7 +37307,7 @@
         <v>2536088.5</v>
       </c>
     </row>
-    <row r="510" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="510" spans="1:20" s="4" customFormat="1">
       <c r="A510" s="5" t="s">
         <v>1085</v>
       </c>
@@ -37376,7 +37369,7 @@
         <v>112438384</v>
       </c>
     </row>
-    <row r="511" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="511" spans="1:20" s="4" customFormat="1">
       <c r="A511" s="5" t="s">
         <v>1087</v>
       </c>
@@ -37438,7 +37431,7 @@
         <v>12488367</v>
       </c>
     </row>
-    <row r="512" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="512" spans="1:20" s="4" customFormat="1">
       <c r="A512" s="5" t="s">
         <v>1089</v>
       </c>
@@ -37500,7 +37493,7 @@
         <v>12452887</v>
       </c>
     </row>
-    <row r="513" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="513" spans="1:20" s="4" customFormat="1">
       <c r="A513" s="5" t="s">
         <v>1090</v>
       </c>
@@ -37558,7 +37551,7 @@
         <v>18411988</v>
       </c>
     </row>
-    <row r="514" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="514" spans="1:20" s="4" customFormat="1">
       <c r="A514" s="5" t="s">
         <v>1092</v>
       </c>
@@ -37620,7 +37613,7 @@
         <v>7198276</v>
       </c>
     </row>
-    <row r="515" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="515" spans="1:20" s="4" customFormat="1">
       <c r="A515" s="5" t="s">
         <v>1094</v>
       </c>
@@ -37680,7 +37673,7 @@
         <v>2620585.25</v>
       </c>
     </row>
-    <row r="516" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="516" spans="1:20" s="4" customFormat="1">
       <c r="A516" s="5" t="s">
         <v>1095</v>
       </c>
@@ -37740,7 +37733,7 @@
         <v>10270628</v>
       </c>
     </row>
-    <row r="517" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="517" spans="1:20" s="4" customFormat="1">
       <c r="A517" s="5" t="s">
         <v>1097</v>
       </c>
@@ -37800,7 +37793,7 @@
         <v>4279271.5</v>
       </c>
     </row>
-    <row r="518" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="518" spans="1:20" s="4" customFormat="1">
       <c r="A518" s="5" t="s">
         <v>1099</v>
       </c>
@@ -37862,7 +37855,7 @@
         <v>2941300.5</v>
       </c>
     </row>
-    <row r="519" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="519" spans="1:20" s="4" customFormat="1">
       <c r="A519" s="5" t="s">
         <v>1101</v>
       </c>
@@ -37922,7 +37915,7 @@
         <v>4604933</v>
       </c>
     </row>
-    <row r="520" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="520" spans="1:20" s="4" customFormat="1">
       <c r="A520" s="5" t="s">
         <v>1102</v>
       </c>
@@ -37978,7 +37971,7 @@
         <v>32603488</v>
       </c>
     </row>
-    <row r="521" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="521" spans="1:20" s="4" customFormat="1">
       <c r="A521" s="5" t="s">
         <v>1104</v>
       </c>
@@ -38038,7 +38031,7 @@
         <v>2079824.375</v>
       </c>
     </row>
-    <row r="522" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="522" spans="1:20" s="4" customFormat="1">
       <c r="A522" s="5" t="s">
         <v>1106</v>
       </c>
@@ -38098,7 +38091,7 @@
         <v>135482688</v>
       </c>
     </row>
-    <row r="523" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="523" spans="1:20" s="4" customFormat="1">
       <c r="A523" s="5" t="s">
         <v>1108</v>
       </c>
@@ -38160,7 +38153,7 @@
         <v>11131852</v>
       </c>
     </row>
-    <row r="524" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="524" spans="1:20" s="4" customFormat="1">
       <c r="A524" s="5" t="s">
         <v>1110</v>
       </c>
@@ -38222,7 +38215,7 @@
         <v>6704569.5</v>
       </c>
     </row>
-    <row r="525" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="525" spans="1:20" s="4" customFormat="1">
       <c r="A525" s="5" t="s">
         <v>1112</v>
       </c>
@@ -38282,7 +38275,7 @@
         <v>4965170.5</v>
       </c>
     </row>
-    <row r="526" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="526" spans="1:20" s="4" customFormat="1">
       <c r="A526" s="5" t="s">
         <v>1114</v>
       </c>
@@ -38342,7 +38335,7 @@
         <v>4935005</v>
       </c>
     </row>
-    <row r="527" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="527" spans="1:20" s="4" customFormat="1">
       <c r="A527" s="5" t="s">
         <v>1116</v>
       </c>
@@ -38402,7 +38395,7 @@
         <v>6146306</v>
       </c>
     </row>
-    <row r="528" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="528" spans="1:20" s="4" customFormat="1">
       <c r="A528" s="5" t="s">
         <v>1118</v>
       </c>
@@ -38460,7 +38453,7 @@
         <v>9332023</v>
       </c>
     </row>
-    <row r="529" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="529" spans="1:20" s="4" customFormat="1">
       <c r="A529" s="5" t="s">
         <v>1121</v>
       </c>
@@ -38522,7 +38515,7 @@
         <v>26942976</v>
       </c>
     </row>
-    <row r="530" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="530" spans="1:20" s="4" customFormat="1">
       <c r="A530" s="5" t="s">
         <v>1122</v>
       </c>
@@ -38582,7 +38575,7 @@
         <v>6128685.5</v>
       </c>
     </row>
-    <row r="531" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="531" spans="1:20" s="4" customFormat="1">
       <c r="A531" s="5" t="s">
         <v>1124</v>
       </c>
@@ -38642,7 +38635,7 @@
         <v>9617996</v>
       </c>
     </row>
-    <row r="532" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="532" spans="1:20" s="4" customFormat="1">
       <c r="A532" s="5" t="s">
         <v>1126</v>
       </c>
@@ -38704,7 +38697,7 @@
         <v>2650655.5</v>
       </c>
     </row>
-    <row r="533" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="533" spans="1:20" s="4" customFormat="1">
       <c r="A533" s="5" t="s">
         <v>1128</v>
       </c>
@@ -38766,7 +38759,7 @@
         <v>5353637.5</v>
       </c>
     </row>
-    <row r="534" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="534" spans="1:20" s="4" customFormat="1">
       <c r="A534" s="5" t="s">
         <v>1130</v>
       </c>
@@ -38828,7 +38821,7 @@
         <v>4488537</v>
       </c>
     </row>
-    <row r="535" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="535" spans="1:20" s="4" customFormat="1">
       <c r="A535" s="5" t="s">
         <v>1132</v>
       </c>
@@ -38888,7 +38881,7 @@
         <v>140345936</v>
       </c>
     </row>
-    <row r="536" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="536" spans="1:20" s="4" customFormat="1">
       <c r="A536" s="5" t="s">
         <v>1134</v>
       </c>
@@ -38948,7 +38941,7 @@
         <v>7102207</v>
       </c>
     </row>
-    <row r="537" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="537" spans="1:20" s="4" customFormat="1">
       <c r="A537" s="5" t="s">
         <v>1139</v>
       </c>
@@ -39010,7 +39003,7 @@
         <v>15045652</v>
       </c>
     </row>
-    <row r="538" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="538" spans="1:20" s="4" customFormat="1">
       <c r="A538" s="5" t="s">
         <v>1140</v>
       </c>
@@ -39070,7 +39063,7 @@
         <v>3236148</v>
       </c>
     </row>
-    <row r="539" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="539" spans="1:20" s="4" customFormat="1">
       <c r="A539" s="5" t="s">
         <v>1142</v>
       </c>
@@ -39132,7 +39125,7 @@
         <v>4011522.5</v>
       </c>
     </row>
-    <row r="540" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="540" spans="1:20" s="4" customFormat="1">
       <c r="A540" s="5" t="s">
         <v>1143</v>
       </c>
@@ -39194,7 +39187,7 @@
         <v>4026197.75</v>
       </c>
     </row>
-    <row r="541" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="541" spans="1:20" s="4" customFormat="1">
       <c r="A541" s="5" t="s">
         <v>1145</v>
       </c>
@@ -39256,7 +39249,7 @@
         <v>5010627</v>
       </c>
     </row>
-    <row r="542" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="542" spans="1:20" s="4" customFormat="1">
       <c r="A542" s="5" t="s">
         <v>1147</v>
       </c>
@@ -39316,7 +39309,7 @@
         <v>2490529.5</v>
       </c>
     </row>
-    <row r="543" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="543" spans="1:20" s="4" customFormat="1">
       <c r="A543" s="5" t="s">
         <v>1149</v>
       </c>
@@ -39378,7 +39371,7 @@
         <v>24402038</v>
       </c>
     </row>
-    <row r="544" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="544" spans="1:20" s="4" customFormat="1">
       <c r="A544" s="5" t="s">
         <v>1151</v>
       </c>
@@ -39440,7 +39433,7 @@
         <v>13330900</v>
       </c>
     </row>
-    <row r="545" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="545" spans="1:20" s="4" customFormat="1">
       <c r="A545" s="5" t="s">
         <v>1152</v>
       </c>
@@ -39502,7 +39495,7 @@
         <v>6778246</v>
       </c>
     </row>
-    <row r="546" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="546" spans="1:20" s="4" customFormat="1">
       <c r="A546" s="5" t="s">
         <v>1153</v>
       </c>
@@ -39564,7 +39557,7 @@
         <v>3044065.25</v>
       </c>
     </row>
-    <row r="547" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="547" spans="1:20" s="4" customFormat="1">
       <c r="A547" s="5" t="s">
         <v>1154</v>
       </c>
@@ -39626,7 +39619,7 @@
         <v>12246206</v>
       </c>
     </row>
-    <row r="548" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="548" spans="1:20" s="4" customFormat="1">
       <c r="A548" s="5" t="s">
         <v>1155</v>
       </c>
@@ -39686,7 +39679,7 @@
         <v>2736331.25</v>
       </c>
     </row>
-    <row r="549" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="549" spans="1:20" s="4" customFormat="1">
       <c r="A549" s="5" t="s">
         <v>1157</v>
       </c>
@@ -39748,7 +39741,7 @@
         <v>5840974</v>
       </c>
     </row>
-    <row r="550" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="550" spans="1:20" s="4" customFormat="1">
       <c r="A550" s="5" t="s">
         <v>1158</v>
       </c>
@@ -39808,7 +39801,7 @@
         <v>7874623</v>
       </c>
     </row>
-    <row r="551" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="551" spans="1:20" s="4" customFormat="1">
       <c r="A551" s="5" t="s">
         <v>1160</v>
       </c>
@@ -39870,7 +39863,7 @@
         <v>6829451</v>
       </c>
     </row>
-    <row r="552" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="552" spans="1:20" s="4" customFormat="1">
       <c r="A552" s="5" t="s">
         <v>1162</v>
       </c>
@@ -39930,7 +39923,7 @@
         <v>6427999</v>
       </c>
     </row>
-    <row r="553" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="553" spans="1:20" s="4" customFormat="1">
       <c r="A553" s="5" t="s">
         <v>1164</v>
       </c>
@@ -39988,7 +39981,7 @@
         <v>7557758</v>
       </c>
     </row>
-    <row r="554" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="554" spans="1:20" s="4" customFormat="1">
       <c r="A554" s="5" t="s">
         <v>1166</v>
       </c>
@@ -40048,7 +40041,7 @@
         <v>12945615</v>
       </c>
     </row>
-    <row r="555" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="555" spans="1:20" s="4" customFormat="1">
       <c r="A555" s="5" t="s">
         <v>1168</v>
       </c>
@@ -40110,7 +40103,7 @@
         <v>4990081</v>
       </c>
     </row>
-    <row r="556" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="556" spans="1:20" s="4" customFormat="1">
       <c r="A556" s="5" t="s">
         <v>1172</v>
       </c>
@@ -40166,7 +40159,7 @@
         <v>39314036</v>
       </c>
     </row>
-    <row r="557" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="557" spans="1:20" s="4" customFormat="1">
       <c r="A557" s="5" t="s">
         <v>1174</v>
       </c>
@@ -40226,7 +40219,7 @@
         <v>58452364</v>
       </c>
     </row>
-    <row r="558" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="558" spans="1:20" s="4" customFormat="1">
       <c r="A558" s="5" t="s">
         <v>1176</v>
       </c>
@@ -40286,7 +40279,7 @@
         <v>2513382.5</v>
       </c>
     </row>
-    <row r="559" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="559" spans="1:20" s="4" customFormat="1">
       <c r="A559" s="5" t="s">
         <v>1178</v>
       </c>
@@ -40348,7 +40341,7 @@
         <v>5336700.5</v>
       </c>
     </row>
-    <row r="560" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="560" spans="1:20" s="4" customFormat="1">
       <c r="A560" s="5" t="s">
         <v>1179</v>
       </c>
@@ -40408,7 +40401,7 @@
         <v>12688912</v>
       </c>
     </row>
-    <row r="561" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="561" spans="1:20" s="4" customFormat="1">
       <c r="A561" s="5" t="s">
         <v>1181</v>
       </c>
@@ -40466,7 +40459,7 @@
         <v>17828120</v>
       </c>
     </row>
-    <row r="562" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="562" spans="1:20" s="4" customFormat="1">
       <c r="A562" s="5" t="s">
         <v>1183</v>
       </c>
@@ -40524,7 +40517,7 @@
         <v>2955365.75</v>
       </c>
     </row>
-    <row r="563" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="563" spans="1:20" s="4" customFormat="1">
       <c r="A563" s="5" t="s">
         <v>1185</v>
       </c>
@@ -40586,7 +40579,7 @@
         <v>17872360</v>
       </c>
     </row>
-    <row r="564" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="564" spans="1:20" s="4" customFormat="1">
       <c r="A564" s="5" t="s">
         <v>1187</v>
       </c>
@@ -40648,7 +40641,7 @@
         <v>8864339</v>
       </c>
     </row>
-    <row r="565" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="565" spans="1:20" s="4" customFormat="1">
       <c r="A565" s="5" t="s">
         <v>1188</v>
       </c>
@@ -40710,7 +40703,7 @@
         <v>6321399</v>
       </c>
     </row>
-    <row r="566" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="566" spans="1:20" s="4" customFormat="1">
       <c r="A566" s="5" t="s">
         <v>1189</v>
       </c>
@@ -40770,7 +40763,7 @@
         <v>103813440</v>
       </c>
     </row>
-    <row r="567" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="567" spans="1:20" s="4" customFormat="1">
       <c r="A567" s="5" t="s">
         <v>1191</v>
       </c>
@@ -40832,7 +40825,7 @@
         <v>3360669</v>
       </c>
     </row>
-    <row r="568" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="568" spans="1:20" s="4" customFormat="1">
       <c r="A568" s="5" t="s">
         <v>1193</v>
       </c>
@@ -40894,7 +40887,7 @@
         <v>6737609</v>
       </c>
     </row>
-    <row r="569" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="569" spans="1:20" s="4" customFormat="1">
       <c r="A569" s="5" t="s">
         <v>1195</v>
       </c>
@@ -40956,7 +40949,7 @@
         <v>9441288</v>
       </c>
     </row>
-    <row r="570" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="570" spans="1:20" s="4" customFormat="1">
       <c r="A570" s="5" t="s">
         <v>1197</v>
       </c>
@@ -41018,7 +41011,7 @@
         <v>4861103</v>
       </c>
     </row>
-    <row r="571" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="571" spans="1:20" s="4" customFormat="1">
       <c r="A571" s="5" t="s">
         <v>1199</v>
       </c>
@@ -41078,7 +41071,7 @@
         <v>3352398.25</v>
       </c>
     </row>
-    <row r="572" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="572" spans="1:20" s="4" customFormat="1">
       <c r="A572" s="5" t="s">
         <v>1201</v>
       </c>
@@ -41140,7 +41133,7 @@
         <v>7009790</v>
       </c>
     </row>
-    <row r="573" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="573" spans="1:20" s="4" customFormat="1">
       <c r="A573" s="5" t="s">
         <v>1203</v>
       </c>
@@ -41202,7 +41195,7 @@
         <v>4061051.75</v>
       </c>
     </row>
-    <row r="574" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="574" spans="1:20" s="4" customFormat="1">
       <c r="A574" s="5" t="s">
         <v>1205</v>
       </c>
@@ -41264,7 +41257,7 @@
         <v>8656558</v>
       </c>
     </row>
-    <row r="575" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="575" spans="1:20" s="4" customFormat="1">
       <c r="A575" s="5" t="s">
         <v>1206</v>
       </c>
@@ -41326,7 +41319,7 @@
         <v>26741378</v>
       </c>
     </row>
-    <row r="576" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="576" spans="1:20" s="4" customFormat="1">
       <c r="A576" s="5" t="s">
         <v>1207</v>
       </c>
@@ -41388,7 +41381,7 @@
         <v>4701572.5</v>
       </c>
     </row>
-    <row r="577" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="577" spans="1:20" s="4" customFormat="1">
       <c r="A577" s="5" t="s">
         <v>1209</v>
       </c>
@@ -41450,7 +41443,7 @@
         <v>4311606</v>
       </c>
     </row>
-    <row r="578" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="578" spans="1:20" s="4" customFormat="1">
       <c r="A578" s="5" t="s">
         <v>1210</v>
       </c>
@@ -41512,7 +41505,7 @@
         <v>4773492</v>
       </c>
     </row>
-    <row r="579" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="579" spans="1:20" s="4" customFormat="1">
       <c r="A579" s="5" t="s">
         <v>1212</v>
       </c>
@@ -41574,7 +41567,7 @@
         <v>165019920</v>
       </c>
     </row>
-    <row r="580" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="580" spans="1:20" s="4" customFormat="1">
       <c r="A580" s="5" t="s">
         <v>1214</v>
       </c>
@@ -41636,7 +41629,7 @@
         <v>2101960.25</v>
       </c>
     </row>
-    <row r="581" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="581" spans="1:20" s="4" customFormat="1">
       <c r="A581" s="5" t="s">
         <v>1216</v>
       </c>
@@ -41698,7 +41691,7 @@
         <v>10387457</v>
       </c>
     </row>
-    <row r="582" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="582" spans="1:20" s="4" customFormat="1">
       <c r="A582" s="5" t="s">
         <v>1218</v>
       </c>
@@ -41760,7 +41753,7 @@
         <v>5759204.5</v>
       </c>
     </row>
-    <row r="583" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="583" spans="1:20" s="4" customFormat="1">
       <c r="A583" s="5" t="s">
         <v>1219</v>
       </c>
@@ -41822,7 +41815,7 @@
         <v>5148449.5</v>
       </c>
     </row>
-    <row r="584" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="584" spans="1:20" s="4" customFormat="1">
       <c r="A584" s="5" t="s">
         <v>1221</v>
       </c>
@@ -41884,7 +41877,7 @@
         <v>3136901.75</v>
       </c>
     </row>
-    <row r="585" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="585" spans="1:20" s="4" customFormat="1">
       <c r="A585" s="5" t="s">
         <v>1223</v>
       </c>
@@ -41946,7 +41939,7 @@
         <v>4547494</v>
       </c>
     </row>
-    <row r="586" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="586" spans="1:20" s="4" customFormat="1">
       <c r="A586" s="5" t="s">
         <v>1225</v>
       </c>
@@ -42008,7 +42001,7 @@
         <v>4533651.5</v>
       </c>
     </row>
-    <row r="587" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="587" spans="1:20" s="4" customFormat="1">
       <c r="A587" s="5" t="s">
         <v>1227</v>
       </c>
@@ -42070,7 +42063,7 @@
         <v>6522290.5</v>
       </c>
     </row>
-    <row r="588" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="588" spans="1:20" s="4" customFormat="1">
       <c r="A588" s="5" t="s">
         <v>1228</v>
       </c>
@@ -42132,7 +42125,7 @@
         <v>4418458</v>
       </c>
     </row>
-    <row r="589" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="589" spans="1:20" s="4" customFormat="1">
       <c r="A589" s="5" t="s">
         <v>1229</v>
       </c>
@@ -42194,7 +42187,7 @@
         <v>4480079</v>
       </c>
     </row>
-    <row r="590" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="590" spans="1:20" s="4" customFormat="1">
       <c r="A590" s="5" t="s">
         <v>1231</v>
       </c>
@@ -42256,7 +42249,7 @@
         <v>6589158</v>
       </c>
     </row>
-    <row r="591" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="591" spans="1:20" s="4" customFormat="1">
       <c r="A591" s="5" t="s">
         <v>1233</v>
       </c>
@@ -42318,7 +42311,7 @@
         <v>16310403</v>
       </c>
     </row>
-    <row r="592" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="592" spans="1:20" s="4" customFormat="1">
       <c r="A592" s="5" t="s">
         <v>1235</v>
       </c>
@@ -42380,7 +42373,7 @@
         <v>4747918.5</v>
       </c>
     </row>
-    <row r="593" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="593" spans="1:20" s="4" customFormat="1">
       <c r="A593" s="5" t="s">
         <v>1236</v>
       </c>
@@ -42442,7 +42435,7 @@
         <v>3631945.25</v>
       </c>
     </row>
-    <row r="594" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="594" spans="1:20" s="4" customFormat="1">
       <c r="A594" s="5" t="s">
         <v>1237</v>
       </c>
@@ -42504,7 +42497,7 @@
         <v>3698626.5</v>
       </c>
     </row>
-    <row r="595" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="595" spans="1:20" s="4" customFormat="1">
       <c r="A595" s="5" t="s">
         <v>1239</v>
       </c>
@@ -42566,7 +42559,7 @@
         <v>3702046.5</v>
       </c>
     </row>
-    <row r="596" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="596" spans="1:20" s="4" customFormat="1">
       <c r="A596" s="5" t="s">
         <v>1240</v>
       </c>
@@ -42628,7 +42621,7 @@
         <v>4507108</v>
       </c>
     </row>
-    <row r="597" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="597" spans="1:20" s="4" customFormat="1">
       <c r="A597" s="5" t="s">
         <v>1242</v>
       </c>
@@ -42690,7 +42683,7 @@
         <v>22123560</v>
       </c>
     </row>
-    <row r="598" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="598" spans="1:20" s="4" customFormat="1">
       <c r="A598" s="5" t="s">
         <v>1244</v>
       </c>
@@ -42752,7 +42745,7 @@
         <v>9088796</v>
       </c>
     </row>
-    <row r="599" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="599" spans="1:20" s="4" customFormat="1">
       <c r="A599" s="5" t="s">
         <v>1246</v>
       </c>
@@ -42812,7 +42805,7 @@
         <v>7561101.5</v>
       </c>
     </row>
-    <row r="600" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="600" spans="1:20" s="4" customFormat="1">
       <c r="A600" s="5" t="s">
         <v>1248</v>
       </c>
@@ -42874,7 +42867,7 @@
         <v>5502274.5</v>
       </c>
     </row>
-    <row r="601" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="601" spans="1:20" s="4" customFormat="1">
       <c r="A601" s="5" t="s">
         <v>1250</v>
       </c>
@@ -42936,7 +42929,7 @@
         <v>2611844.75</v>
       </c>
     </row>
-    <row r="602" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="602" spans="1:20" s="4" customFormat="1">
       <c r="A602" s="5" t="s">
         <v>1252</v>
       </c>
@@ -42996,7 +42989,7 @@
         <v>19725236</v>
       </c>
     </row>
-    <row r="603" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="603" spans="1:20" s="4" customFormat="1">
       <c r="A603" s="5" t="s">
         <v>1254</v>
       </c>
@@ -43058,7 +43051,7 @@
         <v>5141167.5</v>
       </c>
     </row>
-    <row r="604" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="604" spans="1:20" s="4" customFormat="1">
       <c r="A604" s="5" t="s">
         <v>1256</v>
       </c>
@@ -43120,7 +43113,7 @@
         <v>4680865</v>
       </c>
     </row>
-    <row r="605" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="605" spans="1:20" s="4" customFormat="1">
       <c r="A605" s="5" t="s">
         <v>1258</v>
       </c>
@@ -43182,7 +43175,7 @@
         <v>4857497.5</v>
       </c>
     </row>
-    <row r="606" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="606" spans="1:20" s="4" customFormat="1">
       <c r="A606" s="5" t="s">
         <v>1260</v>
       </c>
@@ -43242,7 +43235,7 @@
         <v>2720828.25</v>
       </c>
     </row>
-    <row r="607" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="607" spans="1:20" s="4" customFormat="1">
       <c r="A607" s="5" t="s">
         <v>1262</v>
       </c>
@@ -43304,7 +43297,7 @@
         <v>19059220</v>
       </c>
     </row>
-    <row r="608" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="608" spans="1:20" s="4" customFormat="1">
       <c r="A608" s="5" t="s">
         <v>1264</v>
       </c>
@@ -43366,7 +43359,7 @@
         <v>9828929</v>
       </c>
     </row>
-    <row r="609" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="609" spans="1:20" s="4" customFormat="1">
       <c r="A609" s="5" t="s">
         <v>1266</v>
       </c>
@@ -43426,7 +43419,7 @@
         <v>7359753</v>
       </c>
     </row>
-    <row r="610" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="610" spans="1:20" s="4" customFormat="1">
       <c r="A610" s="5" t="s">
         <v>1268</v>
       </c>
@@ -43488,7 +43481,7 @@
         <v>5968900</v>
       </c>
     </row>
-    <row r="611" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="611" spans="1:20" s="4" customFormat="1">
       <c r="A611" s="5" t="s">
         <v>1270</v>
       </c>
@@ -43550,7 +43543,7 @@
         <v>7646653.5</v>
       </c>
     </row>
-    <row r="612" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="612" spans="1:20" s="4" customFormat="1">
       <c r="A612" s="5" t="s">
         <v>1272</v>
       </c>
@@ -43608,7 +43601,7 @@
         <v>15364654</v>
       </c>
     </row>
-    <row r="613" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="613" spans="1:20" s="4" customFormat="1">
       <c r="A613" s="5" t="s">
         <v>1274</v>
       </c>
@@ -43670,7 +43663,7 @@
         <v>3642998.5</v>
       </c>
     </row>
-    <row r="614" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="614" spans="1:20" s="4" customFormat="1">
       <c r="A614" s="5" t="s">
         <v>1275</v>
       </c>
@@ -43732,7 +43725,7 @@
         <v>5625232</v>
       </c>
     </row>
-    <row r="615" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="615" spans="1:20" s="4" customFormat="1">
       <c r="A615" s="5" t="s">
         <v>1277</v>
       </c>
@@ -43794,7 +43787,7 @@
         <v>7175721.5</v>
       </c>
     </row>
-    <row r="616" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="616" spans="1:20" s="4" customFormat="1">
       <c r="A616" s="5" t="s">
         <v>1279</v>
       </c>
@@ -43856,7 +43849,7 @@
         <v>4794630</v>
       </c>
     </row>
-    <row r="617" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="617" spans="1:20" s="4" customFormat="1">
       <c r="A617" s="5" t="s">
         <v>1280</v>
       </c>
@@ -43918,7 +43911,7 @@
         <v>7655969</v>
       </c>
     </row>
-    <row r="618" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="618" spans="1:20" s="4" customFormat="1">
       <c r="A618" s="5" t="s">
         <v>1282</v>
       </c>
@@ -43976,7 +43969,7 @@
         <v>5566908</v>
       </c>
     </row>
-    <row r="619" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="619" spans="1:20" s="4" customFormat="1">
       <c r="A619" s="5" t="s">
         <v>1284</v>
       </c>
@@ -44038,7 +44031,7 @@
         <v>2553158.25</v>
       </c>
     </row>
-    <row r="620" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="620" spans="1:20" s="4" customFormat="1">
       <c r="A620" s="5" t="s">
         <v>1286</v>
       </c>
@@ -44098,7 +44091,7 @@
         <v>14731261</v>
       </c>
     </row>
-    <row r="621" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="621" spans="1:20" s="4" customFormat="1">
       <c r="A621" s="5" t="s">
         <v>1287</v>
       </c>
@@ -44160,7 +44153,7 @@
         <v>13690208</v>
       </c>
     </row>
-    <row r="622" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="622" spans="1:20" s="4" customFormat="1">
       <c r="A622" s="5" t="s">
         <v>1289</v>
       </c>
@@ -44222,7 +44215,7 @@
         <v>2423901.25</v>
       </c>
     </row>
-    <row r="623" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="623" spans="1:20" s="4" customFormat="1">
       <c r="A623" s="5" t="s">
         <v>1290</v>
       </c>
@@ -44284,7 +44277,7 @@
         <v>5559022</v>
       </c>
     </row>
-    <row r="624" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="624" spans="1:20" s="4" customFormat="1">
       <c r="A624" s="5" t="s">
         <v>1292</v>
       </c>
@@ -44346,7 +44339,7 @@
         <v>4306509</v>
       </c>
     </row>
-    <row r="625" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="625" spans="1:20" s="4" customFormat="1">
       <c r="A625" s="5" t="s">
         <v>1294</v>
       </c>
@@ -44406,7 +44399,7 @@
         <v>4073087</v>
       </c>
     </row>
-    <row r="626" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="626" spans="1:20" s="4" customFormat="1">
       <c r="A626" s="5" t="s">
         <v>1296</v>
       </c>
@@ -44468,7 +44461,7 @@
         <v>5753009</v>
       </c>
     </row>
-    <row r="627" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="627" spans="1:20" s="4" customFormat="1">
       <c r="A627" s="5" t="s">
         <v>1298</v>
       </c>
@@ -44530,7 +44523,7 @@
         <v>9072626</v>
       </c>
     </row>
-    <row r="628" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="628" spans="1:20" s="4" customFormat="1">
       <c r="A628" s="5" t="s">
         <v>1300</v>
       </c>
@@ -44592,7 +44585,7 @@
         <v>11050403</v>
       </c>
     </row>
-    <row r="629" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="629" spans="1:20" s="4" customFormat="1">
       <c r="A629" s="5" t="s">
         <v>1302</v>
       </c>
@@ -44654,7 +44647,7 @@
         <v>3008039.25</v>
       </c>
     </row>
-    <row r="630" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="630" spans="1:20" s="4" customFormat="1">
       <c r="A630" s="5" t="s">
         <v>1305</v>
       </c>
@@ -44716,7 +44709,7 @@
         <v>24515096</v>
       </c>
     </row>
-    <row r="631" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="631" spans="1:20" s="4" customFormat="1">
       <c r="A631" s="5" t="s">
         <v>1307</v>
       </c>
@@ -44776,7 +44769,7 @@
         <v>5911990.5</v>
       </c>
     </row>
-    <row r="632" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="632" spans="1:20" s="4" customFormat="1">
       <c r="A632" s="5" t="s">
         <v>1309</v>
       </c>
@@ -44838,7 +44831,7 @@
         <v>9876677</v>
       </c>
     </row>
-    <row r="633" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="633" spans="1:20" s="4" customFormat="1">
       <c r="A633" s="5" t="s">
         <v>1311</v>
       </c>
@@ -44896,7 +44889,7 @@
         <v>6958454.5</v>
       </c>
     </row>
-    <row r="634" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="634" spans="1:20" s="4" customFormat="1">
       <c r="A634" s="5" t="s">
         <v>1313</v>
       </c>
@@ -44958,7 +44951,7 @@
         <v>6464957.5</v>
       </c>
     </row>
-    <row r="635" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="635" spans="1:20" s="4" customFormat="1">
       <c r="A635" s="5" t="s">
         <v>1314</v>
       </c>
@@ -45020,7 +45013,7 @@
         <v>29303660</v>
       </c>
     </row>
-    <row r="636" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="636" spans="1:20" s="4" customFormat="1">
       <c r="A636" s="5" t="s">
         <v>1316</v>
       </c>
@@ -45082,7 +45075,7 @@
         <v>5662567</v>
       </c>
     </row>
-    <row r="637" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="637" spans="1:20" s="4" customFormat="1">
       <c r="A637" s="5" t="s">
         <v>1318</v>
       </c>
@@ -45142,7 +45135,7 @@
         <v>7512610</v>
       </c>
     </row>
-    <row r="638" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="638" spans="1:20" s="4" customFormat="1">
       <c r="A638" s="5" t="s">
         <v>1320</v>
       </c>
@@ -45204,7 +45197,7 @@
         <v>4677928.5</v>
       </c>
     </row>
-    <row r="639" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="639" spans="1:20" s="4" customFormat="1">
       <c r="A639" s="5" t="s">
         <v>1322</v>
       </c>
@@ -45266,7 +45259,7 @@
         <v>4671999.5</v>
       </c>
     </row>
-    <row r="640" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="640" spans="1:20" s="4" customFormat="1">
       <c r="A640" s="5" t="s">
         <v>1324</v>
       </c>
@@ -45326,7 +45319,7 @@
         <v>2913717.25</v>
       </c>
     </row>
-    <row r="641" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="641" spans="1:20" s="4" customFormat="1">
       <c r="A641" s="5" t="s">
         <v>1326</v>
       </c>
@@ -45388,7 +45381,7 @@
         <v>2165991.25</v>
       </c>
     </row>
-    <row r="642" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="642" spans="1:20" s="4" customFormat="1">
       <c r="A642" s="5" t="s">
         <v>1328</v>
       </c>
@@ -45450,7 +45443,7 @@
         <v>5260726</v>
       </c>
     </row>
-    <row r="643" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="643" spans="1:20" s="4" customFormat="1">
       <c r="A643" s="5" t="s">
         <v>1330</v>
       </c>
@@ -45512,7 +45505,7 @@
         <v>5784780</v>
       </c>
     </row>
-    <row r="644" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="644" spans="1:20" s="4" customFormat="1">
       <c r="A644" s="5" t="s">
         <v>1332</v>
       </c>
@@ -45574,7 +45567,7 @@
         <v>2338328.75</v>
       </c>
     </row>
-    <row r="645" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="645" spans="1:20" s="4" customFormat="1">
       <c r="A645" s="5" t="s">
         <v>1333</v>
       </c>
@@ -45636,7 +45629,7 @@
         <v>16845654</v>
       </c>
     </row>
-    <row r="646" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="646" spans="1:20" s="4" customFormat="1">
       <c r="A646" s="5" t="s">
         <v>1336</v>
       </c>
@@ -45698,7 +45691,7 @@
         <v>3387623.5</v>
       </c>
     </row>
-    <row r="647" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="647" spans="1:20" s="4" customFormat="1">
       <c r="A647" s="5" t="s">
         <v>1337</v>
       </c>
@@ -45760,7 +45753,7 @@
         <v>9365155</v>
       </c>
     </row>
-    <row r="648" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="648" spans="1:20" s="4" customFormat="1">
       <c r="A648" s="5" t="s">
         <v>1339</v>
       </c>
@@ -45822,7 +45815,7 @@
         <v>6235063</v>
       </c>
     </row>
-    <row r="649" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="649" spans="1:20" s="4" customFormat="1">
       <c r="A649" s="5" t="s">
         <v>1341</v>
       </c>
@@ -45882,7 +45875,7 @@
         <v>54865488</v>
       </c>
     </row>
-    <row r="650" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="650" spans="1:20" s="4" customFormat="1">
       <c r="A650" s="5" t="s">
         <v>1343</v>
       </c>
@@ -45944,7 +45937,7 @@
         <v>3001176.25</v>
       </c>
     </row>
-    <row r="651" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="651" spans="1:20" s="4" customFormat="1">
       <c r="A651" s="5" t="s">
         <v>1345</v>
       </c>
@@ -46002,7 +45995,7 @@
         <v>69090912</v>
       </c>
     </row>
-    <row r="652" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="652" spans="1:20" s="4" customFormat="1">
       <c r="A652" s="5" t="s">
         <v>1347</v>
       </c>
@@ -46062,7 +46055,7 @@
         <v>3949682.75</v>
       </c>
     </row>
-    <row r="653" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="653" spans="1:20" s="4" customFormat="1">
       <c r="A653" s="5" t="s">
         <v>1349</v>
       </c>
@@ -46124,7 +46117,7 @@
         <v>15591690</v>
       </c>
     </row>
-    <row r="654" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="654" spans="1:20" s="4" customFormat="1">
       <c r="A654" s="5" t="s">
         <v>1351</v>
       </c>
@@ -46184,7 +46177,7 @@
         <v>2500551.75</v>
       </c>
     </row>
-    <row r="655" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="655" spans="1:20" s="4" customFormat="1">
       <c r="A655" s="5" t="s">
         <v>1353</v>
       </c>
@@ -46244,7 +46237,7 @@
         <v>5380732.5</v>
       </c>
     </row>
-    <row r="656" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="656" spans="1:20" s="4" customFormat="1">
       <c r="A656" s="5" t="s">
         <v>1355</v>
       </c>
@@ -46304,7 +46297,7 @@
         <v>5238231.5</v>
       </c>
     </row>
-    <row r="657" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="657" spans="1:20" s="4" customFormat="1">
       <c r="A657" s="5" t="s">
         <v>1357</v>
       </c>
@@ -46364,7 +46357,7 @@
         <v>5498073.5</v>
       </c>
     </row>
-    <row r="658" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="658" spans="1:20" s="4" customFormat="1">
       <c r="A658" s="5" t="s">
         <v>1359</v>
       </c>
@@ -46424,7 +46417,7 @@
         <v>132230432</v>
       </c>
     </row>
-    <row r="659" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="659" spans="1:20" s="4" customFormat="1">
       <c r="A659" s="5" t="s">
         <v>1360</v>
       </c>
@@ -46486,7 +46479,7 @@
         <v>10192113</v>
       </c>
     </row>
-    <row r="660" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="660" spans="1:20" s="4" customFormat="1">
       <c r="A660" s="5" t="s">
         <v>1362</v>
       </c>
@@ -46544,7 +46537,7 @@
         <v>25981192</v>
       </c>
     </row>
-    <row r="661" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="661" spans="1:20" s="4" customFormat="1">
       <c r="A661" s="5" t="s">
         <v>1364</v>
       </c>
@@ -46606,7 +46599,7 @@
         <v>10548028</v>
       </c>
     </row>
-    <row r="662" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="662" spans="1:20" s="4" customFormat="1">
       <c r="A662" s="5" t="s">
         <v>1366</v>
       </c>
@@ -46668,7 +46661,7 @@
         <v>3575230.5</v>
       </c>
     </row>
-    <row r="663" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="663" spans="1:20" s="4" customFormat="1">
       <c r="A663" s="5" t="s">
         <v>1367</v>
       </c>
@@ -46730,7 +46723,7 @@
         <v>2640449.75</v>
       </c>
     </row>
-    <row r="664" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="664" spans="1:20" s="4" customFormat="1">
       <c r="A664" s="5" t="s">
         <v>1369</v>
       </c>
@@ -46786,7 +46779,7 @@
         <v>6969857.5</v>
       </c>
     </row>
-    <row r="665" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="665" spans="1:20" s="4" customFormat="1">
       <c r="A665" s="5" t="s">
         <v>1371</v>
       </c>
@@ -46848,7 +46841,7 @@
         <v>2664223.25</v>
       </c>
     </row>
-    <row r="666" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="666" spans="1:20" s="4" customFormat="1">
       <c r="A666" s="5" t="s">
         <v>1373</v>
       </c>
@@ -46910,7 +46903,7 @@
         <v>199088368</v>
       </c>
     </row>
-    <row r="667" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="667" spans="1:20" s="4" customFormat="1">
       <c r="A667" s="5" t="s">
         <v>1375</v>
       </c>
@@ -46968,7 +46961,7 @@
         <v>13359266</v>
       </c>
     </row>
-    <row r="668" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="668" spans="1:20" s="4" customFormat="1">
       <c r="A668" s="5" t="s">
         <v>1377</v>
       </c>
@@ -47030,7 +47023,7 @@
         <v>7569117</v>
       </c>
     </row>
-    <row r="669" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="669" spans="1:20" s="4" customFormat="1">
       <c r="A669" s="5" t="s">
         <v>1379</v>
       </c>
@@ -47092,7 +47085,7 @@
         <v>2023128.75</v>
       </c>
     </row>
-    <row r="670" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="670" spans="1:20" s="4" customFormat="1">
       <c r="A670" s="5" t="s">
         <v>1380</v>
       </c>
@@ -47154,7 +47147,7 @@
         <v>15270538</v>
       </c>
     </row>
-    <row r="671" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="671" spans="1:20" s="4" customFormat="1">
       <c r="A671" s="5" t="s">
         <v>1382</v>
       </c>
@@ -47214,7 +47207,7 @@
         <v>19718988</v>
       </c>
     </row>
-    <row r="672" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="672" spans="1:20" s="4" customFormat="1">
       <c r="A672" s="5" t="s">
         <v>1384</v>
       </c>
@@ -47276,7 +47269,7 @@
         <v>2783766.25</v>
       </c>
     </row>
-    <row r="673" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="673" spans="1:20" s="4" customFormat="1">
       <c r="A673" s="5" t="s">
         <v>1386</v>
       </c>
@@ -47338,7 +47331,7 @@
         <v>72698936</v>
       </c>
     </row>
-    <row r="674" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="674" spans="1:20" s="4" customFormat="1">
       <c r="A674" s="5" t="s">
         <v>1388</v>
       </c>
@@ -47400,7 +47393,7 @@
         <v>2001448.5</v>
       </c>
     </row>
-    <row r="675" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="675" spans="1:20" s="4" customFormat="1">
       <c r="A675" s="5" t="s">
         <v>1390</v>
       </c>
@@ -47458,7 +47451,7 @@
         <v>5336263</v>
       </c>
     </row>
-    <row r="676" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="676" spans="1:20" s="4" customFormat="1">
       <c r="A676" s="5" t="s">
         <v>1392</v>
       </c>
@@ -47518,7 +47511,7 @@
         <v>3171976.25</v>
       </c>
     </row>
-    <row r="677" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="677" spans="1:20" s="4" customFormat="1">
       <c r="A677" s="5" t="s">
         <v>1394</v>
       </c>
@@ -47580,7 +47573,7 @@
         <v>3587668</v>
       </c>
     </row>
-    <row r="678" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="678" spans="1:20" s="4" customFormat="1">
       <c r="A678" s="5" t="s">
         <v>1396</v>
       </c>
@@ -47642,7 +47635,7 @@
         <v>2926075.5</v>
       </c>
     </row>
-    <row r="679" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="679" spans="1:20" s="4" customFormat="1">
       <c r="A679" s="5" t="s">
         <v>1398</v>
       </c>
@@ -47700,7 +47693,7 @@
         <v>4079830.5</v>
       </c>
     </row>
-    <row r="680" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="680" spans="1:20" s="4" customFormat="1">
       <c r="A680" s="5" t="s">
         <v>1400</v>
       </c>
@@ -47760,7 +47753,7 @@
         <v>234961984</v>
       </c>
     </row>
-    <row r="681" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="681" spans="1:20" s="4" customFormat="1">
       <c r="A681" s="5" t="s">
         <v>1402</v>
       </c>
@@ -47820,7 +47813,7 @@
         <v>2450139.25</v>
       </c>
     </row>
-    <row r="682" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="682" spans="1:20" s="4" customFormat="1">
       <c r="A682" s="5" t="s">
         <v>1404</v>
       </c>
@@ -47880,7 +47873,7 @@
         <v>10387785</v>
       </c>
     </row>
-    <row r="683" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="683" spans="1:20" s="4" customFormat="1">
       <c r="A683" s="5" t="s">
         <v>1406</v>
       </c>
@@ -47942,7 +47935,7 @@
         <v>5053794</v>
       </c>
     </row>
-    <row r="684" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="684" spans="1:20" s="4" customFormat="1">
       <c r="A684" s="5" t="s">
         <v>1407</v>
       </c>
@@ -48004,7 +47997,7 @@
         <v>3843352.25</v>
       </c>
     </row>
-    <row r="685" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="685" spans="1:20" s="4" customFormat="1">
       <c r="A685" s="5" t="s">
         <v>1408</v>
       </c>
@@ -48066,7 +48059,7 @@
         <v>2644432.5</v>
       </c>
     </row>
-    <row r="686" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="686" spans="1:20" s="4" customFormat="1">
       <c r="A686" s="5" t="s">
         <v>1410</v>
       </c>
@@ -48128,7 +48121,7 @@
         <v>2088746.25</v>
       </c>
     </row>
-    <row r="687" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="687" spans="1:20" s="4" customFormat="1">
       <c r="A687" s="5" t="s">
         <v>1412</v>
       </c>
@@ -48190,7 +48183,7 @@
         <v>4909793.5</v>
       </c>
     </row>
-    <row r="688" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="688" spans="1:20" s="4" customFormat="1">
       <c r="A688" s="5" t="s">
         <v>1414</v>
       </c>
@@ -48252,7 +48245,7 @@
         <v>4042410.5</v>
       </c>
     </row>
-    <row r="689" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="689" spans="1:20" s="4" customFormat="1">
       <c r="A689" s="5" t="s">
         <v>1415</v>
       </c>
@@ -48314,7 +48307,7 @@
         <v>6436727</v>
       </c>
     </row>
-    <row r="690" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="690" spans="1:20" s="4" customFormat="1">
       <c r="A690" s="5" t="s">
         <v>1416</v>
       </c>
@@ -48374,7 +48367,7 @@
         <v>5295692.5</v>
       </c>
     </row>
-    <row r="691" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="691" spans="1:20" s="4" customFormat="1">
       <c r="A691" s="5" t="s">
         <v>1417</v>
       </c>
@@ -48436,7 +48429,7 @@
         <v>9926380</v>
       </c>
     </row>
-    <row r="692" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="692" spans="1:20" s="4" customFormat="1">
       <c r="A692" s="5" t="s">
         <v>1418</v>
       </c>
@@ -48498,7 +48491,7 @@
         <v>3372344</v>
       </c>
     </row>
-    <row r="693" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="693" spans="1:20" s="4" customFormat="1">
       <c r="A693" s="5" t="s">
         <v>1420</v>
       </c>
@@ -48558,7 +48551,7 @@
         <v>5837355.5</v>
       </c>
     </row>
-    <row r="694" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="694" spans="1:20" s="4" customFormat="1">
       <c r="A694" s="5" t="s">
         <v>1422</v>
       </c>
@@ -48620,7 +48613,7 @@
         <v>2273511.25</v>
       </c>
     </row>
-    <row r="695" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="695" spans="1:20" s="4" customFormat="1">
       <c r="A695" s="5" t="s">
         <v>1424</v>
       </c>
@@ -48678,7 +48671,7 @@
         <v>2191904</v>
       </c>
     </row>
-    <row r="696" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="696" spans="1:20" s="4" customFormat="1">
       <c r="A696" s="5" t="s">
         <v>1426</v>
       </c>
@@ -48738,7 +48731,7 @@
         <v>4135632.25</v>
       </c>
     </row>
-    <row r="697" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="697" spans="1:20" s="4" customFormat="1">
       <c r="A697" s="5" t="s">
         <v>1428</v>
       </c>
@@ -48800,7 +48793,7 @@
         <v>3328474.75</v>
       </c>
     </row>
-    <row r="698" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="698" spans="1:20" s="4" customFormat="1">
       <c r="A698" s="5" t="s">
         <v>1430</v>
       </c>
@@ -48862,7 +48855,7 @@
         <v>10483094</v>
       </c>
     </row>
-    <row r="699" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="699" spans="1:20" s="4" customFormat="1">
       <c r="A699" s="5" t="s">
         <v>1432</v>
       </c>
@@ -48924,7 +48917,7 @@
         <v>5586263.5</v>
       </c>
     </row>
-    <row r="700" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="700" spans="1:20" s="4" customFormat="1">
       <c r="A700" s="5" t="s">
         <v>1434</v>
       </c>
@@ -48986,7 +48979,7 @@
         <v>7074301.5</v>
       </c>
     </row>
-    <row r="701" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="701" spans="1:20" s="4" customFormat="1">
       <c r="A701" s="5" t="s">
         <v>1435</v>
       </c>
@@ -49048,7 +49041,7 @@
         <v>91759968</v>
       </c>
     </row>
-    <row r="702" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="702" spans="1:20" s="4" customFormat="1">
       <c r="A702" s="5" t="s">
         <v>1437</v>
       </c>
@@ -49110,7 +49103,7 @@
         <v>3199158</v>
       </c>
     </row>
-    <row r="703" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="703" spans="1:20" s="4" customFormat="1">
       <c r="A703" s="5" t="s">
         <v>1439</v>
       </c>
@@ -49170,7 +49163,7 @@
         <v>131443688</v>
       </c>
     </row>
-    <row r="704" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="704" spans="1:20" s="4" customFormat="1">
       <c r="A704" s="5" t="s">
         <v>1441</v>
       </c>
@@ -49232,7 +49225,7 @@
         <v>17432118</v>
       </c>
     </row>
-    <row r="705" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="705" spans="1:20" s="4" customFormat="1">
       <c r="A705" s="5" t="s">
         <v>1443</v>
       </c>
@@ -49294,7 +49287,7 @@
         <v>2745235.75</v>
       </c>
     </row>
-    <row r="706" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="706" spans="1:20" s="4" customFormat="1">
       <c r="A706" s="5" t="s">
         <v>1445</v>
       </c>
@@ -49352,7 +49345,7 @@
         <v>18733674</v>
       </c>
     </row>
-    <row r="707" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="707" spans="1:20" s="4" customFormat="1">
       <c r="A707" s="5" t="s">
         <v>1447</v>
       </c>
@@ -49412,7 +49405,7 @@
         <v>6937152</v>
       </c>
     </row>
-    <row r="708" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="708" spans="1:20" s="4" customFormat="1">
       <c r="A708" s="5" t="s">
         <v>1449</v>
       </c>
@@ -49468,7 +49461,7 @@
         <v>6384293</v>
       </c>
     </row>
-    <row r="709" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="709" spans="1:20" s="4" customFormat="1">
       <c r="A709" s="5" t="s">
         <v>1451</v>
       </c>
@@ -49528,7 +49521,7 @@
         <v>22502240</v>
       </c>
     </row>
-    <row r="710" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="710" spans="1:20" s="4" customFormat="1">
       <c r="A710" s="5" t="s">
         <v>1453</v>
       </c>
@@ -49588,7 +49581,7 @@
         <v>4764143.5</v>
       </c>
     </row>
-    <row r="711" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="711" spans="1:20" s="4" customFormat="1">
       <c r="A711" s="5" t="s">
         <v>1455</v>
       </c>
@@ -49650,7 +49643,7 @@
         <v>2034233</v>
       </c>
     </row>
-    <row r="712" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="712" spans="1:20" s="4" customFormat="1">
       <c r="A712" s="5" t="s">
         <v>1457</v>
       </c>
@@ -49712,7 +49705,7 @@
         <v>3155693.5</v>
       </c>
     </row>
-    <row r="713" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="713" spans="1:20" s="4" customFormat="1">
       <c r="A713" s="5" t="s">
         <v>1459</v>
       </c>
@@ -49774,7 +49767,7 @@
         <v>36175868</v>
       </c>
     </row>
-    <row r="714" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="714" spans="1:20" s="4" customFormat="1">
       <c r="A714" s="5" t="s">
         <v>1461</v>
       </c>
@@ -49836,7 +49829,7 @@
         <v>2477813.25</v>
       </c>
     </row>
-    <row r="715" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="715" spans="1:20" s="4" customFormat="1">
       <c r="A715" s="5" t="s">
         <v>1463</v>
       </c>
@@ -49898,7 +49891,7 @@
         <v>3052906</v>
       </c>
     </row>
-    <row r="716" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="716" spans="1:20" s="4" customFormat="1">
       <c r="A716" s="5" t="s">
         <v>1465</v>
       </c>
@@ -49960,7 +49953,7 @@
         <v>8838404</v>
       </c>
     </row>
-    <row r="717" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="717" spans="1:20" s="4" customFormat="1">
       <c r="A717" s="5" t="s">
         <v>1466</v>
       </c>
@@ -50022,7 +50015,7 @@
         <v>10964512</v>
       </c>
     </row>
-    <row r="718" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="718" spans="1:20" s="4" customFormat="1">
       <c r="A718" s="5" t="s">
         <v>1468</v>
       </c>
@@ -50082,7 +50075,7 @@
         <v>10530749</v>
       </c>
     </row>
-    <row r="719" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="719" spans="1:20" s="4" customFormat="1">
       <c r="A719" s="5" t="s">
         <v>1470</v>
       </c>
@@ -50144,7 +50137,7 @@
         <v>18073796</v>
       </c>
     </row>
-    <row r="720" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="720" spans="1:20" s="4" customFormat="1">
       <c r="A720" s="5" t="s">
         <v>1473</v>
       </c>
@@ -50206,7 +50199,7 @@
         <v>5410378</v>
       </c>
     </row>
-    <row r="721" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="721" spans="1:20" s="4" customFormat="1">
       <c r="A721" s="5" t="s">
         <v>1475</v>
       </c>
@@ -50268,7 +50261,7 @@
         <v>3218394</v>
       </c>
     </row>
-    <row r="722" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="722" spans="1:20" s="4" customFormat="1">
       <c r="A722" s="5" t="s">
         <v>1477</v>
       </c>
@@ -50326,7 +50319,7 @@
         <v>2803973</v>
       </c>
     </row>
-    <row r="723" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="723" spans="1:20" s="4" customFormat="1">
       <c r="A723" s="5" t="s">
         <v>1479</v>
       </c>
@@ -50388,7 +50381,7 @@
         <v>5195262</v>
       </c>
     </row>
-    <row r="724" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="724" spans="1:20" s="4" customFormat="1">
       <c r="A724" s="5" t="s">
         <v>1481</v>
       </c>
@@ -50450,7 +50443,7 @@
         <v>13192552</v>
       </c>
     </row>
-    <row r="725" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="725" spans="1:20" s="4" customFormat="1">
       <c r="A725" s="5" t="s">
         <v>1482</v>
       </c>
@@ -50512,7 +50505,7 @@
         <v>2971927</v>
       </c>
     </row>
-    <row r="726" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="726" spans="1:20" s="4" customFormat="1">
       <c r="A726" s="5" t="s">
         <v>1484</v>
       </c>
@@ -50574,7 +50567,7 @@
         <v>3004635.5</v>
       </c>
     </row>
-    <row r="727" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="727" spans="1:20" s="4" customFormat="1">
       <c r="A727" s="5" t="s">
         <v>1486</v>
       </c>
@@ -50634,7 +50627,7 @@
         <v>157906560</v>
       </c>
     </row>
-    <row r="728" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="728" spans="1:20" s="4" customFormat="1">
       <c r="A728" s="5" t="s">
         <v>1488</v>
       </c>
@@ -50694,7 +50687,7 @@
         <v>83591496</v>
       </c>
     </row>
-    <row r="729" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="729" spans="1:20" s="4" customFormat="1">
       <c r="A729" s="5" t="s">
         <v>1490</v>
       </c>
@@ -50754,7 +50747,7 @@
         <v>12973973</v>
       </c>
     </row>
-    <row r="730" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="730" spans="1:20" s="4" customFormat="1">
       <c r="A730" s="5" t="s">
         <v>1492</v>
       </c>
@@ -50816,7 +50809,7 @@
         <v>4003527.25</v>
       </c>
     </row>
-    <row r="731" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="731" spans="1:20" s="4" customFormat="1">
       <c r="A731" s="5" t="s">
         <v>1494</v>
       </c>
@@ -50874,7 +50867,7 @@
         <v>9206613</v>
       </c>
     </row>
-    <row r="732" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="732" spans="1:20" s="4" customFormat="1">
       <c r="A732" s="5" t="s">
         <v>1496</v>
       </c>
@@ -50936,7 +50929,7 @@
         <v>3798672</v>
       </c>
     </row>
-    <row r="733" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="733" spans="1:20" s="4" customFormat="1">
       <c r="A733" s="5" t="s">
         <v>1498</v>
       </c>
@@ -50996,7 +50989,7 @@
         <v>6439238</v>
       </c>
     </row>
-    <row r="734" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="734" spans="1:20" s="4" customFormat="1">
       <c r="A734" s="5" t="s">
         <v>1500</v>
       </c>
@@ -51058,7 +51051,7 @@
         <v>5516496.5</v>
       </c>
     </row>
-    <row r="735" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="735" spans="1:20" s="4" customFormat="1">
       <c r="A735" s="5" t="s">
         <v>1502</v>
       </c>
@@ -51118,7 +51111,7 @@
         <v>6107666</v>
       </c>
     </row>
-    <row r="736" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="736" spans="1:20" s="4" customFormat="1">
       <c r="A736" s="5" t="s">
         <v>1504</v>
       </c>
@@ -51180,7 +51173,7 @@
         <v>5338771</v>
       </c>
     </row>
-    <row r="737" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="737" spans="1:20" s="4" customFormat="1">
       <c r="A737" s="5" t="s">
         <v>1505</v>
       </c>
@@ -51242,7 +51235,7 @@
         <v>4797255</v>
       </c>
     </row>
-    <row r="738" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="738" spans="1:20" s="4" customFormat="1">
       <c r="A738" s="5" t="s">
         <v>1506</v>
       </c>
@@ -51302,7 +51295,7 @@
         <v>3883601.5</v>
       </c>
     </row>
-    <row r="739" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="739" spans="1:20" s="4" customFormat="1">
       <c r="A739" s="5" t="s">
         <v>1508</v>
       </c>
@@ -51364,7 +51357,7 @@
         <v>3387518.75</v>
       </c>
     </row>
-    <row r="740" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="740" spans="1:20" s="4" customFormat="1">
       <c r="A740" s="5" t="s">
         <v>1510</v>
       </c>
@@ -51426,7 +51419,7 @@
         <v>2876341</v>
       </c>
     </row>
-    <row r="741" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="741" spans="1:20" s="4" customFormat="1">
       <c r="A741" s="5" t="s">
         <v>1511</v>
       </c>
@@ -51488,7 +51481,7 @@
         <v>3247594.25</v>
       </c>
     </row>
-    <row r="742" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="742" spans="1:20" s="4" customFormat="1">
       <c r="A742" s="5" t="s">
         <v>1513</v>
       </c>
@@ -51550,7 +51543,7 @@
         <v>6574397</v>
       </c>
     </row>
-    <row r="743" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="743" spans="1:20" s="4" customFormat="1">
       <c r="A743" s="5" t="s">
         <v>1515</v>
       </c>
@@ -51612,7 +51605,7 @@
         <v>32781838</v>
       </c>
     </row>
-    <row r="744" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="744" spans="1:20" s="4" customFormat="1">
       <c r="A744" s="5" t="s">
         <v>1517</v>
       </c>
@@ -51672,7 +51665,7 @@
         <v>3604477.75</v>
       </c>
     </row>
-    <row r="745" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="745" spans="1:20" s="4" customFormat="1">
       <c r="A745" s="5" t="s">
         <v>1519</v>
       </c>
@@ -51732,7 +51725,7 @@
         <v>3261939.5</v>
       </c>
     </row>
-    <row r="746" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="746" spans="1:20" s="4" customFormat="1">
       <c r="A746" s="5" t="s">
         <v>1521</v>
       </c>
@@ -51794,7 +51787,7 @@
         <v>3352463</v>
       </c>
     </row>
-    <row r="747" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="747" spans="1:20" s="4" customFormat="1">
       <c r="A747" s="5" t="s">
         <v>1523</v>
       </c>
@@ -51856,7 +51849,7 @@
         <v>2474001.75</v>
       </c>
     </row>
-    <row r="748" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="748" spans="1:20" s="4" customFormat="1">
       <c r="A748" s="5" t="s">
         <v>1524</v>
       </c>
@@ -51916,7 +51909,7 @@
         <v>2014798.5</v>
       </c>
     </row>
-    <row r="749" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="749" spans="1:20" s="4" customFormat="1">
       <c r="A749" s="5" t="s">
         <v>1526</v>
       </c>
@@ -51976,7 +51969,7 @@
         <v>3980332.75</v>
       </c>
     </row>
-    <row r="750" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="750" spans="1:20" s="4" customFormat="1">
       <c r="A750" s="5" t="s">
         <v>1528</v>
       </c>
@@ -52036,7 +52029,7 @@
         <v>5943233</v>
       </c>
     </row>
-    <row r="751" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="751" spans="1:20" s="4" customFormat="1">
       <c r="A751" s="5" t="s">
         <v>1529</v>
       </c>
@@ -52096,7 +52089,7 @@
         <v>23215618</v>
       </c>
     </row>
-    <row r="752" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="752" spans="1:20" s="4" customFormat="1">
       <c r="A752" s="5" t="s">
         <v>1531</v>
       </c>
@@ -52158,7 +52151,7 @@
         <v>7403642.5</v>
       </c>
     </row>
-    <row r="753" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="753" spans="1:20" s="4" customFormat="1">
       <c r="A753" s="5" t="s">
         <v>1533</v>
       </c>
@@ -52220,7 +52213,7 @@
         <v>68776072</v>
       </c>
     </row>
-    <row r="754" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="754" spans="1:20" s="4" customFormat="1">
       <c r="A754" s="5" t="s">
         <v>1535</v>
       </c>
@@ -52280,7 +52273,7 @@
         <v>33188854</v>
       </c>
     </row>
-    <row r="755" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="755" spans="1:20" s="4" customFormat="1">
       <c r="A755" s="5" t="s">
         <v>1537</v>
       </c>
@@ -52342,7 +52335,7 @@
         <v>2127681.5</v>
       </c>
     </row>
-    <row r="756" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="756" spans="1:20" s="4" customFormat="1">
       <c r="A756" s="5" t="s">
         <v>1539</v>
       </c>
@@ -52404,7 +52397,7 @@
         <v>2161169.75</v>
       </c>
     </row>
-    <row r="757" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="757" spans="1:20" s="4" customFormat="1">
       <c r="A757" s="5" t="s">
         <v>1541</v>
       </c>
@@ -52460,7 +52453,7 @@
         <v>2070392.5</v>
       </c>
     </row>
-    <row r="758" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="758" spans="1:20" s="4" customFormat="1">
       <c r="A758" s="5" t="s">
         <v>1543</v>
       </c>
@@ -52520,7 +52513,7 @@
         <v>77401496</v>
       </c>
     </row>
-    <row r="759" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="759" spans="1:20" s="4" customFormat="1">
       <c r="A759" s="5" t="s">
         <v>1545</v>
       </c>
@@ -52582,7 +52575,7 @@
         <v>2382751.75</v>
       </c>
     </row>
-    <row r="760" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="760" spans="1:20" s="4" customFormat="1">
       <c r="A760" s="5" t="s">
         <v>1547</v>
       </c>
@@ -52644,7 +52637,7 @@
         <v>10263362</v>
       </c>
     </row>
-    <row r="761" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="761" spans="1:20" s="4" customFormat="1">
       <c r="A761" s="5" t="s">
         <v>1549</v>
       </c>
@@ -52706,7 +52699,7 @@
         <v>4870749.5</v>
       </c>
     </row>
-    <row r="762" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="762" spans="1:20" s="4" customFormat="1">
       <c r="A762" s="5" t="s">
         <v>1550</v>
       </c>
@@ -52766,7 +52759,7 @@
         <v>7595797</v>
       </c>
     </row>
-    <row r="763" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="763" spans="1:20" s="4" customFormat="1">
       <c r="A763" s="5" t="s">
         <v>1552</v>
       </c>
@@ -52828,7 +52821,7 @@
         <v>10974770</v>
       </c>
     </row>
-    <row r="764" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="764" spans="1:20" s="4" customFormat="1">
       <c r="A764" s="5" t="s">
         <v>1554</v>
       </c>
@@ -52888,7 +52881,7 @@
         <v>2672020.5</v>
       </c>
     </row>
-    <row r="765" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="765" spans="1:20" s="4" customFormat="1">
       <c r="A765" s="5" t="s">
         <v>1556</v>
       </c>
@@ -52950,7 +52943,7 @@
         <v>2551997.75</v>
       </c>
     </row>
-    <row r="766" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="766" spans="1:20" s="4" customFormat="1">
       <c r="A766" s="5" t="s">
         <v>1558</v>
       </c>
@@ -53012,7 +53005,7 @@
         <v>5725425</v>
       </c>
     </row>
-    <row r="767" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="767" spans="1:20" s="4" customFormat="1">
       <c r="A767" s="5" t="s">
         <v>1560</v>
       </c>
@@ -53074,7 +53067,7 @@
         <v>4598019</v>
       </c>
     </row>
-    <row r="768" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="768" spans="1:20" s="4" customFormat="1">
       <c r="A768" s="5" t="s">
         <v>1562</v>
       </c>
@@ -53134,7 +53127,7 @@
         <v>3614473.75</v>
       </c>
     </row>
-    <row r="769" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="769" spans="1:20" s="4" customFormat="1">
       <c r="A769" s="5" t="s">
         <v>1564</v>
       </c>
@@ -53196,7 +53189,7 @@
         <v>2723338.25</v>
       </c>
     </row>
-    <row r="770" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="770" spans="1:20" s="4" customFormat="1">
       <c r="A770" s="5" t="s">
         <v>1566</v>
       </c>
@@ -53258,7 +53251,7 @@
         <v>4416490</v>
       </c>
     </row>
-    <row r="771" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="771" spans="1:20" s="4" customFormat="1">
       <c r="A771" s="5" t="s">
         <v>1568</v>
       </c>
@@ -53318,7 +53311,7 @@
         <v>14449984</v>
       </c>
     </row>
-    <row r="772" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="772" spans="1:20" s="4" customFormat="1">
       <c r="A772" s="5" t="s">
         <v>1570</v>
       </c>
@@ -53378,7 +53371,7 @@
         <v>5588426.5</v>
       </c>
     </row>
-    <row r="773" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="773" spans="1:20" s="4" customFormat="1">
       <c r="A773" s="5" t="s">
         <v>1572</v>
       </c>
@@ -53440,7 +53433,7 @@
         <v>9170699</v>
       </c>
     </row>
-    <row r="774" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="774" spans="1:20" s="4" customFormat="1">
       <c r="A774" s="5" t="s">
         <v>1575</v>
       </c>
@@ -53498,7 +53491,7 @@
         <v>28704090</v>
       </c>
     </row>
-    <row r="775" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="775" spans="1:20" s="4" customFormat="1">
       <c r="A775" s="5" t="s">
         <v>1577</v>
       </c>
@@ -53558,7 +53551,7 @@
         <v>10198756</v>
       </c>
     </row>
-    <row r="776" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="776" spans="1:20" s="4" customFormat="1">
       <c r="A776" s="5" t="s">
         <v>1579</v>
       </c>
@@ -53620,7 +53613,7 @@
         <v>6239016</v>
       </c>
     </row>
-    <row r="777" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="777" spans="1:20" s="4" customFormat="1">
       <c r="A777" s="5" t="s">
         <v>1581</v>
       </c>
@@ -53680,7 +53673,7 @@
         <v>3667466.75</v>
       </c>
     </row>
-    <row r="778" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="778" spans="1:20" s="4" customFormat="1">
       <c r="A778" s="5" t="s">
         <v>1583</v>
       </c>
@@ -53742,7 +53735,7 @@
         <v>5320655.5</v>
       </c>
     </row>
-    <row r="779" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="779" spans="1:20" s="4" customFormat="1">
       <c r="A779" s="5" t="s">
         <v>1585</v>
       </c>
@@ -53802,7 +53795,7 @@
         <v>206708720</v>
       </c>
     </row>
-    <row r="780" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="780" spans="1:20" s="4" customFormat="1">
       <c r="A780" s="5" t="s">
         <v>1586</v>
       </c>
@@ -53862,7 +53855,7 @@
         <v>4640906.5</v>
       </c>
     </row>
-    <row r="781" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="781" spans="1:20" s="4" customFormat="1">
       <c r="A781" s="5" t="s">
         <v>1588</v>
       </c>
@@ -53924,7 +53917,7 @@
         <v>2049616.25</v>
       </c>
     </row>
-    <row r="782" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="782" spans="1:20" s="4" customFormat="1">
       <c r="A782" s="5" t="s">
         <v>1590</v>
       </c>
@@ -53986,7 +53979,7 @@
         <v>3171149.25</v>
       </c>
     </row>
-    <row r="783" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="783" spans="1:20" s="4" customFormat="1">
       <c r="A783" s="5" t="s">
         <v>1592</v>
       </c>
@@ -54048,7 +54041,7 @@
         <v>5130135</v>
       </c>
     </row>
-    <row r="784" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="784" spans="1:20" s="4" customFormat="1">
       <c r="A784" s="5" t="s">
         <v>1594</v>
       </c>
@@ -54110,7 +54103,7 @@
         <v>9237710</v>
       </c>
     </row>
-    <row r="785" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="785" spans="1:20" s="4" customFormat="1">
       <c r="A785" s="5" t="s">
         <v>1596</v>
       </c>
@@ -54172,7 +54165,7 @@
         <v>38964988</v>
       </c>
     </row>
-    <row r="786" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="786" spans="1:20" s="4" customFormat="1">
       <c r="A786" s="5" t="s">
         <v>1598</v>
       </c>
@@ -54232,7 +54225,7 @@
         <v>2126137.75</v>
       </c>
     </row>
-    <row r="787" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="787" spans="1:20" s="4" customFormat="1">
       <c r="A787" s="5" t="s">
         <v>1600</v>
       </c>
@@ -54292,7 +54285,7 @@
         <v>102389360</v>
       </c>
     </row>
-    <row r="788" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="788" spans="1:20" s="4" customFormat="1">
       <c r="A788" s="5" t="s">
         <v>1602</v>
       </c>
@@ -54354,7 +54347,7 @@
         <v>3617426</v>
       </c>
     </row>
-    <row r="789" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="789" spans="1:20" s="4" customFormat="1">
       <c r="A789" s="5" t="s">
         <v>1604</v>
       </c>
@@ -54414,7 +54407,7 @@
         <v>7734739.5</v>
       </c>
     </row>
-    <row r="790" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="790" spans="1:20" s="4" customFormat="1">
       <c r="A790" s="5" t="s">
         <v>1606</v>
       </c>
@@ -54476,7 +54469,7 @@
         <v>5769208</v>
       </c>
     </row>
-    <row r="791" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="791" spans="1:20" s="4" customFormat="1">
       <c r="A791" s="5" t="s">
         <v>1608</v>
       </c>
@@ -54538,7 +54531,7 @@
         <v>4662756.5</v>
       </c>
     </row>
-    <row r="792" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="792" spans="1:20" s="4" customFormat="1">
       <c r="A792" s="5" t="s">
         <v>1609</v>
       </c>
@@ -54600,7 +54593,7 @@
         <v>4369958.5</v>
       </c>
     </row>
-    <row r="793" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="793" spans="1:20" s="4" customFormat="1">
       <c r="A793" s="5" t="s">
         <v>1611</v>
       </c>
@@ -54662,7 +54655,7 @@
         <v>5388775</v>
       </c>
     </row>
-    <row r="794" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="794" spans="1:20" s="4" customFormat="1">
       <c r="A794" s="5" t="s">
         <v>1613</v>
       </c>
@@ -54722,7 +54715,7 @@
         <v>5267197.5</v>
       </c>
     </row>
-    <row r="795" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="795" spans="1:20" s="4" customFormat="1">
       <c r="A795" s="5" t="s">
         <v>1615</v>
       </c>
@@ -54780,7 +54773,7 @@
         <v>2178773.5</v>
       </c>
     </row>
-    <row r="796" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="796" spans="1:20" s="4" customFormat="1">
       <c r="A796" s="5" t="s">
         <v>1617</v>
       </c>
@@ -54842,7 +54835,7 @@
         <v>3775345.5</v>
       </c>
     </row>
-    <row r="797" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="797" spans="1:20" s="4" customFormat="1">
       <c r="A797" s="5" t="s">
         <v>1619</v>
       </c>
@@ -54904,7 +54897,7 @@
         <v>3258515</v>
       </c>
     </row>
-    <row r="798" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="798" spans="1:20" s="4" customFormat="1">
       <c r="A798" s="5" t="s">
         <v>1620</v>
       </c>
@@ -54966,7 +54959,7 @@
         <v>6341425</v>
       </c>
     </row>
-    <row r="799" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="799" spans="1:20" s="4" customFormat="1">
       <c r="A799" s="5" t="s">
         <v>1622</v>
       </c>
@@ -55026,7 +55019,7 @@
         <v>5515336</v>
       </c>
     </row>
-    <row r="800" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="800" spans="1:20" s="4" customFormat="1">
       <c r="A800" s="5" t="s">
         <v>1623</v>
       </c>
@@ -55088,7 +55081,7 @@
         <v>3683264.25</v>
       </c>
     </row>
-    <row r="801" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="801" spans="1:20" s="4" customFormat="1">
       <c r="A801" s="5" t="s">
         <v>1625</v>
       </c>
@@ -55150,7 +55143,7 @@
         <v>34990776</v>
       </c>
     </row>
-    <row r="802" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="802" spans="1:20" s="4" customFormat="1">
       <c r="A802" s="5" t="s">
         <v>1627</v>
       </c>
@@ -55210,7 +55203,7 @@
         <v>102646776</v>
       </c>
     </row>
-    <row r="803" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="803" spans="1:20" s="4" customFormat="1">
       <c r="A803" s="5" t="s">
         <v>1629</v>
       </c>
@@ -55270,7 +55263,7 @@
         <v>99848536</v>
       </c>
     </row>
-    <row r="804" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="804" spans="1:20" s="4" customFormat="1">
       <c r="A804" s="5" t="s">
         <v>1631</v>
       </c>
@@ -55332,7 +55325,7 @@
         <v>3148970.75</v>
       </c>
     </row>
-    <row r="805" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="805" spans="1:20" s="4" customFormat="1">
       <c r="A805" s="5" t="s">
         <v>1633</v>
       </c>
@@ -55392,7 +55385,7 @@
         <v>4166583.5</v>
       </c>
     </row>
-    <row r="806" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="806" spans="1:20" s="4" customFormat="1">
       <c r="A806" s="5" t="s">
         <v>1635</v>
       </c>
@@ -55450,7 +55443,7 @@
         <v>2227971.75</v>
       </c>
     </row>
-    <row r="807" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="807" spans="1:20" s="4" customFormat="1">
       <c r="A807" s="5" t="s">
         <v>1637</v>
       </c>
@@ -55510,7 +55503,7 @@
         <v>6614235</v>
       </c>
     </row>
-    <row r="808" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="808" spans="1:20" s="4" customFormat="1">
       <c r="A808" s="5" t="s">
         <v>1638</v>
       </c>
@@ -55572,7 +55565,7 @@
         <v>18996968</v>
       </c>
     </row>
-    <row r="809" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="809" spans="1:20" s="4" customFormat="1">
       <c r="A809" s="5" t="s">
         <v>1639</v>
       </c>
@@ -55632,7 +55625,7 @@
         <v>4518066.5</v>
       </c>
     </row>
-    <row r="810" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="810" spans="1:20" s="4" customFormat="1">
       <c r="A810" s="5" t="s">
         <v>1641</v>
       </c>
@@ -55690,7 +55683,7 @@
         <v>6471262</v>
       </c>
     </row>
-    <row r="811" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="811" spans="1:20" s="4" customFormat="1">
       <c r="A811" s="5" t="s">
         <v>1643</v>
       </c>
@@ -55752,7 +55745,7 @@
         <v>2616514.25</v>
       </c>
     </row>
-    <row r="812" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="812" spans="1:20" s="4" customFormat="1">
       <c r="A812" s="5" t="s">
         <v>1645</v>
       </c>
@@ -55808,7 +55801,7 @@
         <v>4627624</v>
       </c>
     </row>
-    <row r="813" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="813" spans="1:20" s="4" customFormat="1">
       <c r="A813" s="5" t="s">
         <v>1647</v>
       </c>
@@ -55870,7 +55863,7 @@
         <v>6145505</v>
       </c>
     </row>
-    <row r="814" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="814" spans="1:20" s="4" customFormat="1">
       <c r="A814" s="5" t="s">
         <v>1649</v>
       </c>
@@ -55932,7 +55925,7 @@
         <v>36989116</v>
       </c>
     </row>
-    <row r="815" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="815" spans="1:20" s="4" customFormat="1">
       <c r="A815" s="5" t="s">
         <v>1651</v>
       </c>
@@ -55994,7 +55987,7 @@
         <v>4040538</v>
       </c>
     </row>
-    <row r="816" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="816" spans="1:20" s="4" customFormat="1">
       <c r="A816" s="5" t="s">
         <v>1652</v>
       </c>
@@ -56052,7 +56045,7 @@
         <v>4300326.5</v>
       </c>
     </row>
-    <row r="817" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="817" spans="1:20" s="4" customFormat="1">
       <c r="A817" s="5" t="s">
         <v>1654</v>
       </c>
@@ -56114,7 +56107,7 @@
         <v>2224053.5</v>
       </c>
     </row>
-    <row r="818" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="818" spans="1:20" s="4" customFormat="1">
       <c r="A818" s="5" t="s">
         <v>1655</v>
       </c>
@@ -56176,7 +56169,7 @@
         <v>5982101.5</v>
       </c>
     </row>
-    <row r="819" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="819" spans="1:20" s="4" customFormat="1">
       <c r="A819" s="5" t="s">
         <v>1656</v>
       </c>
@@ -56238,7 +56231,7 @@
         <v>10807855</v>
       </c>
     </row>
-    <row r="820" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="820" spans="1:20" s="4" customFormat="1">
       <c r="A820" s="5" t="s">
         <v>1658</v>
       </c>
@@ -56298,7 +56291,7 @@
         <v>6495069</v>
       </c>
     </row>
-    <row r="821" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="821" spans="1:20" s="4" customFormat="1">
       <c r="A821" s="5" t="s">
         <v>1660</v>
       </c>
@@ -56360,7 +56353,7 @@
         <v>2074795.25</v>
       </c>
     </row>
-    <row r="822" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="822" spans="1:20" s="4" customFormat="1">
       <c r="A822" s="5" t="s">
         <v>1662</v>
       </c>
@@ -56422,7 +56415,7 @@
         <v>7894583</v>
       </c>
     </row>
-    <row r="823" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="823" spans="1:20" s="4" customFormat="1">
       <c r="A823" s="5" t="s">
         <v>1663</v>
       </c>
@@ -56482,7 +56475,7 @@
         <v>4614557</v>
       </c>
     </row>
-    <row r="824" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="824" spans="1:20" s="4" customFormat="1">
       <c r="A824" s="5" t="s">
         <v>1665</v>
       </c>
@@ -56544,7 +56537,7 @@
         <v>2190231</v>
       </c>
     </row>
-    <row r="825" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="825" spans="1:20" s="4" customFormat="1">
       <c r="A825" s="5" t="s">
         <v>1666</v>
       </c>
@@ -56606,7 +56599,7 @@
         <v>6021742.5</v>
       </c>
     </row>
-    <row r="826" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="826" spans="1:20" s="4" customFormat="1">
       <c r="A826" s="5" t="s">
         <v>1667</v>
       </c>
@@ -56668,7 +56661,7 @@
         <v>3640377.5</v>
       </c>
     </row>
-    <row r="827" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="827" spans="1:20" s="4" customFormat="1">
       <c r="A827" s="5" t="s">
         <v>1669</v>
       </c>
@@ -56728,7 +56721,7 @@
         <v>2417903.25</v>
       </c>
     </row>
-    <row r="828" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="828" spans="1:20" s="4" customFormat="1">
       <c r="A828" s="5" t="s">
         <v>1671</v>
       </c>
@@ -56788,7 +56781,7 @@
         <v>4258631.5</v>
       </c>
     </row>
-    <row r="829" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="829" spans="1:20" s="4" customFormat="1">
       <c r="A829" s="5" t="s">
         <v>1673</v>
       </c>
@@ -56850,7 +56843,7 @@
         <v>3410845</v>
       </c>
     </row>
-    <row r="830" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="830" spans="1:20" s="4" customFormat="1">
       <c r="A830" s="5" t="s">
         <v>1675</v>
       </c>
@@ -56912,7 +56905,7 @@
         <v>4669350.5</v>
       </c>
     </row>
-    <row r="831" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="831" spans="1:20" s="4" customFormat="1">
       <c r="A831" s="5" t="s">
         <v>1677</v>
       </c>
@@ -56974,7 +56967,7 @@
         <v>17413744</v>
       </c>
     </row>
-    <row r="832" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="832" spans="1:20" s="4" customFormat="1">
       <c r="A832" s="5" t="s">
         <v>1679</v>
       </c>
@@ -57034,7 +57027,7 @@
         <v>2133310.75</v>
       </c>
     </row>
-    <row r="833" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="833" spans="1:20" s="4" customFormat="1">
       <c r="A833" s="5" t="s">
         <v>1681</v>
       </c>
@@ -57096,7 +57089,7 @@
         <v>2052876</v>
       </c>
     </row>
-    <row r="834" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="834" spans="1:20" s="4" customFormat="1">
       <c r="A834" s="5" t="s">
         <v>1682</v>
       </c>
@@ -57156,7 +57149,7 @@
         <v>18233610</v>
       </c>
     </row>
-    <row r="835" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="835" spans="1:20" s="4" customFormat="1">
       <c r="A835" s="5" t="s">
         <v>1684</v>
       </c>
@@ -57216,7 +57209,7 @@
         <v>3185902.5</v>
       </c>
     </row>
-    <row r="836" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="836" spans="1:20" s="4" customFormat="1">
       <c r="A836" s="5" t="s">
         <v>1686</v>
       </c>
@@ -57272,7 +57265,7 @@
         <v>4105561.5</v>
       </c>
     </row>
-    <row r="837" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="837" spans="1:20" s="4" customFormat="1">
       <c r="A837" s="5" t="s">
         <v>1688</v>
       </c>
@@ -57334,7 +57327,7 @@
         <v>3602085.25</v>
       </c>
     </row>
-    <row r="838" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="838" spans="1:20" s="4" customFormat="1">
       <c r="A838" s="5" t="s">
         <v>1690</v>
       </c>
@@ -57396,7 +57389,7 @@
         <v>2067938.5</v>
       </c>
     </row>
-    <row r="839" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="839" spans="1:20" s="4" customFormat="1">
       <c r="A839" s="5" t="s">
         <v>1692</v>
       </c>
@@ -57458,7 +57451,7 @@
         <v>12916967</v>
       </c>
     </row>
-    <row r="840" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="840" spans="1:20" s="4" customFormat="1">
       <c r="A840" s="5" t="s">
         <v>1694</v>
       </c>
@@ -57520,7 +57513,7 @@
         <v>5134925.5</v>
       </c>
     </row>
-    <row r="841" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="841" spans="1:20" s="4" customFormat="1">
       <c r="A841" s="5" t="s">
         <v>1696</v>
       </c>
@@ -57580,7 +57573,7 @@
         <v>13707523</v>
       </c>
     </row>
-    <row r="842" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="842" spans="1:20" s="4" customFormat="1">
       <c r="A842" s="5" t="s">
         <v>1698</v>
       </c>
@@ -57642,7 +57635,7 @@
         <v>4370708.5</v>
       </c>
     </row>
-    <row r="843" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="843" spans="1:20" s="4" customFormat="1">
       <c r="A843" s="5" t="s">
         <v>1700</v>
       </c>
@@ -57704,7 +57697,7 @@
         <v>2026248</v>
       </c>
     </row>
-    <row r="844" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="844" spans="1:20" s="4" customFormat="1">
       <c r="A844" s="5" t="s">
         <v>1702</v>
       </c>
@@ -57766,7 +57759,7 @@
         <v>2788220.25</v>
       </c>
     </row>
-    <row r="845" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="845" spans="1:20" s="4" customFormat="1">
       <c r="A845" s="5" t="s">
         <v>1703</v>
       </c>
@@ -57826,7 +57819,7 @@
         <v>6400919.5</v>
       </c>
     </row>
-    <row r="846" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="846" spans="1:20" s="4" customFormat="1">
       <c r="A846" s="5" t="s">
         <v>1705</v>
       </c>
@@ -57886,7 +57879,7 @@
         <v>296799616</v>
       </c>
     </row>
-    <row r="847" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="847" spans="1:20" s="4" customFormat="1">
       <c r="A847" s="5" t="s">
         <v>1707</v>
       </c>
@@ -57944,7 +57937,7 @@
         <v>12033159</v>
       </c>
     </row>
-    <row r="848" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="848" spans="1:20" s="4" customFormat="1">
       <c r="A848" s="5" t="s">
         <v>1709</v>
       </c>
@@ -58004,7 +57997,7 @@
         <v>5695428</v>
       </c>
     </row>
-    <row r="849" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="849" spans="1:20" s="4" customFormat="1">
       <c r="A849" s="5" t="s">
         <v>1711</v>
       </c>
@@ -58062,7 +58055,7 @@
         <v>2011861.625</v>
       </c>
     </row>
-    <row r="850" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="850" spans="1:20" s="4" customFormat="1">
       <c r="A850" s="5" t="s">
         <v>1713</v>
       </c>
@@ -58122,7 +58115,7 @@
         <v>3969286.75</v>
       </c>
     </row>
-    <row r="851" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="851" spans="1:20" s="4" customFormat="1">
       <c r="A851" s="5" t="s">
         <v>1715</v>
       </c>
@@ -58184,7 +58177,7 @@
         <v>3427628.5</v>
       </c>
     </row>
-    <row r="852" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="852" spans="1:20" s="4" customFormat="1">
       <c r="A852" s="5" t="s">
         <v>1716</v>
       </c>
@@ -58246,7 +58239,7 @@
         <v>3100830.75</v>
       </c>
     </row>
-    <row r="853" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="853" spans="1:20" s="4" customFormat="1">
       <c r="A853" s="5" t="s">
         <v>1718</v>
       </c>
@@ -58306,7 +58299,7 @@
         <v>6251501</v>
       </c>
     </row>
-    <row r="854" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="854" spans="1:20" s="4" customFormat="1">
       <c r="A854" s="5" t="s">
         <v>1720</v>
       </c>
@@ -58368,7 +58361,7 @@
         <v>15085987</v>
       </c>
     </row>
-    <row r="855" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="855" spans="1:20" s="4" customFormat="1">
       <c r="A855" s="5" t="s">
         <v>1722</v>
       </c>
@@ -58428,7 +58421,7 @@
         <v>7473134.5</v>
       </c>
     </row>
-    <row r="856" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="856" spans="1:20" s="4" customFormat="1">
       <c r="A856" s="5" t="s">
         <v>1724</v>
       </c>
@@ -58488,7 +58481,7 @@
         <v>8377700.5</v>
       </c>
     </row>
-    <row r="857" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="857" spans="1:20" s="4" customFormat="1">
       <c r="A857" s="5" t="s">
         <v>1727</v>
       </c>
@@ -58548,7 +58541,7 @@
         <v>2446500.5</v>
       </c>
     </row>
-    <row r="858" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="858" spans="1:20" s="4" customFormat="1">
       <c r="A858" s="5" t="s">
         <v>1731</v>
       </c>
@@ -58608,7 +58601,7 @@
         <v>2576937.5</v>
       </c>
     </row>
-    <row r="859" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="859" spans="1:20" s="4" customFormat="1">
       <c r="A859" s="5" t="s">
         <v>1733</v>
       </c>
@@ -58666,7 +58659,7 @@
         <v>9362568</v>
       </c>
     </row>
-    <row r="860" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="860" spans="1:20" s="4" customFormat="1">
       <c r="A860" s="5" t="s">
         <v>1735</v>
       </c>
@@ -58726,7 +58719,7 @@
         <v>2430235.5</v>
       </c>
     </row>
-    <row r="861" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="861" spans="1:20" s="4" customFormat="1">
       <c r="A861" s="5" t="s">
         <v>1737</v>
       </c>
@@ -58786,7 +58779,7 @@
         <v>3214927.5</v>
       </c>
     </row>
-    <row r="862" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="862" spans="1:20" s="4" customFormat="1">
       <c r="A862" s="5" t="s">
         <v>1739</v>
       </c>
@@ -58848,7 +58841,7 @@
         <v>2316705.5</v>
       </c>
     </row>
-    <row r="863" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="863" spans="1:20" s="4" customFormat="1">
       <c r="A863" s="5" t="s">
         <v>1741</v>
       </c>
@@ -58908,7 +58901,7 @@
         <v>3332684.5</v>
       </c>
     </row>
-    <row r="864" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="864" spans="1:20" s="4" customFormat="1">
       <c r="A864" s="5" t="s">
         <v>1743</v>
       </c>
@@ -58970,7 +58963,7 @@
         <v>4365315</v>
       </c>
     </row>
-    <row r="865" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="865" spans="1:20" s="4" customFormat="1">
       <c r="A865" s="5" t="s">
         <v>1745</v>
       </c>
@@ -59032,7 +59025,7 @@
         <v>8762088</v>
       </c>
     </row>
-    <row r="866" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="866" spans="1:20" s="4" customFormat="1">
       <c r="A866" s="5" t="s">
         <v>1747</v>
       </c>
@@ -59090,7 +59083,7 @@
         <v>8274609</v>
       </c>
     </row>
-    <row r="867" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="867" spans="1:20" s="4" customFormat="1">
       <c r="A867" s="5" t="s">
         <v>1749</v>
       </c>
@@ -59152,7 +59145,7 @@
         <v>2749397</v>
       </c>
     </row>
-    <row r="868" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="868" spans="1:20" s="4" customFormat="1">
       <c r="A868" s="5" t="s">
         <v>1751</v>
       </c>
@@ -59214,7 +59207,7 @@
         <v>3288600.5</v>
       </c>
     </row>
-    <row r="869" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="869" spans="1:20" s="4" customFormat="1">
       <c r="A869" s="5" t="s">
         <v>1752</v>
       </c>
@@ -59274,7 +59267,7 @@
         <v>8436118</v>
       </c>
     </row>
-    <row r="870" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="870" spans="1:20" s="4" customFormat="1">
       <c r="A870" s="5" t="s">
         <v>1754</v>
       </c>
@@ -59334,7 +59327,7 @@
         <v>4385370</v>
       </c>
     </row>
-    <row r="871" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="871" spans="1:20" s="4" customFormat="1">
       <c r="A871" s="5" t="s">
         <v>1756</v>
       </c>
@@ -59394,7 +59387,7 @@
         <v>3883937.75</v>
       </c>
     </row>
-    <row r="872" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="872" spans="1:20" s="4" customFormat="1">
       <c r="A872" s="5" t="s">
         <v>1758</v>
       </c>
@@ -59456,7 +59449,7 @@
         <v>23571426</v>
       </c>
     </row>
-    <row r="873" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="873" spans="1:20" s="4" customFormat="1">
       <c r="A873" s="5" t="s">
         <v>1760</v>
       </c>
@@ -59516,7 +59509,7 @@
         <v>8596749</v>
       </c>
     </row>
-    <row r="874" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="874" spans="1:20" s="4" customFormat="1">
       <c r="A874" s="5" t="s">
         <v>1762</v>
       </c>
@@ -59576,7 +59569,7 @@
         <v>2245908.75</v>
       </c>
     </row>
-    <row r="875" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="875" spans="1:20" s="4" customFormat="1">
       <c r="A875" s="5" t="s">
         <v>1764</v>
       </c>
@@ -59638,7 +59631,7 @@
         <v>2399841.5</v>
       </c>
     </row>
-    <row r="876" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="876" spans="1:20" s="4" customFormat="1">
       <c r="A876" s="5" t="s">
         <v>1766</v>
       </c>
@@ -59700,7 +59693,7 @@
         <v>9229080</v>
       </c>
     </row>
-    <row r="877" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="877" spans="1:20" s="4" customFormat="1">
       <c r="A877" s="5" t="s">
         <v>1767</v>
       </c>
@@ -59762,7 +59755,7 @@
         <v>4926920.5</v>
       </c>
     </row>
-    <row r="878" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="878" spans="1:20" s="4" customFormat="1">
       <c r="A878" s="5" t="s">
         <v>1769</v>
       </c>
@@ -59824,7 +59817,7 @@
         <v>11151044</v>
       </c>
     </row>
-    <row r="879" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="879" spans="1:20" s="4" customFormat="1">
       <c r="A879" s="5" t="s">
         <v>1772</v>
       </c>
@@ -59886,7 +59879,7 @@
         <v>2899126.75</v>
       </c>
     </row>
-    <row r="880" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="880" spans="1:20" s="4" customFormat="1">
       <c r="A880" s="5" t="s">
         <v>1774</v>
       </c>
@@ -59944,7 +59937,7 @@
         <v>8474214</v>
       </c>
     </row>
-    <row r="881" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="881" spans="1:20" s="4" customFormat="1">
       <c r="A881" s="5" t="s">
         <v>1776</v>
       </c>
@@ -60006,7 +59999,7 @@
         <v>3911274</v>
       </c>
     </row>
-    <row r="882" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="882" spans="1:20" s="4" customFormat="1">
       <c r="A882" s="5" t="s">
         <v>1778</v>
       </c>
@@ -60068,7 +60061,7 @@
         <v>8678131</v>
       </c>
     </row>
-    <row r="883" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="883" spans="1:20" s="4" customFormat="1">
       <c r="A883" s="5" t="s">
         <v>1780</v>
       </c>
@@ -60128,7 +60121,7 @@
         <v>50022864</v>
       </c>
     </row>
-    <row r="884" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="884" spans="1:20" s="4" customFormat="1">
       <c r="A884" s="5" t="s">
         <v>1782</v>
       </c>
@@ -60188,7 +60181,7 @@
         <v>39989636</v>
       </c>
     </row>
-    <row r="885" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="885" spans="1:20" s="4" customFormat="1">
       <c r="A885" s="5" t="s">
         <v>1784</v>
       </c>
@@ -60248,7 +60241,7 @@
         <v>2603212.5</v>
       </c>
     </row>
-    <row r="886" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="886" spans="1:20" s="4" customFormat="1">
       <c r="A886" s="5" t="s">
         <v>1786</v>
       </c>
@@ -60310,7 +60303,7 @@
         <v>2147598.75</v>
       </c>
     </row>
-    <row r="887" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="887" spans="1:20" s="4" customFormat="1">
       <c r="A887" s="5" t="s">
         <v>1788</v>
       </c>
@@ -60372,7 +60365,7 @@
         <v>2197782.5</v>
       </c>
     </row>
-    <row r="888" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="888" spans="1:20" s="4" customFormat="1">
       <c r="A888" s="5" t="s">
         <v>1790</v>
       </c>
@@ -60434,7 +60427,7 @@
         <v>2268737.25</v>
       </c>
     </row>
-    <row r="889" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="889" spans="1:20" s="4" customFormat="1">
       <c r="A889" s="5" t="s">
         <v>1792</v>
       </c>
@@ -60494,7 +60487,7 @@
         <v>4871507</v>
       </c>
     </row>
-    <row r="890" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="890" spans="1:20" s="4" customFormat="1">
       <c r="A890" s="5" t="s">
         <v>1794</v>
       </c>
@@ -60554,7 +60547,7 @@
         <v>7150316</v>
       </c>
     </row>
-    <row r="891" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="891" spans="1:20" s="4" customFormat="1">
       <c r="A891" s="5" t="s">
         <v>1796</v>
       </c>
@@ -60614,7 +60607,7 @@
         <v>26684208</v>
       </c>
     </row>
-    <row r="892" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="892" spans="1:20" s="4" customFormat="1">
       <c r="A892" s="5" t="s">
         <v>1798</v>
       </c>
@@ -60676,7 +60669,7 @@
         <v>6331778.5</v>
       </c>
     </row>
-    <row r="893" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="893" spans="1:20" s="4" customFormat="1">
       <c r="A893" s="5" t="s">
         <v>1800</v>
       </c>
@@ -60738,7 +60731,7 @@
         <v>2561053.25</v>
       </c>
     </row>
-    <row r="894" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="894" spans="1:20" s="4" customFormat="1">
       <c r="A894" s="5" t="s">
         <v>1802</v>
       </c>
@@ -60798,7 +60791,7 @@
         <v>2195663.75</v>
       </c>
     </row>
-    <row r="895" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="895" spans="1:20" s="4" customFormat="1">
       <c r="A895" s="5" t="s">
         <v>1803</v>
       </c>
@@ -60858,7 +60851,7 @@
         <v>18200484</v>
       </c>
     </row>
-    <row r="896" spans="1:20" s="4" customFormat="1" ht="12.75">
+    <row r="896" spans="1:20" s="4" customFormat="1">
       <c r="A896" s="5" t="s">
         <v>1805</v>
       </c>
@@ -60918,7 +60911,7 @@
         <v>11155997</v>
       </c>
     </row>
-    <row r="897" spans="1:21" s="4" customFormat="1" ht="12.75">
+    <row r="897" spans="1:20" s="4" customFormat="1">
       <c r="A897" s="5" t="s">
         <v>1807</v>
       </c>
@@ -60980,7 +60973,7 @@
         <v>4172914.5</v>
       </c>
     </row>
-    <row r="898" spans="1:21" s="4" customFormat="1" ht="12.75">
+    <row r="898" spans="1:20" s="4" customFormat="1">
       <c r="A898" s="5" t="s">
         <v>1809</v>
       </c>
@@ -61042,7 +61035,7 @@
         <v>2254724.25</v>
       </c>
     </row>
-    <row r="899" spans="1:21" s="4" customFormat="1" ht="12.75">
+    <row r="899" spans="1:20" s="4" customFormat="1">
       <c r="A899" s="5" t="s">
         <v>1811</v>
       </c>
@@ -61104,7 +61097,7 @@
         <v>2354557.75</v>
       </c>
     </row>
-    <row r="900" spans="1:21" s="4" customFormat="1" ht="12.75">
+    <row r="900" spans="1:20" s="4" customFormat="1">
       <c r="A900" s="5" t="s">
         <v>1813</v>
       </c>
@@ -61166,7 +61159,7 @@
         <v>2583072.25</v>
       </c>
     </row>
-    <row r="901" spans="1:21" s="4" customFormat="1" ht="12.75">
+    <row r="901" spans="1:20" s="4" customFormat="1">
       <c r="A901" s="5" t="s">
         <v>1814</v>
       </c>
@@ -61226,7 +61219,7 @@
         <v>8997096</v>
       </c>
     </row>
-    <row r="902" spans="1:21" s="4" customFormat="1" ht="12.75">
+    <row r="902" spans="1:20" s="4" customFormat="1">
       <c r="A902" s="5" t="s">
         <v>1816</v>
       </c>
@@ -61286,7 +61279,7 @@
         <v>4805722</v>
       </c>
     </row>
-    <row r="903" spans="1:21" s="4" customFormat="1" ht="12.75">
+    <row r="903" spans="1:20" s="4" customFormat="1">
       <c r="A903" s="5" t="s">
         <v>1818</v>
       </c>
@@ -61348,7 +61341,7 @@
         <v>3604234.5</v>
       </c>
     </row>
-    <row r="904" spans="1:21" s="4" customFormat="1" ht="12.75">
+    <row r="904" spans="1:20" s="4" customFormat="1">
       <c r="A904" s="5" t="s">
         <v>1820</v>
       </c>
@@ -61408,7 +61401,7 @@
         <v>2540162.75</v>
       </c>
     </row>
-    <row r="905" spans="1:21" s="4" customFormat="1" ht="12.75">
+    <row r="905" spans="1:20" s="4" customFormat="1">
       <c r="A905" s="5" t="s">
         <v>1822</v>
       </c>
@@ -61468,7 +61461,7 @@
         <v>8688949</v>
       </c>
     </row>
-    <row r="906" spans="1:21" s="4" customFormat="1" ht="12.75">
+    <row r="906" spans="1:20" s="4" customFormat="1">
       <c r="A906" s="5" t="s">
         <v>1824</v>
       </c>
@@ -61530,7 +61523,7 @@
         <v>3148405.75</v>
       </c>
     </row>
-    <row r="907" spans="1:21" s="4" customFormat="1" ht="12.75">
+    <row r="907" spans="1:20" s="4" customFormat="1">
       <c r="A907" s="5" t="s">
         <v>1826</v>
       </c>
@@ -61592,7 +61585,7 @@
         <v>3537366.25</v>
       </c>
     </row>
-    <row r="908" spans="1:21" s="4" customFormat="1" ht="12.75">
+    <row r="908" spans="1:20" s="4" customFormat="1">
       <c r="A908" s="5" t="s">
         <v>1828</v>
       </c>
@@ -61652,35 +61645,7 @@
         <v>9018379</v>
       </c>
     </row>
-    <row r="910" spans="1:21" ht="30" customHeight="1">
-      <c r="A910" s="8" t="s">
-        <v>1830</v>
-      </c>
-      <c r="B910" s="8"/>
-      <c r="C910" s="8"/>
-      <c r="D910" s="8"/>
-      <c r="E910" s="8"/>
-      <c r="F910" s="8"/>
-      <c r="G910" s="8"/>
-      <c r="H910" s="8"/>
-      <c r="I910" s="8"/>
-      <c r="J910" s="8"/>
-      <c r="K910" s="8"/>
-      <c r="L910" s="8"/>
-      <c r="M910" s="8"/>
-      <c r="N910" s="8"/>
-      <c r="O910" s="8"/>
-      <c r="P910" s="8"/>
-      <c r="Q910" s="8"/>
-      <c r="R910" s="8"/>
-      <c r="S910" s="8"/>
-      <c r="T910" s="8"/>
-      <c r="U910" s="8"/>
-    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A910:U910"/>
-  </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
